--- a/Ex-MAPE Horizon 12.xlsx
+++ b/Ex-MAPE Horizon 12.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/thierry_brunet_sap_com/Documents/Mes Documents/SAP/Product Manager/SAC/Smart Predict/Blog/Explain MAPE/Data to explain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{54957FC8-43C7-4BDC-B5D7-FF2283AC3740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A59C49-CEC1-4338-8148-07B6C8EA956D}"/>
+  <xr:revisionPtr revIDLastSave="475" documentId="13_ncr:1_{54957FC8-43C7-4BDC-B5D7-FF2283AC3740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{149A12DF-62E2-418B-AF10-62C5AABA10BF}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="0" windowWidth="29715" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38370" yWindow="-2385" windowWidth="23040" windowHeight="18810" tabRatio="682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecasts on validation" sheetId="2" r:id="rId1"/>
-    <sheet name="APEs" sheetId="3" r:id="rId2"/>
+    <sheet name="MAPEs" sheetId="3" r:id="rId2"/>
+    <sheet name="MAEs" sheetId="4" r:id="rId3"/>
+    <sheet name="RMSE" sheetId="5" r:id="rId4"/>
+    <sheet name="R-Square" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>Month</t>
   </si>
@@ -119,16 +122,164 @@
   <si>
     <t>Expected-MAPE</t>
   </si>
+  <si>
+    <t>AE_h_1</t>
+  </si>
+  <si>
+    <t>AE_h_2</t>
+  </si>
+  <si>
+    <t>AE_h_3</t>
+  </si>
+  <si>
+    <t>AE_h_4</t>
+  </si>
+  <si>
+    <t>AE_h_5</t>
+  </si>
+  <si>
+    <t>AE_h_6</t>
+  </si>
+  <si>
+    <t>AE_h_7</t>
+  </si>
+  <si>
+    <t>AE_h_8</t>
+  </si>
+  <si>
+    <t>AE_h_9</t>
+  </si>
+  <si>
+    <t>AE_h_10</t>
+  </si>
+  <si>
+    <t>AE_h_11</t>
+  </si>
+  <si>
+    <t>AE_h_12</t>
+  </si>
+  <si>
+    <t>MAEs</t>
+  </si>
+  <si>
+    <t>Expected-MAE</t>
+  </si>
+  <si>
+    <t>MASEs</t>
+  </si>
+  <si>
+    <t>RMSEs</t>
+  </si>
+  <si>
+    <t>Expected-RMSE</t>
+  </si>
+  <si>
+    <t>SE_h_1</t>
+  </si>
+  <si>
+    <t>SE_h_2</t>
+  </si>
+  <si>
+    <t>SE_h_3</t>
+  </si>
+  <si>
+    <t>SE_h_4</t>
+  </si>
+  <si>
+    <t>SE_h_5</t>
+  </si>
+  <si>
+    <t>SE_h_6</t>
+  </si>
+  <si>
+    <t>SE_h_7</t>
+  </si>
+  <si>
+    <t>SE_h_8</t>
+  </si>
+  <si>
+    <t>SE_h_9</t>
+  </si>
+  <si>
+    <t>SE_h_10</t>
+  </si>
+  <si>
+    <t>SE_h_11</t>
+  </si>
+  <si>
+    <t>SE_h_12</t>
+  </si>
+  <si>
+    <t>Mean(y)</t>
+  </si>
+  <si>
+    <t>Sum((yi - mean(y))^2</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>Expected-R^2</t>
+  </si>
+  <si>
+    <t>Residual_h_2</t>
+  </si>
+  <si>
+    <t>Residual_h_3</t>
+  </si>
+  <si>
+    <t>Residual_h_4</t>
+  </si>
+  <si>
+    <t>Residual_h_5</t>
+  </si>
+  <si>
+    <t>Residual_h_6</t>
+  </si>
+  <si>
+    <t>Residual_h_7</t>
+  </si>
+  <si>
+    <t>Residual_h_8</t>
+  </si>
+  <si>
+    <t>Residual_h_9</t>
+  </si>
+  <si>
+    <t>Residual_h_10</t>
+  </si>
+  <si>
+    <t>Residual_h_11</t>
+  </si>
+  <si>
+    <t>Residual_h_12</t>
+  </si>
+  <si>
+    <t>Residual_h_1</t>
+  </si>
+  <si>
+    <t>Sum(Residual^2)</t>
+  </si>
+  <si>
+    <t>Lag 1</t>
+  </si>
+  <si>
+    <t>Scaling factor for MASE on estimation</t>
+  </si>
+  <si>
+    <t>Expected-MASE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -231,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -495,12 +646,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -615,8 +803,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -940,9 +1164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4862909-17BB-40D3-BBF0-10BCE48B852F}">
   <dimension ref="A1:BC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH10" sqref="BH10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3019,8 +3243,8 @@
   <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH13" sqref="AH13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4677,12 +4901,12 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="18" x14ac:dyDescent="0.25">
-      <c r="AB14" s="66" t="s">
+      <c r="AB14" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
       <c r="AF14" s="59">
         <f>SUM(AF2:AF13)/12</f>
         <v>3.5353385816363582E-2</v>
@@ -4696,4 +4920,6181 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879134B2-8331-494C-B499-CFAE5351768A}">
+  <dimension ref="A1:AK97"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG17" sqref="AG17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="31" width="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72">
+        <v>43282.500000004999</v>
+      </c>
+      <c r="C1" s="72">
+        <v>43313.500000004999</v>
+      </c>
+      <c r="D1" s="72">
+        <v>43344.500000004999</v>
+      </c>
+      <c r="E1" s="72">
+        <v>43374.500000004999</v>
+      </c>
+      <c r="F1" s="72">
+        <v>43405.500000004999</v>
+      </c>
+      <c r="G1" s="72">
+        <v>43435.500000004999</v>
+      </c>
+      <c r="H1" s="72">
+        <v>43466.500000004999</v>
+      </c>
+      <c r="I1" s="72">
+        <v>43497.500000004999</v>
+      </c>
+      <c r="J1" s="72">
+        <v>43525.500000004999</v>
+      </c>
+      <c r="K1" s="72">
+        <v>43556.500000004999</v>
+      </c>
+      <c r="L1" s="72">
+        <v>43586.500000004999</v>
+      </c>
+      <c r="M1" s="72">
+        <v>43617.500000004999</v>
+      </c>
+      <c r="N1" s="72">
+        <v>43647.500000004999</v>
+      </c>
+      <c r="O1" s="72">
+        <v>43678.500000004999</v>
+      </c>
+      <c r="P1" s="72">
+        <v>43709.500000004999</v>
+      </c>
+      <c r="Q1" s="72">
+        <v>43739.500000004999</v>
+      </c>
+      <c r="R1" s="72">
+        <v>43770.500000004999</v>
+      </c>
+      <c r="S1" s="72">
+        <v>43800.500000004999</v>
+      </c>
+      <c r="T1" s="72">
+        <v>43831.500000004999</v>
+      </c>
+      <c r="U1" s="72">
+        <v>43862.500000004999</v>
+      </c>
+      <c r="V1" s="72">
+        <v>43891.500000004999</v>
+      </c>
+      <c r="W1" s="72">
+        <v>43922.500000004999</v>
+      </c>
+      <c r="X1" s="72">
+        <v>43952.500000004999</v>
+      </c>
+      <c r="Y1" s="72">
+        <v>43983.500000004999</v>
+      </c>
+      <c r="Z1" s="72">
+        <v>44013.500000004999</v>
+      </c>
+      <c r="AA1" s="72">
+        <v>44044.500000004999</v>
+      </c>
+      <c r="AB1" s="72">
+        <v>44075.500000004999</v>
+      </c>
+      <c r="AC1" s="72">
+        <v>44105.500000004999</v>
+      </c>
+      <c r="AD1" s="72">
+        <v>44136.500000004999</v>
+      </c>
+      <c r="AE1" s="73">
+        <v>44166.500000004999</v>
+      </c>
+      <c r="AF1" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="20">
+        <f>ABS(('Forecasts on validation'!N$3-'Forecasts on validation'!N$2))</f>
+        <v>0.28435837980184431</v>
+      </c>
+      <c r="C2" s="20">
+        <f>ABS(('Forecasts on validation'!O$3-'Forecasts on validation'!O$2))</f>
+        <v>0.29041765741230563</v>
+      </c>
+      <c r="D2" s="20">
+        <f>ABS(('Forecasts on validation'!P$3-'Forecasts on validation'!P$2))</f>
+        <v>0.1231262629838028</v>
+      </c>
+      <c r="E2" s="20">
+        <f>ABS(('Forecasts on validation'!Q$3-'Forecasts on validation'!Q$2))</f>
+        <v>1.6895193676170308</v>
+      </c>
+      <c r="F2" s="20">
+        <f>ABS(('Forecasts on validation'!R$3-'Forecasts on validation'!R$2))</f>
+        <v>0.80337359750095771</v>
+      </c>
+      <c r="G2" s="20">
+        <f>ABS(('Forecasts on validation'!S$3-'Forecasts on validation'!S$2))</f>
+        <v>0.9196105881905865</v>
+      </c>
+      <c r="H2" s="20">
+        <f>ABS(('Forecasts on validation'!T$3-'Forecasts on validation'!T$2))</f>
+        <v>2.7852324169122014</v>
+      </c>
+      <c r="I2" s="20">
+        <f>ABS(('Forecasts on validation'!U$3-'Forecasts on validation'!U$2))</f>
+        <v>1.879189246567968</v>
+      </c>
+      <c r="J2" s="20">
+        <f>ABS(('Forecasts on validation'!V$3-'Forecasts on validation'!V$2))</f>
+        <v>1.4241308621206841</v>
+      </c>
+      <c r="K2" s="20">
+        <f>ABS(('Forecasts on validation'!W$3-'Forecasts on validation'!W$2))</f>
+        <v>0.80200185394115664</v>
+      </c>
+      <c r="L2" s="20">
+        <f>ABS(('Forecasts on validation'!X$3-'Forecasts on validation'!X$2))</f>
+        <v>1.1828220529299642</v>
+      </c>
+      <c r="M2" s="20">
+        <f>ABS(('Forecasts on validation'!Y$3-'Forecasts on validation'!Y$2))</f>
+        <v>0.88018949014198711</v>
+      </c>
+      <c r="N2" s="20">
+        <f>ABS(('Forecasts on validation'!Z$3-'Forecasts on validation'!Z$2))</f>
+        <v>0.7894764708863562</v>
+      </c>
+      <c r="O2" s="20">
+        <f>ABS(('Forecasts on validation'!AA$3-'Forecasts on validation'!AA$2))</f>
+        <v>0.30863834398568457</v>
+      </c>
+      <c r="P2" s="20">
+        <f>ABS(('Forecasts on validation'!AB$3-'Forecasts on validation'!AB$2))</f>
+        <v>1.3161491291582976</v>
+      </c>
+      <c r="Q2" s="20">
+        <f>ABS(('Forecasts on validation'!AC$3-'Forecasts on validation'!AC$2))</f>
+        <v>1.0260527104203447</v>
+      </c>
+      <c r="R2" s="20">
+        <f>ABS(('Forecasts on validation'!AD$3-'Forecasts on validation'!AD$2))</f>
+        <v>1.0162635117923315</v>
+      </c>
+      <c r="S2" s="20">
+        <f>ABS(('Forecasts on validation'!AE$3-'Forecasts on validation'!AE$2))</f>
+        <v>2.4582047326121454</v>
+      </c>
+      <c r="T2" s="20">
+        <f>ABS(('Forecasts on validation'!AF$3-'Forecasts on validation'!AF$2))</f>
+        <v>2.0404494191781595</v>
+      </c>
+      <c r="U2" s="20">
+        <f>ABS(('Forecasts on validation'!AG$3-'Forecasts on validation'!AG$2))</f>
+        <v>0.30970463453061825</v>
+      </c>
+      <c r="V2" s="20">
+        <f>ABS(('Forecasts on validation'!AH$3-'Forecasts on validation'!AH$2))</f>
+        <v>0.96523497583715567</v>
+      </c>
+      <c r="W2" s="20">
+        <f>ABS(('Forecasts on validation'!AI$3-'Forecasts on validation'!AI$2))</f>
+        <v>0.98646088288159461</v>
+      </c>
+      <c r="X2" s="20">
+        <f>ABS(('Forecasts on validation'!AJ$3-'Forecasts on validation'!AJ$2))</f>
+        <v>0.84702978072632362</v>
+      </c>
+      <c r="Y2" s="20">
+        <f>ABS(('Forecasts on validation'!AK$3-'Forecasts on validation'!AK$2))</f>
+        <v>0.85547252986208377</v>
+      </c>
+      <c r="Z2" s="20">
+        <f>ABS(('Forecasts on validation'!AL$3-'Forecasts on validation'!AL$2))</f>
+        <v>3.0300688258566879</v>
+      </c>
+      <c r="AA2" s="20">
+        <f>ABS(('Forecasts on validation'!AM$3-'Forecasts on validation'!AM$2))</f>
+        <v>1.5157083482844413</v>
+      </c>
+      <c r="AB2" s="20">
+        <f>ABS(('Forecasts on validation'!AN$3-'Forecasts on validation'!AN$2))</f>
+        <v>0.37165318398831459</v>
+      </c>
+      <c r="AC2" s="20">
+        <f>ABS(('Forecasts on validation'!AO$3-'Forecasts on validation'!AO$2))</f>
+        <v>3.0171849545627154</v>
+      </c>
+      <c r="AD2" s="20">
+        <f>ABS(('Forecasts on validation'!AP$3-'Forecasts on validation'!AP$2))</f>
+        <v>1.419006943984968</v>
+      </c>
+      <c r="AE2" s="20">
+        <f>ABS(('Forecasts on validation'!AQ$3-'Forecasts on validation'!AQ$2))</f>
+        <v>0.38073693636950878</v>
+      </c>
+      <c r="AF2" s="70">
+        <f>SUM(B2:AE2)/30</f>
+        <v>1.190582269701274</v>
+      </c>
+      <c r="AG2" s="70">
+        <f t="shared" ref="AG2:AG13" si="0">AF2/$E$17</f>
+        <v>0.65900019241329366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="20">
+        <f>ABS(('Forecasts on validation'!N4-'Forecasts on validation'!N$2))</f>
+        <v>0.28435837980184431</v>
+      </c>
+      <c r="C3" s="20">
+        <f>ABS(('Forecasts on validation'!O4-'Forecasts on validation'!O$2))</f>
+        <v>0.29041765741230563</v>
+      </c>
+      <c r="D3" s="20">
+        <f>ABS(('Forecasts on validation'!P4-'Forecasts on validation'!P$2))</f>
+        <v>0.1231262629838028</v>
+      </c>
+      <c r="E3" s="20">
+        <f>ABS(('Forecasts on validation'!Q4-'Forecasts on validation'!Q$2))</f>
+        <v>1.6895193676170308</v>
+      </c>
+      <c r="F3" s="20">
+        <f>ABS(('Forecasts on validation'!R4-'Forecasts on validation'!R$2))</f>
+        <v>0.80337359750095771</v>
+      </c>
+      <c r="G3" s="20">
+        <f>ABS(('Forecasts on validation'!S4-'Forecasts on validation'!S$2))</f>
+        <v>0.9196105881905865</v>
+      </c>
+      <c r="H3" s="20">
+        <f>ABS(('Forecasts on validation'!T4-'Forecasts on validation'!T$2))</f>
+        <v>2.7852324169122014</v>
+      </c>
+      <c r="I3" s="20">
+        <f>ABS(('Forecasts on validation'!U4-'Forecasts on validation'!U$2))</f>
+        <v>1.879189246567968</v>
+      </c>
+      <c r="J3" s="20">
+        <f>ABS(('Forecasts on validation'!V4-'Forecasts on validation'!V$2))</f>
+        <v>1.4241308621206841</v>
+      </c>
+      <c r="K3" s="20">
+        <f>ABS(('Forecasts on validation'!W4-'Forecasts on validation'!W$2))</f>
+        <v>0.80200185394115664</v>
+      </c>
+      <c r="L3" s="20">
+        <f>ABS(('Forecasts on validation'!X4-'Forecasts on validation'!X$2))</f>
+        <v>1.1828220529299642</v>
+      </c>
+      <c r="M3" s="20">
+        <f>ABS(('Forecasts on validation'!Y4-'Forecasts on validation'!Y$2))</f>
+        <v>0.88018949014198711</v>
+      </c>
+      <c r="N3" s="20">
+        <f>ABS(('Forecasts on validation'!Z4-'Forecasts on validation'!Z$2))</f>
+        <v>0.7894764708863562</v>
+      </c>
+      <c r="O3" s="20">
+        <f>ABS(('Forecasts on validation'!AA4-'Forecasts on validation'!AA$2))</f>
+        <v>0.30863834398568457</v>
+      </c>
+      <c r="P3" s="20">
+        <f>ABS(('Forecasts on validation'!AB4-'Forecasts on validation'!AB$2))</f>
+        <v>1.3161491291582976</v>
+      </c>
+      <c r="Q3" s="20">
+        <f>ABS(('Forecasts on validation'!AC4-'Forecasts on validation'!AC$2))</f>
+        <v>1.0260527104203447</v>
+      </c>
+      <c r="R3" s="20">
+        <f>ABS(('Forecasts on validation'!AD4-'Forecasts on validation'!AD$2))</f>
+        <v>1.0162635117923315</v>
+      </c>
+      <c r="S3" s="20">
+        <f>ABS(('Forecasts on validation'!AE4-'Forecasts on validation'!AE$2))</f>
+        <v>2.4582047326121454</v>
+      </c>
+      <c r="T3" s="20">
+        <f>ABS(('Forecasts on validation'!AF4-'Forecasts on validation'!AF$2))</f>
+        <v>2.0404494191781595</v>
+      </c>
+      <c r="U3" s="20">
+        <f>ABS(('Forecasts on validation'!AG4-'Forecasts on validation'!AG$2))</f>
+        <v>0.30970463453061825</v>
+      </c>
+      <c r="V3" s="20">
+        <f>ABS(('Forecasts on validation'!AH4-'Forecasts on validation'!AH$2))</f>
+        <v>0.96523497583715567</v>
+      </c>
+      <c r="W3" s="20">
+        <f>ABS(('Forecasts on validation'!AI4-'Forecasts on validation'!AI$2))</f>
+        <v>0.98646088288159461</v>
+      </c>
+      <c r="X3" s="20">
+        <f>ABS(('Forecasts on validation'!AJ4-'Forecasts on validation'!AJ$2))</f>
+        <v>0.84702978072632362</v>
+      </c>
+      <c r="Y3" s="20">
+        <f>ABS(('Forecasts on validation'!AK4-'Forecasts on validation'!AK$2))</f>
+        <v>0.85547252986208377</v>
+      </c>
+      <c r="Z3" s="20">
+        <f>ABS(('Forecasts on validation'!AL4-'Forecasts on validation'!AL$2))</f>
+        <v>3.0300688258566879</v>
+      </c>
+      <c r="AA3" s="20">
+        <f>ABS(('Forecasts on validation'!AM4-'Forecasts on validation'!AM$2))</f>
+        <v>1.5157083482844413</v>
+      </c>
+      <c r="AB3" s="20">
+        <f>ABS(('Forecasts on validation'!AN4-'Forecasts on validation'!AN$2))</f>
+        <v>0.37165318398831459</v>
+      </c>
+      <c r="AC3" s="20">
+        <f>ABS(('Forecasts on validation'!AO4-'Forecasts on validation'!AO$2))</f>
+        <v>3.0171849545627154</v>
+      </c>
+      <c r="AD3" s="20">
+        <f>ABS(('Forecasts on validation'!AP4-'Forecasts on validation'!AP$2))</f>
+        <v>1.419006943984968</v>
+      </c>
+      <c r="AE3" s="20">
+        <f>ABS(('Forecasts on validation'!AQ4-'Forecasts on validation'!AQ$2))</f>
+        <v>0.38073693636950878</v>
+      </c>
+      <c r="AF3" s="70">
+        <f t="shared" ref="AF3:AF13" si="1">SUM(B3:AE3)/30</f>
+        <v>1.190582269701274</v>
+      </c>
+      <c r="AG3" s="70">
+        <f t="shared" si="0"/>
+        <v>0.65900019241329366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="20">
+        <f>ABS(('Forecasts on validation'!N5-'Forecasts on validation'!N$2))</f>
+        <v>0.31510525300362247</v>
+      </c>
+      <c r="C4" s="20">
+        <f>ABS(('Forecasts on validation'!O5-'Forecasts on validation'!O$2))</f>
+        <v>0.15427102375419821</v>
+      </c>
+      <c r="D4" s="20">
+        <f>ABS(('Forecasts on validation'!P5-'Forecasts on validation'!P$2))</f>
+        <v>0.26217399014807796</v>
+      </c>
+      <c r="E4" s="20">
+        <f>ABS(('Forecasts on validation'!Q5-'Forecasts on validation'!Q$2))</f>
+        <v>1.6305683135569069</v>
+      </c>
+      <c r="F4" s="20">
+        <f>ABS(('Forecasts on validation'!R5-'Forecasts on validation'!R$2))</f>
+        <v>5.5435673862973545E-3</v>
+      </c>
+      <c r="G4" s="20">
+        <f>ABS(('Forecasts on validation'!S5-'Forecasts on validation'!S$2))</f>
+        <v>0.53496705862136906</v>
+      </c>
+      <c r="H4" s="20">
+        <f>ABS(('Forecasts on validation'!T5-'Forecasts on validation'!T$2))</f>
+        <v>3.2255285177190416</v>
+      </c>
+      <c r="I4" s="20">
+        <f>ABS(('Forecasts on validation'!U5-'Forecasts on validation'!U$2))</f>
+        <v>0.5456606979024059</v>
+      </c>
+      <c r="J4" s="20">
+        <f>ABS(('Forecasts on validation'!V5-'Forecasts on validation'!V$2))</f>
+        <v>0.52440253301344342</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ABS(('Forecasts on validation'!W5-'Forecasts on validation'!W$2))</f>
+        <v>1.4838548835633887</v>
+      </c>
+      <c r="L4" s="20">
+        <f>ABS(('Forecasts on validation'!X5-'Forecasts on validation'!X$2))</f>
+        <v>1.5668088117437691</v>
+      </c>
+      <c r="M4" s="20">
+        <f>ABS(('Forecasts on validation'!Y5-'Forecasts on validation'!Y$2))</f>
+        <v>0.3138715893464834</v>
+      </c>
+      <c r="N4" s="20">
+        <f>ABS(('Forecasts on validation'!Z5-'Forecasts on validation'!Z$2))</f>
+        <v>0.36805461531245243</v>
+      </c>
+      <c r="O4" s="20">
+        <f>ABS(('Forecasts on validation'!AA5-'Forecasts on validation'!AA$2))</f>
+        <v>0.68662813256994326</v>
+      </c>
+      <c r="P4" s="20">
+        <f>ABS(('Forecasts on validation'!AB5-'Forecasts on validation'!AB$2))</f>
+        <v>1.4639206545859835</v>
+      </c>
+      <c r="Q4" s="20">
+        <f>ABS(('Forecasts on validation'!AC5-'Forecasts on validation'!AC$2))</f>
+        <v>1.6562056654759587</v>
+      </c>
+      <c r="R4" s="20">
+        <f>ABS(('Forecasts on validation'!AD5-'Forecasts on validation'!AD$2))</f>
+        <v>1.5075225440630078</v>
+      </c>
+      <c r="S4" s="20">
+        <f>ABS(('Forecasts on validation'!AE5-'Forecasts on validation'!AE$2))</f>
+        <v>2.9447768397415786</v>
+      </c>
+      <c r="T4" s="20">
+        <f>ABS(('Forecasts on validation'!AF5-'Forecasts on validation'!AF$2))</f>
+        <v>0.86349694314842651</v>
+      </c>
+      <c r="U4" s="20">
+        <f>ABS(('Forecasts on validation'!AG5-'Forecasts on validation'!AG$2))</f>
+        <v>1.2866419759388208</v>
+      </c>
+      <c r="V4" s="20">
+        <f>ABS(('Forecasts on validation'!AH5-'Forecasts on validation'!AH$2))</f>
+        <v>0.81695292609047954</v>
+      </c>
+      <c r="W4" s="20">
+        <f>ABS(('Forecasts on validation'!AI5-'Forecasts on validation'!AI$2))</f>
+        <v>0.52432049250212032</v>
+      </c>
+      <c r="X4" s="20">
+        <f>ABS(('Forecasts on validation'!AJ5-'Forecasts on validation'!AJ$2))</f>
+        <v>1.3193328249810037</v>
+      </c>
+      <c r="Y4" s="20">
+        <f>ABS(('Forecasts on validation'!AK5-'Forecasts on validation'!AK$2))</f>
+        <v>0.44992705821317713</v>
+      </c>
+      <c r="Z4" s="20">
+        <f>ABS(('Forecasts on validation'!AL5-'Forecasts on validation'!AL$2))</f>
+        <v>3.4396565623210478</v>
+      </c>
+      <c r="AA4" s="20">
+        <f>ABS(('Forecasts on validation'!AM5-'Forecasts on validation'!AM$2))</f>
+        <v>2.9664609889495424</v>
+      </c>
+      <c r="AB4" s="20">
+        <f>ABS(('Forecasts on validation'!AN5-'Forecasts on validation'!AN$2))</f>
+        <v>1.0973521747134214</v>
+      </c>
+      <c r="AC4" s="20">
+        <f>ABS(('Forecasts on validation'!AO5-'Forecasts on validation'!AO$2))</f>
+        <v>2.8392428453004968</v>
+      </c>
+      <c r="AD4" s="20">
+        <f>ABS(('Forecasts on validation'!AP5-'Forecasts on validation'!AP$2))</f>
+        <v>2.8635909754943327</v>
+      </c>
+      <c r="AE4" s="20">
+        <f>ABS(('Forecasts on validation'!AQ5-'Forecasts on validation'!AQ$2))</f>
+        <v>0.29866283618394363</v>
+      </c>
+      <c r="AF4" s="70">
+        <f t="shared" si="1"/>
+        <v>1.2651834431781581</v>
+      </c>
+      <c r="AG4" s="70">
+        <f t="shared" si="0"/>
+        <v>0.70029275062336949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14">
+        <f>ABS(('Forecasts on validation'!N6-'Forecasts on validation'!N$2))</f>
+        <v>0.3841342248606594</v>
+      </c>
+      <c r="C5" s="14">
+        <f>ABS(('Forecasts on validation'!O6-'Forecasts on validation'!O$2))</f>
+        <v>0.7644725802788912</v>
+      </c>
+      <c r="D5" s="14">
+        <f>ABS(('Forecasts on validation'!P6-'Forecasts on validation'!P$2))</f>
+        <v>0.12358862278395577</v>
+      </c>
+      <c r="E5" s="14">
+        <f>ABS(('Forecasts on validation'!Q6-'Forecasts on validation'!Q$2))</f>
+        <v>1.4890298866972458</v>
+      </c>
+      <c r="F5" s="14">
+        <f>ABS(('Forecasts on validation'!R6-'Forecasts on validation'!R$2))</f>
+        <v>5.4463450517211243E-2</v>
+      </c>
+      <c r="G5" s="14">
+        <f>ABS(('Forecasts on validation'!S6-'Forecasts on validation'!S$2))</f>
+        <v>1.3583739945912825</v>
+      </c>
+      <c r="H5" s="14">
+        <f>ABS(('Forecasts on validation'!T6-'Forecasts on validation'!T$2))</f>
+        <v>2.8339950407809127</v>
+      </c>
+      <c r="I5" s="14">
+        <f>ABS(('Forecasts on validation'!U6-'Forecasts on validation'!U$2))</f>
+        <v>9.7477770129586361E-2</v>
+      </c>
+      <c r="J5" s="14">
+        <f>ABS(('Forecasts on validation'!V6-'Forecasts on validation'!V$2))</f>
+        <v>1.8818179816498528</v>
+      </c>
+      <c r="K5" s="14">
+        <f>ABS(('Forecasts on validation'!W6-'Forecasts on validation'!W$2))</f>
+        <v>0.56801012363819581</v>
+      </c>
+      <c r="L5" s="14">
+        <f>ABS(('Forecasts on validation'!X6-'Forecasts on validation'!X$2))</f>
+        <v>2.2608755694708123</v>
+      </c>
+      <c r="M5" s="14">
+        <f>ABS(('Forecasts on validation'!Y6-'Forecasts on validation'!Y$2))</f>
+        <v>7.699335239568228E-2</v>
+      </c>
+      <c r="N5" s="14">
+        <f>ABS(('Forecasts on validation'!Z6-'Forecasts on validation'!Z$2))</f>
+        <v>0.94451671516656432</v>
+      </c>
+      <c r="O5" s="14">
+        <f>ABS(('Forecasts on validation'!AA6-'Forecasts on validation'!AA$2))</f>
+        <v>0.25765753593631757</v>
+      </c>
+      <c r="P5" s="14">
+        <f>ABS(('Forecasts on validation'!AB6-'Forecasts on validation'!AB$2))</f>
+        <v>1.8486812050552857</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>ABS(('Forecasts on validation'!AC6-'Forecasts on validation'!AC$2))</f>
+        <v>1.806624156092326</v>
+      </c>
+      <c r="R5" s="14">
+        <f>ABS(('Forecasts on validation'!AD6-'Forecasts on validation'!AD$2))</f>
+        <v>2.1489631469299866</v>
+      </c>
+      <c r="S5" s="14">
+        <f>ABS(('Forecasts on validation'!AE6-'Forecasts on validation'!AE$2))</f>
+        <v>3.4448355751572421</v>
+      </c>
+      <c r="T5" s="14">
+        <f>ABS(('Forecasts on validation'!AF6-'Forecasts on validation'!AF$2))</f>
+        <v>0.36820908766607374</v>
+      </c>
+      <c r="U5" s="14">
+        <f>ABS(('Forecasts on validation'!AG6-'Forecasts on validation'!AG$2))</f>
+        <v>8.8607277039919552E-2</v>
+      </c>
+      <c r="V5" s="14">
+        <f>ABS(('Forecasts on validation'!AH6-'Forecasts on validation'!AH$2))</f>
+        <v>0.17748385661229094</v>
+      </c>
+      <c r="W5" s="14">
+        <f>ABS(('Forecasts on validation'!AI6-'Forecasts on validation'!AI$2))</f>
+        <v>0.67525865223107928</v>
+      </c>
+      <c r="X5" s="14">
+        <f>ABS(('Forecasts on validation'!AJ6-'Forecasts on validation'!AJ$2))</f>
+        <v>0.84891432065449379</v>
+      </c>
+      <c r="Y5" s="14">
+        <f>ABS(('Forecasts on validation'!AK6-'Forecasts on validation'!AK$2))</f>
+        <v>3.0836139058344259E-2</v>
+      </c>
+      <c r="Z5" s="14">
+        <f>ABS(('Forecasts on validation'!AL6-'Forecasts on validation'!AL$2))</f>
+        <v>3.0268467361709881</v>
+      </c>
+      <c r="AA5" s="14">
+        <f>ABS(('Forecasts on validation'!AM6-'Forecasts on validation'!AM$2))</f>
+        <v>3.3833854871952624</v>
+      </c>
+      <c r="AB5" s="14">
+        <f>ABS(('Forecasts on validation'!AN6-'Forecasts on validation'!AN$2))</f>
+        <v>2.5740914980368572</v>
+      </c>
+      <c r="AC5" s="14">
+        <f>ABS(('Forecasts on validation'!AO6-'Forecasts on validation'!AO$2))</f>
+        <v>2.100544733395914</v>
+      </c>
+      <c r="AD5" s="14">
+        <f>ABS(('Forecasts on validation'!AP6-'Forecasts on validation'!AP$2))</f>
+        <v>2.6824614688803265</v>
+      </c>
+      <c r="AE5" s="14">
+        <f>ABS(('Forecasts on validation'!AQ6-'Forecasts on validation'!AQ$2))</f>
+        <v>1.7691230548170651</v>
+      </c>
+      <c r="AF5" s="57">
+        <f t="shared" si="1"/>
+        <v>1.3356757747963541</v>
+      </c>
+      <c r="AG5" s="57">
+        <f t="shared" si="0"/>
+        <v>0.73931102032405016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="14">
+        <f>ABS(('Forecasts on validation'!N7-'Forecasts on validation'!N$2))</f>
+        <v>0.70208415854332173</v>
+      </c>
+      <c r="C6" s="14">
+        <f>ABS(('Forecasts on validation'!O7-'Forecasts on validation'!O$2))</f>
+        <v>0.83471626470868898</v>
+      </c>
+      <c r="D6" s="14">
+        <f>ABS(('Forecasts on validation'!P7-'Forecasts on validation'!P$2))</f>
+        <v>0.74452798233084394</v>
+      </c>
+      <c r="E6" s="14">
+        <f>ABS(('Forecasts on validation'!Q7-'Forecasts on validation'!Q$2))</f>
+        <v>1.630053960355383</v>
+      </c>
+      <c r="F6" s="14">
+        <f>ABS(('Forecasts on validation'!R7-'Forecasts on validation'!R$2))</f>
+        <v>0.19849254907614267</v>
+      </c>
+      <c r="G6" s="14">
+        <f>ABS(('Forecasts on validation'!S7-'Forecasts on validation'!S$2))</f>
+        <v>1.2973110247137143</v>
+      </c>
+      <c r="H6" s="14">
+        <f>ABS(('Forecasts on validation'!T7-'Forecasts on validation'!T$2))</f>
+        <v>3.6718915849647331</v>
+      </c>
+      <c r="I6" s="14">
+        <f>ABS(('Forecasts on validation'!U7-'Forecasts on validation'!U$2))</f>
+        <v>0.49590111699184547</v>
+      </c>
+      <c r="J6" s="14">
+        <f>ABS(('Forecasts on validation'!V7-'Forecasts on validation'!V$2))</f>
+        <v>2.3378876477386896</v>
+      </c>
+      <c r="K6" s="14">
+        <f>ABS(('Forecasts on validation'!W7-'Forecasts on validation'!W$2))</f>
+        <v>1.9493122037505373</v>
+      </c>
+      <c r="L6" s="14">
+        <f>ABS(('Forecasts on validation'!X7-'Forecasts on validation'!X$2))</f>
+        <v>1.3289145598805163</v>
+      </c>
+      <c r="M6" s="14">
+        <f>ABS(('Forecasts on validation'!Y7-'Forecasts on validation'!Y$2))</f>
+        <v>0.78327370094207538</v>
+      </c>
+      <c r="N6" s="14">
+        <f>ABS(('Forecasts on validation'!Z7-'Forecasts on validation'!Z$2))</f>
+        <v>1.3422597625245416</v>
+      </c>
+      <c r="O6" s="14">
+        <f>ABS(('Forecasts on validation'!AA7-'Forecasts on validation'!AA$2))</f>
+        <v>0.84426372082562295</v>
+      </c>
+      <c r="P6" s="14">
+        <f>ABS(('Forecasts on validation'!AB7-'Forecasts on validation'!AB$2))</f>
+        <v>1.4121619522117328</v>
+      </c>
+      <c r="Q6" s="14">
+        <f>ABS(('Forecasts on validation'!AC7-'Forecasts on validation'!AC$2))</f>
+        <v>2.1981553923415547</v>
+      </c>
+      <c r="R6" s="14">
+        <f>ABS(('Forecasts on validation'!AD7-'Forecasts on validation'!AD$2))</f>
+        <v>2.302028572982465</v>
+      </c>
+      <c r="S6" s="14">
+        <f>ABS(('Forecasts on validation'!AE7-'Forecasts on validation'!AE$2))</f>
+        <v>4.0975636989595259</v>
+      </c>
+      <c r="T6" s="14">
+        <f>ABS(('Forecasts on validation'!AF7-'Forecasts on validation'!AF$2))</f>
+        <v>0.1406492519836462</v>
+      </c>
+      <c r="U6" s="14">
+        <f>ABS(('Forecasts on validation'!AG7-'Forecasts on validation'!AG$2))</f>
+        <v>0.41539622882809368</v>
+      </c>
+      <c r="V6" s="14">
+        <f>ABS(('Forecasts on validation'!AH7-'Forecasts on validation'!AH$2))</f>
+        <v>1.0416328281861524</v>
+      </c>
+      <c r="W6" s="14">
+        <f>ABS(('Forecasts on validation'!AI7-'Forecasts on validation'!AI$2))</f>
+        <v>1.6871946795301866</v>
+      </c>
+      <c r="X6" s="14">
+        <f>ABS(('Forecasts on validation'!AJ7-'Forecasts on validation'!AJ$2))</f>
+        <v>1.0025085605103712</v>
+      </c>
+      <c r="Y6" s="14">
+        <f>ABS(('Forecasts on validation'!AK7-'Forecasts on validation'!AK$2))</f>
+        <v>0.44786038616706492</v>
+      </c>
+      <c r="Z6" s="14">
+        <f>ABS(('Forecasts on validation'!AL7-'Forecasts on validation'!AL$2))</f>
+        <v>2.5376234809769329</v>
+      </c>
+      <c r="AA6" s="14">
+        <f>ABS(('Forecasts on validation'!AM7-'Forecasts on validation'!AM$2))</f>
+        <v>2.9633113881972761</v>
+      </c>
+      <c r="AB6" s="14">
+        <f>ABS(('Forecasts on validation'!AN7-'Forecasts on validation'!AN$2))</f>
+        <v>2.9983526755968555</v>
+      </c>
+      <c r="AC6" s="14">
+        <f>ABS(('Forecasts on validation'!AO7-'Forecasts on validation'!AO$2))</f>
+        <v>0.59781901951114946</v>
+      </c>
+      <c r="AD6" s="14">
+        <f>ABS(('Forecasts on validation'!AP7-'Forecasts on validation'!AP$2))</f>
+        <v>1.9307643819097464</v>
+      </c>
+      <c r="AE6" s="14">
+        <f>ABS(('Forecasts on validation'!AQ7-'Forecasts on validation'!AQ$2))</f>
+        <v>1.584806186678442</v>
+      </c>
+      <c r="AF6" s="57">
+        <f t="shared" si="1"/>
+        <v>1.5172906307305951</v>
+      </c>
+      <c r="AG6" s="57">
+        <f t="shared" si="0"/>
+        <v>0.83983681182253023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="14">
+        <f>ABS(('Forecasts on validation'!N8-'Forecasts on validation'!N$2))</f>
+        <v>2.1847355761359353</v>
+      </c>
+      <c r="C7" s="14">
+        <f>ABS(('Forecasts on validation'!O8-'Forecasts on validation'!O$2))</f>
+        <v>1.1581643929108765</v>
+      </c>
+      <c r="D7" s="14">
+        <f>ABS(('Forecasts on validation'!P8-'Forecasts on validation'!P$2))</f>
+        <v>0.81598636567971283</v>
+      </c>
+      <c r="E7" s="14">
+        <f>ABS(('Forecasts on validation'!Q8-'Forecasts on validation'!Q$2))</f>
+        <v>0.99837691848197352</v>
+      </c>
+      <c r="F7" s="14">
+        <f>ABS(('Forecasts on validation'!R8-'Forecasts on validation'!R$2))</f>
+        <v>5.5029796535677633E-2</v>
+      </c>
+      <c r="G7" s="14">
+        <f>ABS(('Forecasts on validation'!S8-'Forecasts on validation'!S$2))</f>
+        <v>1.1507912824512871</v>
+      </c>
+      <c r="H7" s="14">
+        <f>ABS(('Forecasts on validation'!T8-'Forecasts on validation'!T$2))</f>
+        <v>3.6097726749822527</v>
+      </c>
+      <c r="I7" s="14">
+        <f>ABS(('Forecasts on validation'!U8-'Forecasts on validation'!U$2))</f>
+        <v>0.35648487253894245</v>
+      </c>
+      <c r="J7" s="14">
+        <f>ABS(('Forecasts on validation'!V8-'Forecasts on validation'!V$2))</f>
+        <v>1.9325745083962147</v>
+      </c>
+      <c r="K7" s="14">
+        <f>ABS(('Forecasts on validation'!W8-'Forecasts on validation'!W$2))</f>
+        <v>2.413268519506417</v>
+      </c>
+      <c r="L7" s="14">
+        <f>ABS(('Forecasts on validation'!X8-'Forecasts on validation'!X$2))</f>
+        <v>2.7341030029768874</v>
+      </c>
+      <c r="M7" s="14">
+        <f>ABS(('Forecasts on validation'!Y8-'Forecasts on validation'!Y$2))</f>
+        <v>0.1648033771625208</v>
+      </c>
+      <c r="N7" s="14">
+        <f>ABS(('Forecasts on validation'!Z8-'Forecasts on validation'!Z$2))</f>
+        <v>2.0607535646063795</v>
+      </c>
+      <c r="O7" s="14">
+        <f>ABS(('Forecasts on validation'!AA8-'Forecasts on validation'!AA$2))</f>
+        <v>1.2488847964877294</v>
+      </c>
+      <c r="P7" s="14">
+        <f>ABS(('Forecasts on validation'!AB8-'Forecasts on validation'!AB$2))</f>
+        <v>2.008912108114103</v>
+      </c>
+      <c r="Q7" s="14">
+        <f>ABS(('Forecasts on validation'!AC8-'Forecasts on validation'!AC$2))</f>
+        <v>1.7540875681369172</v>
+      </c>
+      <c r="R7" s="14">
+        <f>ABS(('Forecasts on validation'!AD8-'Forecasts on validation'!AD$2))</f>
+        <v>2.7003304189073631</v>
+      </c>
+      <c r="S7" s="14">
+        <f>ABS(('Forecasts on validation'!AE8-'Forecasts on validation'!AE$2))</f>
+        <v>4.2532760306958721</v>
+      </c>
+      <c r="T7" s="14">
+        <f>ABS(('Forecasts on validation'!AF8-'Forecasts on validation'!AF$2))</f>
+        <v>0.80466476984658186</v>
+      </c>
+      <c r="U7" s="14">
+        <f>ABS(('Forecasts on validation'!AG8-'Forecasts on validation'!AG$2))</f>
+        <v>0.93305407380204741</v>
+      </c>
+      <c r="V7" s="14">
+        <f>ABS(('Forecasts on validation'!AH8-'Forecasts on validation'!AH$2))</f>
+        <v>1.5543518864736683</v>
+      </c>
+      <c r="W7" s="14">
+        <f>ABS(('Forecasts on validation'!AI8-'Forecasts on validation'!AI$2))</f>
+        <v>0.44699624579915564</v>
+      </c>
+      <c r="X7" s="14">
+        <f>ABS(('Forecasts on validation'!AJ8-'Forecasts on validation'!AJ$2))</f>
+        <v>2.0319436357097871</v>
+      </c>
+      <c r="Y7" s="14">
+        <f>ABS(('Forecasts on validation'!AK8-'Forecasts on validation'!AK$2))</f>
+        <v>0.29161009603929244</v>
+      </c>
+      <c r="Z7" s="14">
+        <f>ABS(('Forecasts on validation'!AL8-'Forecasts on validation'!AL$2))</f>
+        <v>3.0245979340541567</v>
+      </c>
+      <c r="AA7" s="14">
+        <f>ABS(('Forecasts on validation'!AM8-'Forecasts on validation'!AM$2))</f>
+        <v>2.4656281701739147</v>
+      </c>
+      <c r="AB7" s="14">
+        <f>ABS(('Forecasts on validation'!AN8-'Forecasts on validation'!AN$2))</f>
+        <v>2.5710143854032381</v>
+      </c>
+      <c r="AC7" s="14">
+        <f>ABS(('Forecasts on validation'!AO8-'Forecasts on validation'!AO$2))</f>
+        <v>0.16622124510305269</v>
+      </c>
+      <c r="AD7" s="14">
+        <f>ABS(('Forecasts on validation'!AP8-'Forecasts on validation'!AP$2))</f>
+        <v>0.40205256955738378</v>
+      </c>
+      <c r="AE7" s="14">
+        <f>ABS(('Forecasts on validation'!AQ8-'Forecasts on validation'!AQ$2))</f>
+        <v>0.82011027075369469</v>
+      </c>
+      <c r="AF7" s="57">
+        <f t="shared" si="1"/>
+        <v>1.5704193685807679</v>
+      </c>
+      <c r="AG7" s="57">
+        <f t="shared" si="0"/>
+        <v>0.86924414414801843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="14">
+        <f>ABS(('Forecasts on validation'!N9-'Forecasts on validation'!N$2))</f>
+        <v>1.701288486296157</v>
+      </c>
+      <c r="C8" s="14">
+        <f>ABS(('Forecasts on validation'!O9-'Forecasts on validation'!O$2))</f>
+        <v>2.6660186593014501</v>
+      </c>
+      <c r="D8" s="14">
+        <f>ABS(('Forecasts on validation'!P9-'Forecasts on validation'!P$2))</f>
+        <v>1.1449326266003155</v>
+      </c>
+      <c r="E8" s="14">
+        <f>ABS(('Forecasts on validation'!Q9-'Forecasts on validation'!Q$2))</f>
+        <v>0.92570384986755982</v>
+      </c>
+      <c r="F8" s="14">
+        <f>ABS(('Forecasts on validation'!R9-'Forecasts on validation'!R$2))</f>
+        <v>0.69744440004129871</v>
+      </c>
+      <c r="G8" s="14">
+        <f>ABS(('Forecasts on validation'!S9-'Forecasts on validation'!S$2))</f>
+        <v>1.2966926864626984</v>
+      </c>
+      <c r="H8" s="14">
+        <f>ABS(('Forecasts on validation'!T9-'Forecasts on validation'!T$2))</f>
+        <v>3.4607623170118202</v>
+      </c>
+      <c r="I8" s="14">
+        <f>ABS(('Forecasts on validation'!U9-'Forecasts on validation'!U$2))</f>
+        <v>0.29331003432059077</v>
+      </c>
+      <c r="J8" s="14">
+        <f>ABS(('Forecasts on validation'!V9-'Forecasts on validation'!V$2))</f>
+        <v>2.7994497804088709</v>
+      </c>
+      <c r="K8" s="14">
+        <f>ABS(('Forecasts on validation'!W9-'Forecasts on validation'!W$2))</f>
+        <v>2.0010656651267738</v>
+      </c>
+      <c r="L8" s="14">
+        <f>ABS(('Forecasts on validation'!X9-'Forecasts on validation'!X$2))</f>
+        <v>3.2059458797518374</v>
+      </c>
+      <c r="M8" s="14">
+        <f>ABS(('Forecasts on validation'!Y9-'Forecasts on validation'!Y$2))</f>
+        <v>1.2642711604290042</v>
+      </c>
+      <c r="N8" s="14">
+        <f>ABS(('Forecasts on validation'!Z9-'Forecasts on validation'!Z$2))</f>
+        <v>1.0965605991362537</v>
+      </c>
+      <c r="O8" s="14">
+        <f>ABS(('Forecasts on validation'!AA9-'Forecasts on validation'!AA$2))</f>
+        <v>1.979591914822656</v>
+      </c>
+      <c r="P8" s="14">
+        <f>ABS(('Forecasts on validation'!AB9-'Forecasts on validation'!AB$2))</f>
+        <v>2.4204111347695303</v>
+      </c>
+      <c r="Q8" s="14">
+        <f>ABS(('Forecasts on validation'!AC9-'Forecasts on validation'!AC$2))</f>
+        <v>2.3609815810315027</v>
+      </c>
+      <c r="R8" s="14">
+        <f>ABS(('Forecasts on validation'!AD9-'Forecasts on validation'!AD$2))</f>
+        <v>2.2487141081895388</v>
+      </c>
+      <c r="S8" s="14">
+        <f>ABS(('Forecasts on validation'!AE9-'Forecasts on validation'!AE$2))</f>
+        <v>4.6583484101930495</v>
+      </c>
+      <c r="T8" s="14">
+        <f>ABS(('Forecasts on validation'!AF9-'Forecasts on validation'!AF$2))</f>
+        <v>0.96302397751490787</v>
+      </c>
+      <c r="U8" s="14">
+        <f>ABS(('Forecasts on validation'!AG9-'Forecasts on validation'!AG$2))</f>
+        <v>1.6083568588524173</v>
+      </c>
+      <c r="V8" s="14">
+        <f>ABS(('Forecasts on validation'!AH9-'Forecasts on validation'!AH$2))</f>
+        <v>2.0808091378631488</v>
+      </c>
+      <c r="W8" s="14">
+        <f>ABS(('Forecasts on validation'!AI9-'Forecasts on validation'!AI$2))</f>
+        <v>7.4438266942806308E-2</v>
+      </c>
+      <c r="X8" s="14">
+        <f>ABS(('Forecasts on validation'!AJ9-'Forecasts on validation'!AJ$2))</f>
+        <v>0.77066369001047264</v>
+      </c>
+      <c r="Y8" s="14">
+        <f>ABS(('Forecasts on validation'!AK9-'Forecasts on validation'!AK$2))</f>
+        <v>0.75532383036662765</v>
+      </c>
+      <c r="Z8" s="14">
+        <f>ABS(('Forecasts on validation'!AL9-'Forecasts on validation'!AL$2))</f>
+        <v>2.8656916235091714</v>
+      </c>
+      <c r="AA8" s="14">
+        <f>ABS(('Forecasts on validation'!AM9-'Forecasts on validation'!AM$2))</f>
+        <v>2.9608804580569057</v>
+      </c>
+      <c r="AB8" s="14">
+        <f>ABS(('Forecasts on validation'!AN9-'Forecasts on validation'!AN$2))</f>
+        <v>2.0648712996427321</v>
+      </c>
+      <c r="AC8" s="14">
+        <f>ABS(('Forecasts on validation'!AO9-'Forecasts on validation'!AO$2))</f>
+        <v>0.60082364484091499</v>
+      </c>
+      <c r="AD8" s="14">
+        <f>ABS(('Forecasts on validation'!AP9-'Forecasts on validation'!AP$2))</f>
+        <v>3.688171923357686E-2</v>
+      </c>
+      <c r="AE8" s="14">
+        <f>ABS(('Forecasts on validation'!AQ9-'Forecasts on validation'!AQ$2))</f>
+        <v>0.73458734797581116</v>
+      </c>
+      <c r="AF8" s="57">
+        <f t="shared" si="1"/>
+        <v>1.7245948382856799</v>
+      </c>
+      <c r="AG8" s="57">
+        <f t="shared" si="0"/>
+        <v>0.9545819379205055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="14">
+        <f>ABS(('Forecasts on validation'!N10-'Forecasts on validation'!N$2))</f>
+        <v>2.4878003705707386</v>
+      </c>
+      <c r="C9" s="14">
+        <f>ABS(('Forecasts on validation'!O10-'Forecasts on validation'!O$2))</f>
+        <v>2.17449114204598</v>
+      </c>
+      <c r="D9" s="14">
+        <f>ABS(('Forecasts on validation'!P10-'Forecasts on validation'!P$2))</f>
+        <v>2.6779894585023172</v>
+      </c>
+      <c r="E9" s="14">
+        <f>ABS(('Forecasts on validation'!Q10-'Forecasts on validation'!Q$2))</f>
+        <v>0.59125951802898413</v>
+      </c>
+      <c r="F9" s="14">
+        <f>ABS(('Forecasts on validation'!R10-'Forecasts on validation'!R$2))</f>
+        <v>0.77133214026788011</v>
+      </c>
+      <c r="G9" s="14">
+        <f>ABS(('Forecasts on validation'!S10-'Forecasts on validation'!S$2))</f>
+        <v>0.64354064201784666</v>
+      </c>
+      <c r="H9" s="14">
+        <f>ABS(('Forecasts on validation'!T10-'Forecasts on validation'!T$2))</f>
+        <v>3.6091023450831088</v>
+      </c>
+      <c r="I9" s="14">
+        <f>ABS(('Forecasts on validation'!U10-'Forecasts on validation'!U$2))</f>
+        <v>0.14180908863732355</v>
+      </c>
+      <c r="J9" s="14">
+        <f>ABS(('Forecasts on validation'!V10-'Forecasts on validation'!V$2))</f>
+        <v>2.7352190258235609</v>
+      </c>
+      <c r="K9" s="14">
+        <f>ABS(('Forecasts on validation'!W10-'Forecasts on validation'!W$2))</f>
+        <v>2.8824300567580252</v>
+      </c>
+      <c r="L9" s="14">
+        <f>ABS(('Forecasts on validation'!X10-'Forecasts on validation'!X$2))</f>
+        <v>2.7868533877771924</v>
+      </c>
+      <c r="M9" s="14">
+        <f>ABS(('Forecasts on validation'!Y10-'Forecasts on validation'!Y$2))</f>
+        <v>1.7440005095760469</v>
+      </c>
+      <c r="N9" s="14">
+        <f>ABS(('Forecasts on validation'!Z10-'Forecasts on validation'!Z$2))</f>
+        <v>2.5495209627370627</v>
+      </c>
+      <c r="O9" s="14">
+        <f>ABS(('Forecasts on validation'!AA10-'Forecasts on validation'!AA$2))</f>
+        <v>0.99928324313371775</v>
+      </c>
+      <c r="P9" s="14">
+        <f>ABS(('Forecasts on validation'!AB10-'Forecasts on validation'!AB$2))</f>
+        <v>3.1633314320767099</v>
+      </c>
+      <c r="Q9" s="14">
+        <f>ABS(('Forecasts on validation'!AC10-'Forecasts on validation'!AC$2))</f>
+        <v>2.7793584813703021</v>
+      </c>
+      <c r="R9" s="14">
+        <f>ABS(('Forecasts on validation'!AD10-'Forecasts on validation'!AD$2))</f>
+        <v>2.8657518640567687</v>
+      </c>
+      <c r="S9" s="14">
+        <f>ABS(('Forecasts on validation'!AE10-'Forecasts on validation'!AE$2))</f>
+        <v>4.1991836978089623</v>
+      </c>
+      <c r="T9" s="14">
+        <f>ABS(('Forecasts on validation'!AF10-'Forecasts on validation'!AF$2))</f>
+        <v>1.3748668144818126</v>
+      </c>
+      <c r="U9" s="14">
+        <f>ABS(('Forecasts on validation'!AG10-'Forecasts on validation'!AG$2))</f>
+        <v>1.7693629127011405</v>
+      </c>
+      <c r="V9" s="14">
+        <f>ABS(('Forecasts on validation'!AH10-'Forecasts on validation'!AH$2))</f>
+        <v>2.7673990632291634</v>
+      </c>
+      <c r="W9" s="14">
+        <f>ABS(('Forecasts on validation'!AI10-'Forecasts on validation'!AI$2))</f>
+        <v>0.60969482584021506</v>
+      </c>
+      <c r="X9" s="14">
+        <f>ABS(('Forecasts on validation'!AJ10-'Forecasts on validation'!AJ$2))</f>
+        <v>0.24051382077801975</v>
+      </c>
+      <c r="Y9" s="14">
+        <f>ABS(('Forecasts on validation'!AK10-'Forecasts on validation'!AK$2))</f>
+        <v>0.52703739033935193</v>
+      </c>
+      <c r="Z9" s="14">
+        <f>ABS(('Forecasts on validation'!AL10-'Forecasts on validation'!AL$2))</f>
+        <v>1.8012590425883559</v>
+      </c>
+      <c r="AA9" s="14">
+        <f>ABS(('Forecasts on validation'!AM10-'Forecasts on validation'!AM$2))</f>
+        <v>2.7993181569490702</v>
+      </c>
+      <c r="AB9" s="14">
+        <f>ABS(('Forecasts on validation'!AN10-'Forecasts on validation'!AN$2))</f>
+        <v>2.5684013292864947</v>
+      </c>
+      <c r="AC9" s="14">
+        <f>ABS(('Forecasts on validation'!AO10-'Forecasts on validation'!AO$2))</f>
+        <v>1.1154265032474697</v>
+      </c>
+      <c r="AD9" s="14">
+        <f>ABS(('Forecasts on validation'!AP10-'Forecasts on validation'!AP$2))</f>
+        <v>0.40498470839806799</v>
+      </c>
+      <c r="AE9" s="14">
+        <f>ABS(('Forecasts on validation'!AQ10-'Forecasts on validation'!AQ$2))</f>
+        <v>1.1808580686853176</v>
+      </c>
+      <c r="AF9" s="57">
+        <f t="shared" si="1"/>
+        <v>1.8987126667599001</v>
+      </c>
+      <c r="AG9" s="57">
+        <f t="shared" si="0"/>
+        <v>1.0509580434506895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="14">
+        <f>ABS(('Forecasts on validation'!N11-'Forecasts on validation'!N$2))</f>
+        <v>2.3929027076769529</v>
+      </c>
+      <c r="C10" s="14">
+        <f>ABS(('Forecasts on validation'!O11-'Forecasts on validation'!O$2))</f>
+        <v>2.9739326803756327</v>
+      </c>
+      <c r="D10" s="14">
+        <f>ABS(('Forecasts on validation'!P11-'Forecasts on validation'!P$2))</f>
+        <v>2.1783816046572539</v>
+      </c>
+      <c r="E10" s="14">
+        <f>ABS(('Forecasts on validation'!Q11-'Forecasts on validation'!Q$2))</f>
+        <v>0.96699959610111819</v>
+      </c>
+      <c r="F10" s="14">
+        <f>ABS(('Forecasts on validation'!R11-'Forecasts on validation'!R$2))</f>
+        <v>1.1112744812246973</v>
+      </c>
+      <c r="G10" s="14">
+        <f>ABS(('Forecasts on validation'!S11-'Forecasts on validation'!S$2))</f>
+        <v>0.56843824383231123</v>
+      </c>
+      <c r="H10" s="14">
+        <f>ABS(('Forecasts on validation'!T11-'Forecasts on validation'!T$2))</f>
+        <v>2.9452129803906146</v>
+      </c>
+      <c r="I10" s="14">
+        <f>ABS(('Forecasts on validation'!U11-'Forecasts on validation'!U$2))</f>
+        <v>0.29258771335772593</v>
+      </c>
+      <c r="J10" s="14">
+        <f>ABS(('Forecasts on validation'!V11-'Forecasts on validation'!V$2))</f>
+        <v>2.5812275204222956</v>
+      </c>
+      <c r="K10" s="14">
+        <f>ABS(('Forecasts on validation'!W11-'Forecasts on validation'!W$2))</f>
+        <v>2.8171433976745277</v>
+      </c>
+      <c r="L10" s="14">
+        <f>ABS(('Forecasts on validation'!X11-'Forecasts on validation'!X$2))</f>
+        <v>3.6827067361655992</v>
+      </c>
+      <c r="M10" s="14">
+        <f>ABS(('Forecasts on validation'!Y11-'Forecasts on validation'!Y$2))</f>
+        <v>1.3180184574477067</v>
+      </c>
+      <c r="N10" s="14">
+        <f>ABS(('Forecasts on validation'!Z11-'Forecasts on validation'!Z$2))</f>
+        <v>3.0371366956102079</v>
+      </c>
+      <c r="O10" s="14">
+        <f>ABS(('Forecasts on validation'!AA11-'Forecasts on validation'!AA$2))</f>
+        <v>2.476129164260982</v>
+      </c>
+      <c r="P10" s="14">
+        <f>ABS(('Forecasts on validation'!AB11-'Forecasts on validation'!AB$2))</f>
+        <v>2.1669072353136585</v>
+      </c>
+      <c r="Q10" s="14">
+        <f>ABS(('Forecasts on validation'!AC11-'Forecasts on validation'!AC$2))</f>
+        <v>3.5344918203704552</v>
+      </c>
+      <c r="R10" s="14">
+        <f>ABS(('Forecasts on validation'!AD11-'Forecasts on validation'!AD$2))</f>
+        <v>3.2910065607698726</v>
+      </c>
+      <c r="S10" s="14">
+        <f>ABS(('Forecasts on validation'!AE11-'Forecasts on validation'!AE$2))</f>
+        <v>4.8263650826305522</v>
+      </c>
+      <c r="T10" s="14">
+        <f>ABS(('Forecasts on validation'!AF11-'Forecasts on validation'!AF$2))</f>
+        <v>0.90815378527744883</v>
+      </c>
+      <c r="U10" s="14">
+        <f>ABS(('Forecasts on validation'!AG11-'Forecasts on validation'!AG$2))</f>
+        <v>2.1879761310360877</v>
+      </c>
+      <c r="V10" s="14">
+        <f>ABS(('Forecasts on validation'!AH11-'Forecasts on validation'!AH$2))</f>
+        <v>2.9310519335070495</v>
+      </c>
+      <c r="W10" s="14">
+        <f>ABS(('Forecasts on validation'!AI11-'Forecasts on validation'!AI$2))</f>
+        <v>1.3075717646514917</v>
+      </c>
+      <c r="X10" s="14">
+        <f>ABS(('Forecasts on validation'!AJ11-'Forecasts on validation'!AJ$2))</f>
+        <v>0.30354194672083423</v>
+      </c>
+      <c r="Y10" s="14">
+        <f>ABS(('Forecasts on validation'!AK11-'Forecasts on validation'!AK$2))</f>
+        <v>1.0659025180994419</v>
+      </c>
+      <c r="Z10" s="14">
+        <f>ABS(('Forecasts on validation'!AL11-'Forecasts on validation'!AL$2))</f>
+        <v>3.1047013013420184</v>
+      </c>
+      <c r="AA10" s="14">
+        <f>ABS(('Forecasts on validation'!AM11-'Forecasts on validation'!AM$2))</f>
+        <v>1.717387118202744</v>
+      </c>
+      <c r="AB10" s="14">
+        <f>ABS(('Forecasts on validation'!AN11-'Forecasts on validation'!AN$2))</f>
+        <v>2.4041830674698232</v>
+      </c>
+      <c r="AC10" s="14">
+        <f>ABS(('Forecasts on validation'!AO11-'Forecasts on validation'!AO$2))</f>
+        <v>0.60361882488688678</v>
+      </c>
+      <c r="AD10" s="14">
+        <f>ABS(('Forecasts on validation'!AP11-'Forecasts on validation'!AP$2))</f>
+        <v>0.92804724436064845</v>
+      </c>
+      <c r="AE10" s="14">
+        <f>ABS(('Forecasts on validation'!AQ11-'Forecasts on validation'!AQ$2))</f>
+        <v>0.73172769480944311</v>
+      </c>
+      <c r="AF10" s="57">
+        <f t="shared" si="1"/>
+        <v>2.045157533621536</v>
+      </c>
+      <c r="AG10" s="57">
+        <f t="shared" si="0"/>
+        <v>1.132016864748248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="14">
+        <f>ABS(('Forecasts on validation'!N12-'Forecasts on validation'!N$2))</f>
+        <v>2.2234879573730026</v>
+      </c>
+      <c r="C11" s="14">
+        <f>ABS(('Forecasts on validation'!O12-'Forecasts on validation'!O$2))</f>
+        <v>2.8775002208753477</v>
+      </c>
+      <c r="D11" s="14">
+        <f>ABS(('Forecasts on validation'!P12-'Forecasts on validation'!P$2))</f>
+        <v>2.9907526517093146</v>
+      </c>
+      <c r="E11" s="14">
+        <f>ABS(('Forecasts on validation'!Q12-'Forecasts on validation'!Q$2))</f>
+        <v>0.45931149649153014</v>
+      </c>
+      <c r="F11" s="14">
+        <f>ABS(('Forecasts on validation'!R12-'Forecasts on validation'!R$2))</f>
+        <v>2.6947355943027418</v>
+      </c>
+      <c r="G11" s="14">
+        <f>ABS(('Forecasts on validation'!S12-'Forecasts on validation'!S$2))</f>
+        <v>0.22299795555628776</v>
+      </c>
+      <c r="H11" s="14">
+        <f>ABS(('Forecasts on validation'!T12-'Forecasts on validation'!T$2))</f>
+        <v>2.8688959378992109</v>
+      </c>
+      <c r="I11" s="14">
+        <f>ABS(('Forecasts on validation'!U12-'Forecasts on validation'!U$2))</f>
+        <v>0.38203885089215817</v>
+      </c>
+      <c r="J11" s="14">
+        <f>ABS(('Forecasts on validation'!V12-'Forecasts on validation'!V$2))</f>
+        <v>2.7344447143813539</v>
+      </c>
+      <c r="K11" s="14">
+        <f>ABS(('Forecasts on validation'!W12-'Forecasts on validation'!W$2))</f>
+        <v>2.6606613605497955</v>
+      </c>
+      <c r="L11" s="14">
+        <f>ABS(('Forecasts on validation'!X12-'Forecasts on validation'!X$2))</f>
+        <v>3.61636418445255</v>
+      </c>
+      <c r="M11" s="14">
+        <f>ABS(('Forecasts on validation'!Y12-'Forecasts on validation'!Y$2))</f>
+        <v>2.228360599733648</v>
+      </c>
+      <c r="N11" s="14">
+        <f>ABS(('Forecasts on validation'!Z12-'Forecasts on validation'!Z$2))</f>
+        <v>2.6042651607686054</v>
+      </c>
+      <c r="O11" s="14">
+        <f>ABS(('Forecasts on validation'!AA12-'Forecasts on validation'!AA$2))</f>
+        <v>2.9716311922152414</v>
+      </c>
+      <c r="P11" s="14">
+        <f>ABS(('Forecasts on validation'!AB12-'Forecasts on validation'!AB$2))</f>
+        <v>3.6676384454875404</v>
+      </c>
+      <c r="Q11" s="14">
+        <f>ABS(('Forecasts on validation'!AC12-'Forecasts on validation'!AC$2))</f>
+        <v>2.5219522796759506</v>
+      </c>
+      <c r="R11" s="14">
+        <f>ABS(('Forecasts on validation'!AD12-'Forecasts on validation'!AD$2))</f>
+        <v>4.0583528041852617</v>
+      </c>
+      <c r="S11" s="14">
+        <f>ABS(('Forecasts on validation'!AE12-'Forecasts on validation'!AE$2))</f>
+        <v>5.2584974984097528</v>
+      </c>
+      <c r="T11" s="14">
+        <f>ABS(('Forecasts on validation'!AF12-'Forecasts on validation'!AF$2))</f>
+        <v>1.545478685036386</v>
+      </c>
+      <c r="U11" s="14">
+        <f>ABS(('Forecasts on validation'!AG12-'Forecasts on validation'!AG$2))</f>
+        <v>1.7137148698564744</v>
+      </c>
+      <c r="V11" s="14">
+        <f>ABS(('Forecasts on validation'!AH12-'Forecasts on validation'!AH$2))</f>
+        <v>3.3564354571092139</v>
+      </c>
+      <c r="W11" s="14">
+        <f>ABS(('Forecasts on validation'!AI12-'Forecasts on validation'!AI$2))</f>
+        <v>1.4738714216076545</v>
+      </c>
+      <c r="X11" s="14">
+        <f>ABS(('Forecasts on validation'!AJ12-'Forecasts on validation'!AJ$2))</f>
+        <v>1.0127057721084469</v>
+      </c>
+      <c r="Y11" s="14">
+        <f>ABS(('Forecasts on validation'!AK12-'Forecasts on validation'!AK$2))</f>
+        <v>1.6187573952943595</v>
+      </c>
+      <c r="Z11" s="14">
+        <f>ABS(('Forecasts on validation'!AL12-'Forecasts on validation'!AL$2))</f>
+        <v>3.652281589667993</v>
+      </c>
+      <c r="AA11" s="14">
+        <f>ABS(('Forecasts on validation'!AM12-'Forecasts on validation'!AM$2))</f>
+        <v>3.0419101780478002</v>
+      </c>
+      <c r="AB11" s="14">
+        <f>ABS(('Forecasts on validation'!AN12-'Forecasts on validation'!AN$2))</f>
+        <v>1.3047537675851686</v>
+      </c>
+      <c r="AC11" s="14">
+        <f>ABS(('Forecasts on validation'!AO12-'Forecasts on validation'!AO$2))</f>
+        <v>0.77049301755870658</v>
+      </c>
+      <c r="AD11" s="14">
+        <f>ABS(('Forecasts on validation'!AP12-'Forecasts on validation'!AP$2))</f>
+        <v>0.40796201032615187</v>
+      </c>
+      <c r="AE11" s="14">
+        <f>ABS(('Forecasts on validation'!AQ12-'Forecasts on validation'!AQ$2))</f>
+        <v>0.20020557637979408</v>
+      </c>
+      <c r="AF11" s="57">
+        <f t="shared" si="1"/>
+        <v>2.2380152881845818</v>
+      </c>
+      <c r="AG11" s="57">
+        <f t="shared" si="0"/>
+        <v>1.2387657225128874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="14">
+        <f>ABS(('Forecasts on validation'!N13-'Forecasts on validation'!N$2))</f>
+        <v>2.574775613524892</v>
+      </c>
+      <c r="C12" s="14">
+        <f>ABS(('Forecasts on validation'!O13-'Forecasts on validation'!O$2))</f>
+        <v>2.7053891350994519</v>
+      </c>
+      <c r="D12" s="14">
+        <f>ABS(('Forecasts on validation'!P13-'Forecasts on validation'!P$2))</f>
+        <v>2.892785412854046</v>
+      </c>
+      <c r="E12" s="14">
+        <f>ABS(('Forecasts on validation'!Q13-'Forecasts on validation'!Q$2))</f>
+        <v>1.2846119069349911</v>
+      </c>
+      <c r="F12" s="14">
+        <f>ABS(('Forecasts on validation'!R13-'Forecasts on validation'!R$2))</f>
+        <v>2.1789673397526741</v>
+      </c>
+      <c r="G12" s="14">
+        <f>ABS(('Forecasts on validation'!S13-'Forecasts on validation'!S$2))</f>
+        <v>1.3856648731927308</v>
+      </c>
+      <c r="H12" s="14">
+        <f>ABS(('Forecasts on validation'!T13-'Forecasts on validation'!T$2))</f>
+        <v>2.5179577641023272</v>
+      </c>
+      <c r="I12" s="14">
+        <f>ABS(('Forecasts on validation'!U13-'Forecasts on validation'!U$2))</f>
+        <v>0.45957052403652199</v>
+      </c>
+      <c r="J12" s="14">
+        <f>ABS(('Forecasts on validation'!V13-'Forecasts on validation'!V$2))</f>
+        <v>2.0490810712629752</v>
+      </c>
+      <c r="K12" s="14">
+        <f>ABS(('Forecasts on validation'!W13-'Forecasts on validation'!W$2))</f>
+        <v>2.8163170963373645</v>
+      </c>
+      <c r="L12" s="14">
+        <f>ABS(('Forecasts on validation'!X13-'Forecasts on validation'!X$2))</f>
+        <v>3.4573916435985765</v>
+      </c>
+      <c r="M12" s="14">
+        <f>ABS(('Forecasts on validation'!Y13-'Forecasts on validation'!Y$2))</f>
+        <v>2.1609621672595551</v>
+      </c>
+      <c r="N12" s="14">
+        <f>ABS(('Forecasts on validation'!Z13-'Forecasts on validation'!Z$2))</f>
+        <v>3.5290959340943147</v>
+      </c>
+      <c r="O12" s="14">
+        <f>ABS(('Forecasts on validation'!AA13-'Forecasts on validation'!AA$2))</f>
+        <v>2.5318702520999423</v>
+      </c>
+      <c r="P12" s="14">
+        <f>ABS(('Forecasts on validation'!AB13-'Forecasts on validation'!AB$2))</f>
+        <v>4.1710266798789277</v>
+      </c>
+      <c r="Q12" s="14">
+        <f>ABS(('Forecasts on validation'!AC13-'Forecasts on validation'!AC$2))</f>
+        <v>4.0465685104196467</v>
+      </c>
+      <c r="R12" s="14">
+        <f>ABS(('Forecasts on validation'!AD13-'Forecasts on validation'!AD$2))</f>
+        <v>3.0296981006999246</v>
+      </c>
+      <c r="S12" s="14">
+        <f>ABS(('Forecasts on validation'!AE13-'Forecasts on validation'!AE$2))</f>
+        <v>6.038056508964182</v>
+      </c>
+      <c r="T12" s="14">
+        <f>ABS(('Forecasts on validation'!AF13-'Forecasts on validation'!AF$2))</f>
+        <v>1.9844887425743494</v>
+      </c>
+      <c r="U12" s="14">
+        <f>ABS(('Forecasts on validation'!AG13-'Forecasts on validation'!AG$2))</f>
+        <v>2.3611831705370463</v>
+      </c>
+      <c r="V12" s="14">
+        <f>ABS(('Forecasts on validation'!AH13-'Forecasts on validation'!AH$2))</f>
+        <v>2.8746260487984188</v>
+      </c>
+      <c r="W12" s="14">
+        <f>ABS(('Forecasts on validation'!AI13-'Forecasts on validation'!AI$2))</f>
+        <v>1.9060251743770493</v>
+      </c>
+      <c r="X12" s="14">
+        <f>ABS(('Forecasts on validation'!AJ13-'Forecasts on validation'!AJ$2))</f>
+        <v>1.1816521859923128</v>
+      </c>
+      <c r="Y12" s="14">
+        <f>ABS(('Forecasts on validation'!AK13-'Forecasts on validation'!AK$2))</f>
+        <v>2.3392079803907819</v>
+      </c>
+      <c r="Z12" s="14">
+        <f>ABS(('Forecasts on validation'!AL13-'Forecasts on validation'!AL$2))</f>
+        <v>4.2139354776547222</v>
+      </c>
+      <c r="AA12" s="14">
+        <f>ABS(('Forecasts on validation'!AM13-'Forecasts on validation'!AM$2))</f>
+        <v>3.5982055289790011</v>
+      </c>
+      <c r="AB12" s="14">
+        <f>ABS(('Forecasts on validation'!AN13-'Forecasts on validation'!AN$2))</f>
+        <v>2.6503573915679652</v>
+      </c>
+      <c r="AC12" s="14">
+        <f>ABS(('Forecasts on validation'!AO13-'Forecasts on validation'!AO$2))</f>
+        <v>1.8874203818967317</v>
+      </c>
+      <c r="AD12" s="14">
+        <f>ABS(('Forecasts on validation'!AP13-'Forecasts on validation'!AP$2))</f>
+        <v>0.57749210399977358</v>
+      </c>
+      <c r="AE12" s="14">
+        <f>ABS(('Forecasts on validation'!AQ13-'Forecasts on validation'!AQ$2))</f>
+        <v>0.7285682730463563</v>
+      </c>
+      <c r="AF12" s="57">
+        <f t="shared" si="1"/>
+        <v>2.537765099797586</v>
+      </c>
+      <c r="AG12" s="57">
+        <f t="shared" si="0"/>
+        <v>1.404680492584494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="19">
+        <f>ABS(('Forecasts on validation'!N14-'Forecasts on validation'!N$2))</f>
+        <v>2.9369489491794809</v>
+      </c>
+      <c r="C13" s="19">
+        <f>ABS(('Forecasts on validation'!O14-'Forecasts on validation'!O$2))</f>
+        <v>3.0621800899913083</v>
+      </c>
+      <c r="D13" s="19">
+        <f>ABS(('Forecasts on validation'!P14-'Forecasts on validation'!P$2))</f>
+        <v>2.7179780219137157</v>
+      </c>
+      <c r="E13" s="19">
+        <f>ABS(('Forecasts on validation'!Q14-'Forecasts on validation'!Q$2))</f>
+        <v>1.1851099059760486</v>
+      </c>
+      <c r="F13" s="19">
+        <f>ABS(('Forecasts on validation'!R14-'Forecasts on validation'!R$2))</f>
+        <v>3.0171969682581619</v>
+      </c>
+      <c r="G13" s="19">
+        <f>ABS(('Forecasts on validation'!S14-'Forecasts on validation'!S$2))</f>
+        <v>0.86181655452519834</v>
+      </c>
+      <c r="H13" s="19">
+        <f>ABS(('Forecasts on validation'!T14-'Forecasts on validation'!T$2))</f>
+        <v>0.88409350295611233</v>
+      </c>
+      <c r="I13" s="19">
+        <f>ABS(('Forecasts on validation'!U14-'Forecasts on validation'!U$2))</f>
+        <v>0.81600652155661635</v>
+      </c>
+      <c r="J13" s="19">
+        <f>ABS(('Forecasts on validation'!V14-'Forecasts on validation'!V$2))</f>
+        <v>1.9703347811184102</v>
+      </c>
+      <c r="K13" s="19">
+        <f>ABS(('Forecasts on validation'!W14-'Forecasts on validation'!W$2))</f>
+        <v>2.1202164950380293</v>
+      </c>
+      <c r="L13" s="19">
+        <f>ABS(('Forecasts on validation'!X14-'Forecasts on validation'!X$2))</f>
+        <v>3.6154858938048164</v>
+      </c>
+      <c r="M13" s="19">
+        <f>ABS(('Forecasts on validation'!Y14-'Forecasts on validation'!Y$2))</f>
+        <v>1.9994991506702462</v>
+      </c>
+      <c r="N13" s="19">
+        <f>ABS(('Forecasts on validation'!Z14-'Forecasts on validation'!Z$2))</f>
+        <v>3.4606416327275511</v>
+      </c>
+      <c r="O13" s="19">
+        <f>ABS(('Forecasts on validation'!AA14-'Forecasts on validation'!AA$2))</f>
+        <v>3.4711894936094581</v>
+      </c>
+      <c r="P13" s="19">
+        <f>ABS(('Forecasts on validation'!AB14-'Forecasts on validation'!AB$2))</f>
+        <v>3.7243764119286169</v>
+      </c>
+      <c r="Q13" s="19">
+        <f>ABS(('Forecasts on validation'!AC14-'Forecasts on validation'!AC$2))</f>
+        <v>4.5578428626051632</v>
+      </c>
+      <c r="R13" s="19">
+        <f>ABS(('Forecasts on validation'!AD14-'Forecasts on validation'!AD$2))</f>
+        <v>4.5781990835396371</v>
+      </c>
+      <c r="S13" s="19">
+        <f>ABS(('Forecasts on validation'!AE14-'Forecasts on validation'!AE$2))</f>
+        <v>4.9932868238266011</v>
+      </c>
+      <c r="T13" s="19">
+        <f>ABS(('Forecasts on validation'!AF14-'Forecasts on validation'!AF$2))</f>
+        <v>2.7762603829931649</v>
+      </c>
+      <c r="U13" s="19">
+        <f>ABS(('Forecasts on validation'!AG14-'Forecasts on validation'!AG$2))</f>
+        <v>2.8070707925273055</v>
+      </c>
+      <c r="V13" s="19">
+        <f>ABS(('Forecasts on validation'!AH14-'Forecasts on validation'!AH$2))</f>
+        <v>3.5322376363861778</v>
+      </c>
+      <c r="W13" s="19">
+        <f>ABS(('Forecasts on validation'!AI14-'Forecasts on validation'!AI$2))</f>
+        <v>1.4166677037782023</v>
+      </c>
+      <c r="X13" s="19">
+        <f>ABS(('Forecasts on validation'!AJ14-'Forecasts on validation'!AJ$2))</f>
+        <v>1.6205760918298111</v>
+      </c>
+      <c r="Y13" s="19">
+        <f>ABS(('Forecasts on validation'!AK14-'Forecasts on validation'!AK$2))</f>
+        <v>2.5108011214521255</v>
+      </c>
+      <c r="Z13" s="19">
+        <f>ABS(('Forecasts on validation'!AL14-'Forecasts on validation'!AL$2))</f>
+        <v>4.9456726955938706</v>
+      </c>
+      <c r="AA13" s="19">
+        <f>ABS(('Forecasts on validation'!AM14-'Forecasts on validation'!AM$2))</f>
+        <v>4.1686583288543844</v>
+      </c>
+      <c r="AB13" s="19">
+        <f>ABS(('Forecasts on validation'!AN14-'Forecasts on validation'!AN$2))</f>
+        <v>3.2153677071448499</v>
+      </c>
+      <c r="AC13" s="19">
+        <f>ABS(('Forecasts on validation'!AO14-'Forecasts on validation'!AO$2))</f>
+        <v>0.5207364307271618</v>
+      </c>
+      <c r="AD13" s="19">
+        <f>ABS(('Forecasts on validation'!AP14-'Forecasts on validation'!AP$2))</f>
+        <v>1.7119173361083995</v>
+      </c>
+      <c r="AE13" s="19">
+        <f>ABS(('Forecasts on validation'!AQ14-'Forecasts on validation'!AQ$2))</f>
+        <v>0.55638230822393808</v>
+      </c>
+      <c r="AF13" s="58">
+        <f t="shared" si="1"/>
+        <v>2.6584917226281521</v>
+      </c>
+      <c r="AG13" s="58">
+        <f t="shared" si="0"/>
+        <v>1.4715039870202982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="AB14" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="59">
+        <f>SUM(AF2:AF13)/12</f>
+        <v>1.7643725754971549</v>
+      </c>
+      <c r="AG14" s="59">
+        <f>SUM(AG2:AG13)/12</f>
+        <v>0.97659934666514003</v>
+      </c>
+      <c r="AH14" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI14" s="88"/>
+      <c r="AJ14" s="88"/>
+      <c r="AK14" s="88"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2">
+        <f>SUM(C20:C96)/77</f>
+        <v>1.8066493506493506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="AF18" s="67"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" s="69">
+        <v>40544</v>
+      </c>
+      <c r="B19">
+        <v>29.416000000000004</v>
+      </c>
+      <c r="AF19" s="67"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" s="69">
+        <v>40575</v>
+      </c>
+      <c r="B20">
+        <v>26.76</v>
+      </c>
+      <c r="C20">
+        <f>ABS(B20-B19)</f>
+        <v>2.6560000000000024</v>
+      </c>
+      <c r="AF20" s="67"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A21" s="69">
+        <v>40603</v>
+      </c>
+      <c r="B21">
+        <v>30.424000000000003</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C84" si="2">ABS(B21-B20)</f>
+        <v>3.6640000000000015</v>
+      </c>
+      <c r="AF21" s="67"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A22" s="69">
+        <v>40634</v>
+      </c>
+      <c r="B22">
+        <v>28.826000000000001</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>1.5980000000000025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" s="69">
+        <v>40664</v>
+      </c>
+      <c r="B23">
+        <v>28.921999999999997</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>9.5999999999996533E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" s="69">
+        <v>40695</v>
+      </c>
+      <c r="B24">
+        <v>27.951999999999998</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>0.96999999999999886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A25" s="69">
+        <v>40725</v>
+      </c>
+      <c r="B25">
+        <v>29.548000000000002</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>1.5960000000000036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A26" s="69">
+        <v>40756</v>
+      </c>
+      <c r="B26">
+        <v>30.091999999999999</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>0.54399999999999693</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A27" s="69">
+        <v>40787</v>
+      </c>
+      <c r="B27">
+        <v>28.744</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>1.347999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A28" s="69">
+        <v>40817</v>
+      </c>
+      <c r="B28">
+        <v>29.77</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>1.0259999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" s="69">
+        <v>40848</v>
+      </c>
+      <c r="B29">
+        <v>29.658000000000001</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>0.11199999999999832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" s="69">
+        <v>40878</v>
+      </c>
+      <c r="B30">
+        <v>32.228000000000002</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>2.5700000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A31" s="69">
+        <v>40909</v>
+      </c>
+      <c r="B31">
+        <v>29.641999999999999</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>2.5860000000000021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32" s="69">
+        <v>40940</v>
+      </c>
+      <c r="B32">
+        <v>26.596000000000004</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>3.0459999999999958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="69">
+        <v>40969</v>
+      </c>
+      <c r="B33">
+        <v>29.578000000000003</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>2.9819999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="69">
+        <v>41000</v>
+      </c>
+      <c r="B34">
+        <v>29.207999999999998</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>0.37000000000000455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="69">
+        <v>41030</v>
+      </c>
+      <c r="B35">
+        <v>29.637999999999998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>0.42999999999999972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="69">
+        <v>41061</v>
+      </c>
+      <c r="B36">
+        <v>28.498000000000001</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>1.139999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="69">
+        <v>41091</v>
+      </c>
+      <c r="B37">
+        <v>30.546000000000003</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>2.0480000000000018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="69">
+        <v>41122</v>
+      </c>
+      <c r="B38">
+        <v>31.032000000000004</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>0.48600000000000065</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="69">
+        <v>41153</v>
+      </c>
+      <c r="B39">
+        <v>29.902000000000001</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>1.1300000000000026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="69">
+        <v>41183</v>
+      </c>
+      <c r="B40">
+        <v>31.131999999999998</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>1.2299999999999969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="69">
+        <v>41214</v>
+      </c>
+      <c r="B41">
+        <v>31.438000000000002</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>0.30600000000000449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="69">
+        <v>41244</v>
+      </c>
+      <c r="B42">
+        <v>34.68</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>3.2419999999999973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="69">
+        <v>41275</v>
+      </c>
+      <c r="B43">
+        <v>32.408000000000001</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>2.2719999999999985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="69">
+        <v>41306</v>
+      </c>
+      <c r="B44">
+        <v>28.436</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>3.9720000000000013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="69">
+        <v>41334</v>
+      </c>
+      <c r="B45">
+        <v>31.484000000000002</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>3.0480000000000018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="69">
+        <v>41365</v>
+      </c>
+      <c r="B46">
+        <v>31.782</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>0.29799999999999827</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="69">
+        <v>41395</v>
+      </c>
+      <c r="B47">
+        <v>33.147999999999996</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>1.3659999999999961</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="69">
+        <v>41426</v>
+      </c>
+      <c r="B48">
+        <v>31.084</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>2.0639999999999965</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="69">
+        <v>41456</v>
+      </c>
+      <c r="B49">
+        <v>33.988</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>2.9039999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="69">
+        <v>41487</v>
+      </c>
+      <c r="B50">
+        <v>34.756</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>0.76800000000000068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="69">
+        <v>41518</v>
+      </c>
+      <c r="B51">
+        <v>34.188000000000002</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>0.56799999999999784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="69">
+        <v>41548</v>
+      </c>
+      <c r="B52">
+        <v>37.567999999999998</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>3.3799999999999955</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="69">
+        <v>41579</v>
+      </c>
+      <c r="B53">
+        <v>36.768000000000001</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999716</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="69">
+        <v>41609</v>
+      </c>
+      <c r="B54">
+        <v>40.965999999999994</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>4.1979999999999933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="69">
+        <v>41640</v>
+      </c>
+      <c r="B55">
+        <v>37.903999999999996</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>3.0619999999999976</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="69">
+        <v>41671</v>
+      </c>
+      <c r="B56">
+        <v>35.316000000000003</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>2.5879999999999939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="69">
+        <v>41699</v>
+      </c>
+      <c r="B57">
+        <v>37.456000000000003</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>2.1400000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="69">
+        <v>41730</v>
+      </c>
+      <c r="B58">
+        <v>37.473999999999997</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>1.7999999999993577E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="69">
+        <v>41760</v>
+      </c>
+      <c r="B59">
+        <v>36.923999999999999</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>0.54999999999999716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="69">
+        <v>41791</v>
+      </c>
+      <c r="B60">
+        <v>35.17</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>1.7539999999999978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="69">
+        <v>41821</v>
+      </c>
+      <c r="B61">
+        <v>37.564</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>2.3939999999999984</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="69">
+        <v>41852</v>
+      </c>
+      <c r="B62">
+        <v>37.002000000000002</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>0.56199999999999761</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="69">
+        <v>41883</v>
+      </c>
+      <c r="B63">
+        <v>38.43</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>1.4279999999999973</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="69">
+        <v>41913</v>
+      </c>
+      <c r="B64">
+        <v>38.29</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000057</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="69">
+        <v>41944</v>
+      </c>
+      <c r="B65">
+        <v>36.798000000000002</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>1.4919999999999973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="69">
+        <v>41974</v>
+      </c>
+      <c r="B66">
+        <v>40.838000000000001</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>4.0399999999999991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="69">
+        <v>42005</v>
+      </c>
+      <c r="B67">
+        <v>35.973999999999997</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>4.8640000000000043</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="69">
+        <v>42036</v>
+      </c>
+      <c r="B68">
+        <v>33.224000000000004</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>2.7499999999999929</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="69">
+        <v>42064</v>
+      </c>
+      <c r="B69">
+        <v>35.606000000000002</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>2.3819999999999979</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="69">
+        <v>42095</v>
+      </c>
+      <c r="B70">
+        <v>36.18</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>0.57399999999999807</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="69">
+        <v>42125</v>
+      </c>
+      <c r="B71">
+        <v>35.777999999999999</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>0.40200000000000102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="69">
+        <v>42156</v>
+      </c>
+      <c r="B72">
+        <v>35.378</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="69">
+        <v>42186</v>
+      </c>
+      <c r="B73">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>2.0020000000000024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="69">
+        <v>42217</v>
+      </c>
+      <c r="B74">
+        <v>36.268000000000001</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>1.1120000000000019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="69">
+        <v>42248</v>
+      </c>
+      <c r="B75">
+        <v>36.916000000000004</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>0.64800000000000324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="69">
+        <v>42278</v>
+      </c>
+      <c r="B76">
+        <v>39.561999999999998</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>2.6459999999999937</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="69">
+        <v>42309</v>
+      </c>
+      <c r="B77">
+        <v>39.300000000000004</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>0.26199999999999335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="69">
+        <v>42339</v>
+      </c>
+      <c r="B78">
+        <v>43.055999999999997</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>3.7559999999999931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="69">
+        <v>42370</v>
+      </c>
+      <c r="B79">
+        <v>38.275999999999996</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>4.7800000000000011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="69">
+        <v>42401</v>
+      </c>
+      <c r="B80">
+        <v>35.002000000000002</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>3.2739999999999938</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="69">
+        <v>42430</v>
+      </c>
+      <c r="B81">
+        <v>39.676000000000002</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>4.6739999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="69">
+        <v>42461</v>
+      </c>
+      <c r="B82">
+        <v>39.33</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>0.34600000000000364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="69">
+        <v>42491</v>
+      </c>
+      <c r="B83">
+        <v>40.102000000000004</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>0.77200000000000557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="69">
+        <v>42522</v>
+      </c>
+      <c r="B84">
+        <v>38.872</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>1.230000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="69">
+        <v>42552</v>
+      </c>
+      <c r="B85">
+        <v>40.384</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85:C96" si="3">ABS(B85-B84)</f>
+        <v>1.5120000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="69">
+        <v>42583</v>
+      </c>
+      <c r="B86">
+        <v>40.864000000000004</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>0.48000000000000398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="69">
+        <v>42614</v>
+      </c>
+      <c r="B87">
+        <v>40.774000000000001</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="69">
+        <v>42644</v>
+      </c>
+      <c r="B88">
+        <v>42.266000000000005</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>1.4920000000000044</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="69">
+        <v>42675</v>
+      </c>
+      <c r="B89">
+        <v>42.188000000000002</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>7.8000000000002956E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="69">
+        <v>42705</v>
+      </c>
+      <c r="B90">
+        <v>45.945999999999998</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>3.7579999999999956</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="69">
+        <v>42736</v>
+      </c>
+      <c r="B91">
+        <v>41.942000000000007</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>4.0039999999999907</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="69">
+        <v>42767</v>
+      </c>
+      <c r="B92">
+        <v>38.78</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>3.1620000000000061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="69">
+        <v>42795</v>
+      </c>
+      <c r="B93">
+        <v>43.838000000000001</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>5.0579999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="69">
+        <v>42826</v>
+      </c>
+      <c r="B94">
+        <v>42.68</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>1.1580000000000013</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="69">
+        <v>42856</v>
+      </c>
+      <c r="B95">
+        <v>42.910000000000004</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>0.23000000000000398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="69">
+        <v>42887</v>
+      </c>
+      <c r="B96">
+        <v>42.676000000000002</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>0.23400000000000176</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C97" s="66"/>
+      <c r="G97" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="AH14:AK14"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F04E12-60FC-450C-BBC3-2667034538F3}">
+  <dimension ref="A1:AF21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF25" sqref="AF25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72">
+        <v>43282.500000004999</v>
+      </c>
+      <c r="C1" s="72">
+        <v>43313.500000004999</v>
+      </c>
+      <c r="D1" s="72">
+        <v>43344.500000004999</v>
+      </c>
+      <c r="E1" s="72">
+        <v>43374.500000004999</v>
+      </c>
+      <c r="F1" s="72">
+        <v>43405.500000004999</v>
+      </c>
+      <c r="G1" s="72">
+        <v>43435.500000004999</v>
+      </c>
+      <c r="H1" s="72">
+        <v>43466.500000004999</v>
+      </c>
+      <c r="I1" s="72">
+        <v>43497.500000004999</v>
+      </c>
+      <c r="J1" s="72">
+        <v>43525.500000004999</v>
+      </c>
+      <c r="K1" s="72">
+        <v>43556.500000004999</v>
+      </c>
+      <c r="L1" s="72">
+        <v>43586.500000004999</v>
+      </c>
+      <c r="M1" s="72">
+        <v>43617.500000004999</v>
+      </c>
+      <c r="N1" s="72">
+        <v>43647.500000004999</v>
+      </c>
+      <c r="O1" s="72">
+        <v>43678.500000004999</v>
+      </c>
+      <c r="P1" s="72">
+        <v>43709.500000004999</v>
+      </c>
+      <c r="Q1" s="72">
+        <v>43739.500000004999</v>
+      </c>
+      <c r="R1" s="72">
+        <v>43770.500000004999</v>
+      </c>
+      <c r="S1" s="72">
+        <v>43800.500000004999</v>
+      </c>
+      <c r="T1" s="72">
+        <v>43831.500000004999</v>
+      </c>
+      <c r="U1" s="72">
+        <v>43862.500000004999</v>
+      </c>
+      <c r="V1" s="72">
+        <v>43891.500000004999</v>
+      </c>
+      <c r="W1" s="72">
+        <v>43922.500000004999</v>
+      </c>
+      <c r="X1" s="72">
+        <v>43952.500000004999</v>
+      </c>
+      <c r="Y1" s="72">
+        <v>43983.500000004999</v>
+      </c>
+      <c r="Z1" s="72">
+        <v>44013.500000004999</v>
+      </c>
+      <c r="AA1" s="72">
+        <v>44044.500000004999</v>
+      </c>
+      <c r="AB1" s="72">
+        <v>44075.500000004999</v>
+      </c>
+      <c r="AC1" s="72">
+        <v>44105.500000004999</v>
+      </c>
+      <c r="AD1" s="72">
+        <v>44136.500000004999</v>
+      </c>
+      <c r="AE1" s="72">
+        <v>44166.500000004999</v>
+      </c>
+      <c r="AF1" s="74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20">
+        <f>ABS(('Forecasts on validation'!N$3-'Forecasts on validation'!N$2))^2</f>
+        <v>8.0859688163529939E-2</v>
+      </c>
+      <c r="C2" s="20">
+        <f>ABS(('Forecasts on validation'!O$3-'Forecasts on validation'!O$2))^2</f>
+        <v>8.434241573685132E-2</v>
+      </c>
+      <c r="D2" s="20">
+        <f>ABS(('Forecasts on validation'!P$3-'Forecasts on validation'!P$2))^2</f>
+        <v>1.5160076636356568E-2</v>
+      </c>
+      <c r="E2" s="20">
+        <f>ABS(('Forecasts on validation'!Q$3-'Forecasts on validation'!Q$2))^2</f>
+        <v>2.8544756935530518</v>
+      </c>
+      <c r="F2" s="20">
+        <f>ABS(('Forecasts on validation'!R$3-'Forecasts on validation'!R$2))^2</f>
+        <v>0.64540913716163084</v>
+      </c>
+      <c r="G2" s="20">
+        <f>ABS(('Forecasts on validation'!S$3-'Forecasts on validation'!S$2))^2</f>
+        <v>0.84568363391223644</v>
+      </c>
+      <c r="H2" s="20">
+        <f>ABS(('Forecasts on validation'!T$3-'Forecasts on validation'!T$2))^2</f>
+        <v>7.7575196162185822</v>
+      </c>
+      <c r="I2" s="20">
+        <f>ABS(('Forecasts on validation'!U$3-'Forecasts on validation'!U$2))^2</f>
+        <v>3.5313522244166875</v>
+      </c>
+      <c r="J2" s="20">
+        <f>ABS(('Forecasts on validation'!V$3-'Forecasts on validation'!V$2))^2</f>
+        <v>2.0281487124446027</v>
+      </c>
+      <c r="K2" s="20">
+        <f>ABS(('Forecasts on validation'!W$3-'Forecasts on validation'!W$2))^2</f>
+        <v>0.64320697372505231</v>
+      </c>
+      <c r="L2" s="20">
+        <f>ABS(('Forecasts on validation'!X$3-'Forecasts on validation'!X$2))^2</f>
+        <v>1.3990680088974552</v>
+      </c>
+      <c r="M2" s="20">
+        <f>ABS(('Forecasts on validation'!Y$3-'Forecasts on validation'!Y$2))^2</f>
+        <v>0.77473353855641125</v>
+      </c>
+      <c r="N2" s="20">
+        <f>ABS(('Forecasts on validation'!Z$3-'Forecasts on validation'!Z$2))^2</f>
+        <v>0.62327309808317566</v>
+      </c>
+      <c r="O2" s="20">
+        <f>ABS(('Forecasts on validation'!AA$3-'Forecasts on validation'!AA$2))^2</f>
+        <v>9.5257627378225754E-2</v>
+      </c>
+      <c r="P2" s="20">
+        <f>ABS(('Forecasts on validation'!AB$3-'Forecasts on validation'!AB$2))^2</f>
+        <v>1.7322485301841453</v>
+      </c>
+      <c r="Q2" s="20">
+        <f>ABS(('Forecasts on validation'!AC$3-'Forecasts on validation'!AC$2))^2</f>
+        <v>1.0527841645609357</v>
+      </c>
+      <c r="R2" s="20">
+        <f>ABS(('Forecasts on validation'!AD$3-'Forecasts on validation'!AD$2))^2</f>
+        <v>1.0327915254004825</v>
+      </c>
+      <c r="S2" s="20">
+        <f>ABS(('Forecasts on validation'!AE$3-'Forecasts on validation'!AE$2))^2</f>
+        <v>6.0427705074367495</v>
+      </c>
+      <c r="T2" s="20">
+        <f>ABS(('Forecasts on validation'!AF$3-'Forecasts on validation'!AF$2))^2</f>
+        <v>4.1634338322244879</v>
+      </c>
+      <c r="U2" s="20">
+        <f>ABS(('Forecasts on validation'!AG$3-'Forecasts on validation'!AG$2))^2</f>
+        <v>9.5916960649743824E-2</v>
+      </c>
+      <c r="V2" s="20">
+        <f>ABS(('Forecasts on validation'!AH$3-'Forecasts on validation'!AH$2))^2</f>
+        <v>0.93167855857935444</v>
+      </c>
+      <c r="W2" s="20">
+        <f>ABS(('Forecasts on validation'!AI$3-'Forecasts on validation'!AI$2))^2</f>
+        <v>0.9731050734555351</v>
+      </c>
+      <c r="X2" s="20">
+        <f>ABS(('Forecasts on validation'!AJ$3-'Forecasts on validation'!AJ$2))^2</f>
+        <v>0.7174594494372839</v>
+      </c>
+      <c r="Y2" s="20">
+        <f>ABS(('Forecasts on validation'!AK$3-'Forecasts on validation'!AK$2))^2</f>
+        <v>0.73183324934863381</v>
+      </c>
+      <c r="Z2" s="20">
+        <f>ABS(('Forecasts on validation'!AL$3-'Forecasts on validation'!AL$2))^2</f>
+        <v>9.1813170894285268</v>
+      </c>
+      <c r="AA2" s="20">
+        <f>ABS(('Forecasts on validation'!AM$3-'Forecasts on validation'!AM$2))^2</f>
+        <v>2.2973717970591494</v>
+      </c>
+      <c r="AB2" s="20">
+        <f>ABS(('Forecasts on validation'!AN$3-'Forecasts on validation'!AN$2))^2</f>
+        <v>0.13812608916865202</v>
+      </c>
+      <c r="AC2" s="20">
+        <f>ABS(('Forecasts on validation'!AO$3-'Forecasts on validation'!AO$2))^2</f>
+        <v>9.1034050500396155</v>
+      </c>
+      <c r="AD2" s="20">
+        <f>ABS(('Forecasts on validation'!AP$3-'Forecasts on validation'!AP$2))^2</f>
+        <v>2.013580707077558</v>
+      </c>
+      <c r="AE2" s="20">
+        <f>ABS(('Forecasts on validation'!AQ$3-'Forecasts on validation'!AQ$2))^2</f>
+        <v>0.14496061471603938</v>
+      </c>
+      <c r="AF2" s="70">
+        <f>SQRT(SUM(B2:AE2)/30)</f>
+        <v>1.434471722082741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="20">
+        <f>ABS(('Forecasts on validation'!N4-'Forecasts on validation'!N$2))^2</f>
+        <v>8.0859688163529939E-2</v>
+      </c>
+      <c r="C3" s="20">
+        <f>ABS(('Forecasts on validation'!O4-'Forecasts on validation'!O$2))^2</f>
+        <v>8.434241573685132E-2</v>
+      </c>
+      <c r="D3" s="20">
+        <f>ABS(('Forecasts on validation'!P4-'Forecasts on validation'!P$2))^2</f>
+        <v>1.5160076636356568E-2</v>
+      </c>
+      <c r="E3" s="20">
+        <f>ABS(('Forecasts on validation'!Q4-'Forecasts on validation'!Q$2))^2</f>
+        <v>2.8544756935530518</v>
+      </c>
+      <c r="F3" s="20">
+        <f>ABS(('Forecasts on validation'!R4-'Forecasts on validation'!R$2))^2</f>
+        <v>0.64540913716163084</v>
+      </c>
+      <c r="G3" s="20">
+        <f>ABS(('Forecasts on validation'!S4-'Forecasts on validation'!S$2))^2</f>
+        <v>0.84568363391223644</v>
+      </c>
+      <c r="H3" s="20">
+        <f>ABS(('Forecasts on validation'!T4-'Forecasts on validation'!T$2))^2</f>
+        <v>7.7575196162185822</v>
+      </c>
+      <c r="I3" s="20">
+        <f>ABS(('Forecasts on validation'!U4-'Forecasts on validation'!U$2))^2</f>
+        <v>3.5313522244166875</v>
+      </c>
+      <c r="J3" s="20">
+        <f>ABS(('Forecasts on validation'!V4-'Forecasts on validation'!V$2))^2</f>
+        <v>2.0281487124446027</v>
+      </c>
+      <c r="K3" s="20">
+        <f>ABS(('Forecasts on validation'!W4-'Forecasts on validation'!W$2))^2</f>
+        <v>0.64320697372505231</v>
+      </c>
+      <c r="L3" s="20">
+        <f>ABS(('Forecasts on validation'!X4-'Forecasts on validation'!X$2))^2</f>
+        <v>1.3990680088974552</v>
+      </c>
+      <c r="M3" s="20">
+        <f>ABS(('Forecasts on validation'!Y4-'Forecasts on validation'!Y$2))^2</f>
+        <v>0.77473353855641125</v>
+      </c>
+      <c r="N3" s="20">
+        <f>ABS(('Forecasts on validation'!Z4-'Forecasts on validation'!Z$2))^2</f>
+        <v>0.62327309808317566</v>
+      </c>
+      <c r="O3" s="20">
+        <f>ABS(('Forecasts on validation'!AA4-'Forecasts on validation'!AA$2))^2</f>
+        <v>9.5257627378225754E-2</v>
+      </c>
+      <c r="P3" s="20">
+        <f>ABS(('Forecasts on validation'!AB4-'Forecasts on validation'!AB$2))^2</f>
+        <v>1.7322485301841453</v>
+      </c>
+      <c r="Q3" s="20">
+        <f>ABS(('Forecasts on validation'!AC4-'Forecasts on validation'!AC$2))^2</f>
+        <v>1.0527841645609357</v>
+      </c>
+      <c r="R3" s="20">
+        <f>ABS(('Forecasts on validation'!AD4-'Forecasts on validation'!AD$2))^2</f>
+        <v>1.0327915254004825</v>
+      </c>
+      <c r="S3" s="20">
+        <f>ABS(('Forecasts on validation'!AE4-'Forecasts on validation'!AE$2))^2</f>
+        <v>6.0427705074367495</v>
+      </c>
+      <c r="T3" s="20">
+        <f>ABS(('Forecasts on validation'!AF4-'Forecasts on validation'!AF$2))^2</f>
+        <v>4.1634338322244879</v>
+      </c>
+      <c r="U3" s="20">
+        <f>ABS(('Forecasts on validation'!AG4-'Forecasts on validation'!AG$2))^2</f>
+        <v>9.5916960649743824E-2</v>
+      </c>
+      <c r="V3" s="20">
+        <f>ABS(('Forecasts on validation'!AH4-'Forecasts on validation'!AH$2))^2</f>
+        <v>0.93167855857935444</v>
+      </c>
+      <c r="W3" s="20">
+        <f>ABS(('Forecasts on validation'!AI4-'Forecasts on validation'!AI$2))^2</f>
+        <v>0.9731050734555351</v>
+      </c>
+      <c r="X3" s="20">
+        <f>ABS(('Forecasts on validation'!AJ4-'Forecasts on validation'!AJ$2))^2</f>
+        <v>0.7174594494372839</v>
+      </c>
+      <c r="Y3" s="20">
+        <f>ABS(('Forecasts on validation'!AK4-'Forecasts on validation'!AK$2))^2</f>
+        <v>0.73183324934863381</v>
+      </c>
+      <c r="Z3" s="20">
+        <f>ABS(('Forecasts on validation'!AL4-'Forecasts on validation'!AL$2))^2</f>
+        <v>9.1813170894285268</v>
+      </c>
+      <c r="AA3" s="20">
+        <f>ABS(('Forecasts on validation'!AM4-'Forecasts on validation'!AM$2))^2</f>
+        <v>2.2973717970591494</v>
+      </c>
+      <c r="AB3" s="20">
+        <f>ABS(('Forecasts on validation'!AN4-'Forecasts on validation'!AN$2))^2</f>
+        <v>0.13812608916865202</v>
+      </c>
+      <c r="AC3" s="20">
+        <f>ABS(('Forecasts on validation'!AO4-'Forecasts on validation'!AO$2))^2</f>
+        <v>9.1034050500396155</v>
+      </c>
+      <c r="AD3" s="20">
+        <f>ABS(('Forecasts on validation'!AP4-'Forecasts on validation'!AP$2))^2</f>
+        <v>2.013580707077558</v>
+      </c>
+      <c r="AE3" s="20">
+        <f>ABS(('Forecasts on validation'!AQ4-'Forecasts on validation'!AQ$2))^2</f>
+        <v>0.14496061471603938</v>
+      </c>
+      <c r="AF3" s="70">
+        <f t="shared" ref="AF3:AF13" si="0">SQRT(SUM(B3:AE3)/30)</f>
+        <v>1.434471722082741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="20">
+        <f>ABS(('Forecasts on validation'!N5-'Forecasts on validation'!N$2))^2</f>
+        <v>9.9291320470476924E-2</v>
+      </c>
+      <c r="C4" s="20">
+        <f>ABS(('Forecasts on validation'!O5-'Forecasts on validation'!O$2))^2</f>
+        <v>2.3799548770168388E-2</v>
+      </c>
+      <c r="D4" s="20">
+        <f>ABS(('Forecasts on validation'!P5-'Forecasts on validation'!P$2))^2</f>
+        <v>6.8735201110164484E-2</v>
+      </c>
+      <c r="E4" s="20">
+        <f>ABS(('Forecasts on validation'!Q5-'Forecasts on validation'!Q$2))^2</f>
+        <v>2.6587530251758156</v>
+      </c>
+      <c r="F4" s="20">
+        <f>ABS(('Forecasts on validation'!R5-'Forecasts on validation'!R$2))^2</f>
+        <v>3.0731139366419685E-5</v>
+      </c>
+      <c r="G4" s="20">
+        <f>ABS(('Forecasts on validation'!S5-'Forecasts on validation'!S$2))^2</f>
+        <v>0.28618975380999934</v>
+      </c>
+      <c r="H4" s="20">
+        <f>ABS(('Forecasts on validation'!T5-'Forecasts on validation'!T$2))^2</f>
+        <v>10.404034218618797</v>
+      </c>
+      <c r="I4" s="20">
+        <f>ABS(('Forecasts on validation'!U5-'Forecasts on validation'!U$2))^2</f>
+        <v>0.29774559723534066</v>
+      </c>
+      <c r="J4" s="20">
+        <f>ABS(('Forecasts on validation'!V5-'Forecasts on validation'!V$2))^2</f>
+        <v>0.27499801663091561</v>
+      </c>
+      <c r="K4" s="20">
+        <f>ABS(('Forecasts on validation'!W5-'Forecasts on validation'!W$2))^2</f>
+        <v>2.2018253154749177</v>
+      </c>
+      <c r="L4" s="20">
+        <f>ABS(('Forecasts on validation'!X5-'Forecasts on validation'!X$2))^2</f>
+        <v>2.4548898525579217</v>
+      </c>
+      <c r="M4" s="20">
+        <f>ABS(('Forecasts on validation'!Y5-'Forecasts on validation'!Y$2))^2</f>
+        <v>9.8515374598887512E-2</v>
+      </c>
+      <c r="N4" s="20">
+        <f>ABS(('Forecasts on validation'!Z5-'Forecasts on validation'!Z$2))^2</f>
+        <v>0.13546419985279734</v>
+      </c>
+      <c r="O4" s="20">
+        <f>ABS(('Forecasts on validation'!AA5-'Forecasts on validation'!AA$2))^2</f>
+        <v>0.47145819243648757</v>
+      </c>
+      <c r="P4" s="20">
+        <f>ABS(('Forecasts on validation'!AB5-'Forecasts on validation'!AB$2))^2</f>
+        <v>2.1430636829234544</v>
+      </c>
+      <c r="Q4" s="20">
+        <f>ABS(('Forecasts on validation'!AC5-'Forecasts on validation'!AC$2))^2</f>
+        <v>2.7430172063546632</v>
+      </c>
+      <c r="R4" s="20">
+        <f>ABS(('Forecasts on validation'!AD5-'Forecasts on validation'!AD$2))^2</f>
+        <v>2.2726242208582033</v>
+      </c>
+      <c r="S4" s="20">
+        <f>ABS(('Forecasts on validation'!AE5-'Forecasts on validation'!AE$2))^2</f>
+        <v>8.671710635878398</v>
+      </c>
+      <c r="T4" s="20">
+        <f>ABS(('Forecasts on validation'!AF5-'Forecasts on validation'!AF$2))^2</f>
+        <v>0.74562697082667695</v>
+      </c>
+      <c r="U4" s="20">
+        <f>ABS(('Forecasts on validation'!AG5-'Forecasts on validation'!AG$2))^2</f>
+        <v>1.655447574247753</v>
+      </c>
+      <c r="V4" s="20">
+        <f>ABS(('Forecasts on validation'!AH5-'Forecasts on validation'!AH$2))^2</f>
+        <v>0.66741208344779657</v>
+      </c>
+      <c r="W4" s="20">
+        <f>ABS(('Forecasts on validation'!AI5-'Forecasts on validation'!AI$2))^2</f>
+        <v>0.274911978857666</v>
+      </c>
+      <c r="X4" s="20">
+        <f>ABS(('Forecasts on validation'!AJ5-'Forecasts on validation'!AJ$2))^2</f>
+        <v>1.7406391030723556</v>
+      </c>
+      <c r="Y4" s="20">
+        <f>ABS(('Forecasts on validation'!AK5-'Forecasts on validation'!AK$2))^2</f>
+        <v>0.20243435771236368</v>
+      </c>
+      <c r="Z4" s="20">
+        <f>ABS(('Forecasts on validation'!AL5-'Forecasts on validation'!AL$2))^2</f>
+        <v>11.831237266718247</v>
+      </c>
+      <c r="AA4" s="20">
+        <f>ABS(('Forecasts on validation'!AM5-'Forecasts on validation'!AM$2))^2</f>
+        <v>8.7998907989594972</v>
+      </c>
+      <c r="AB4" s="20">
+        <f>ABS(('Forecasts on validation'!AN5-'Forecasts on validation'!AN$2))^2</f>
+        <v>1.2041817953482754</v>
+      </c>
+      <c r="AC4" s="20">
+        <f>ABS(('Forecasts on validation'!AO5-'Forecasts on validation'!AO$2))^2</f>
+        <v>8.0612999345900604</v>
+      </c>
+      <c r="AD4" s="20">
+        <f>ABS(('Forecasts on validation'!AP5-'Forecasts on validation'!AP$2))^2</f>
+        <v>8.2001532749325836</v>
+      </c>
+      <c r="AE4" s="20">
+        <f>ABS(('Forecasts on validation'!AQ5-'Forecasts on validation'!AQ$2))^2</f>
+        <v>8.9199489717437144E-2</v>
+      </c>
+      <c r="AF4" s="70">
+        <f t="shared" si="0"/>
+        <v>1.6204791546774828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="14">
+        <f>ABS(('Forecasts on validation'!N6-'Forecasts on validation'!N$2))^2</f>
+        <v>0.14755910270929964</v>
+      </c>
+      <c r="C5" s="14">
+        <f>ABS(('Forecasts on validation'!O6-'Forecasts on validation'!O$2))^2</f>
+        <v>0.58441832599826571</v>
+      </c>
+      <c r="D5" s="14">
+        <f>ABS(('Forecasts on validation'!P6-'Forecasts on validation'!P$2))^2</f>
+        <v>1.5274147681634912E-2</v>
+      </c>
+      <c r="E5" s="14">
+        <f>ABS(('Forecasts on validation'!Q6-'Forecasts on validation'!Q$2))^2</f>
+        <v>2.2172100034776125</v>
+      </c>
+      <c r="F5" s="14">
+        <f>ABS(('Forecasts on validation'!R6-'Forecasts on validation'!R$2))^2</f>
+        <v>2.9662674422407174E-3</v>
+      </c>
+      <c r="G5" s="14">
+        <f>ABS(('Forecasts on validation'!S6-'Forecasts on validation'!S$2))^2</f>
+        <v>1.8451799091818775</v>
+      </c>
+      <c r="H5" s="14">
+        <f>ABS(('Forecasts on validation'!T6-'Forecasts on validation'!T$2))^2</f>
+        <v>8.031527891170807</v>
+      </c>
+      <c r="I5" s="14">
+        <f>ABS(('Forecasts on validation'!U6-'Forecasts on validation'!U$2))^2</f>
+        <v>9.5019156694364781E-3</v>
+      </c>
+      <c r="J5" s="14">
+        <f>ABS(('Forecasts on validation'!V6-'Forecasts on validation'!V$2))^2</f>
+        <v>3.5412389160607258</v>
+      </c>
+      <c r="K5" s="14">
+        <f>ABS(('Forecasts on validation'!W6-'Forecasts on validation'!W$2))^2</f>
+        <v>0.32263550055547846</v>
+      </c>
+      <c r="L5" s="14">
+        <f>ABS(('Forecasts on validation'!X6-'Forecasts on validation'!X$2))^2</f>
+        <v>5.1115583406299692</v>
+      </c>
+      <c r="M5" s="14">
+        <f>ABS(('Forecasts on validation'!Y6-'Forecasts on validation'!Y$2))^2</f>
+        <v>5.9279763131257143E-3</v>
+      </c>
+      <c r="N5" s="14">
+        <f>ABS(('Forecasts on validation'!Z6-'Forecasts on validation'!Z$2))^2</f>
+        <v>0.89211182522903676</v>
+      </c>
+      <c r="O5" s="14">
+        <f>ABS(('Forecasts on validation'!AA6-'Forecasts on validation'!AA$2))^2</f>
+        <v>6.6387405824774787E-2</v>
+      </c>
+      <c r="P5" s="14">
+        <f>ABS(('Forecasts on validation'!AB6-'Forecasts on validation'!AB$2))^2</f>
+        <v>3.417622197924663</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>ABS(('Forecasts on validation'!AC6-'Forecasts on validation'!AC$2))^2</f>
+        <v>3.263890841376309</v>
+      </c>
+      <c r="R5" s="14">
+        <f>ABS(('Forecasts on validation'!AD6-'Forecasts on validation'!AD$2))^2</f>
+        <v>4.6180426068632308</v>
+      </c>
+      <c r="S5" s="14">
+        <f>ABS(('Forecasts on validation'!AE6-'Forecasts on validation'!AE$2))^2</f>
+        <v>11.866892139868927</v>
+      </c>
+      <c r="T5" s="14">
+        <f>ABS(('Forecasts on validation'!AF6-'Forecasts on validation'!AF$2))^2</f>
+        <v>0.13557793223988238</v>
+      </c>
+      <c r="U5" s="14">
+        <f>ABS(('Forecasts on validation'!AG6-'Forecasts on validation'!AG$2))^2</f>
+        <v>7.851249544429055E-3</v>
+      </c>
+      <c r="V5" s="14">
+        <f>ABS(('Forecasts on validation'!AH6-'Forecasts on validation'!AH$2))^2</f>
+        <v>3.1500519357972247E-2</v>
+      </c>
+      <c r="W5" s="14">
+        <f>ABS(('Forecasts on validation'!AI6-'Forecasts on validation'!AI$2))^2</f>
+        <v>0.45597424741293369</v>
+      </c>
+      <c r="X5" s="14">
+        <f>ABS(('Forecasts on validation'!AJ6-'Forecasts on validation'!AJ$2))^2</f>
+        <v>0.72065552381228071</v>
+      </c>
+      <c r="Y5" s="14">
+        <f>ABS(('Forecasts on validation'!AK6-'Forecasts on validation'!AK$2))^2</f>
+        <v>9.5086747202554429E-4</v>
+      </c>
+      <c r="Z5" s="14">
+        <f>ABS(('Forecasts on validation'!AL6-'Forecasts on validation'!AL$2))^2</f>
+        <v>9.1618011642689634</v>
+      </c>
+      <c r="AA5" s="14">
+        <f>ABS(('Forecasts on validation'!AM6-'Forecasts on validation'!AM$2))^2</f>
+        <v>11.447297354963524</v>
+      </c>
+      <c r="AB5" s="14">
+        <f>ABS(('Forecasts on validation'!AN6-'Forecasts on validation'!AN$2))^2</f>
+        <v>6.6259470402656317</v>
+      </c>
+      <c r="AC5" s="14">
+        <f>ABS(('Forecasts on validation'!AO6-'Forecasts on validation'!AO$2))^2</f>
+        <v>4.4122881769973112</v>
+      </c>
+      <c r="AD5" s="14">
+        <f>ABS(('Forecasts on validation'!AP6-'Forecasts on validation'!AP$2))^2</f>
+        <v>7.1955995320275994</v>
+      </c>
+      <c r="AE5" s="14">
+        <f>ABS(('Forecasts on validation'!AQ6-'Forecasts on validation'!AQ$2))^2</f>
+        <v>3.1297963830852642</v>
+      </c>
+      <c r="AF5" s="70">
+        <f t="shared" si="0"/>
+        <v>1.7251587879132093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="14">
+        <f>ABS(('Forecasts on validation'!N7-'Forecasts on validation'!N$2))^2</f>
+        <v>0.49292216567748415</v>
+      </c>
+      <c r="C6" s="14">
+        <f>ABS(('Forecasts on validation'!O7-'Forecasts on validation'!O$2))^2</f>
+        <v>0.69675124256922616</v>
+      </c>
+      <c r="D6" s="14">
+        <f>ABS(('Forecasts on validation'!P7-'Forecasts on validation'!P$2))^2</f>
+        <v>0.55432191647363749</v>
+      </c>
+      <c r="E6" s="14">
+        <f>ABS(('Forecasts on validation'!Q7-'Forecasts on validation'!Q$2))^2</f>
+        <v>2.6570759136702686</v>
+      </c>
+      <c r="F6" s="14">
+        <f>ABS(('Forecasts on validation'!R7-'Forecasts on validation'!R$2))^2</f>
+        <v>3.9399292038744906E-2</v>
+      </c>
+      <c r="G6" s="14">
+        <f>ABS(('Forecasts on validation'!S7-'Forecasts on validation'!S$2))^2</f>
+        <v>1.6830158948437475</v>
+      </c>
+      <c r="H6" s="14">
+        <f>ABS(('Forecasts on validation'!T7-'Forecasts on validation'!T$2))^2</f>
+        <v>13.48278781173482</v>
+      </c>
+      <c r="I6" s="14">
+        <f>ABS(('Forecasts on validation'!U7-'Forecasts on validation'!U$2))^2</f>
+        <v>0.24591791783376002</v>
+      </c>
+      <c r="J6" s="14">
+        <f>ABS(('Forecasts on validation'!V7-'Forecasts on validation'!V$2))^2</f>
+        <v>5.4657186534491435</v>
+      </c>
+      <c r="K6" s="14">
+        <f>ABS(('Forecasts on validation'!W7-'Forecasts on validation'!W$2))^2</f>
+        <v>3.7998180676907762</v>
+      </c>
+      <c r="L6" s="14">
+        <f>ABS(('Forecasts on validation'!X7-'Forecasts on validation'!X$2))^2</f>
+        <v>1.7660139074624264</v>
+      </c>
+      <c r="M6" s="14">
+        <f>ABS(('Forecasts on validation'!Y7-'Forecasts on validation'!Y$2))^2</f>
+        <v>0.61351769058749572</v>
+      </c>
+      <c r="N6" s="14">
+        <f>ABS(('Forecasts on validation'!Z7-'Forecasts on validation'!Z$2))^2</f>
+        <v>1.8016612700924388</v>
+      </c>
+      <c r="O6" s="14">
+        <f>ABS(('Forecasts on validation'!AA7-'Forecasts on validation'!AA$2))^2</f>
+        <v>0.71278123030232543</v>
+      </c>
+      <c r="P6" s="14">
+        <f>ABS(('Forecasts on validation'!AB7-'Forecasts on validation'!AB$2))^2</f>
+        <v>1.9942013792744524</v>
+      </c>
+      <c r="Q6" s="14">
+        <f>ABS(('Forecasts on validation'!AC7-'Forecasts on validation'!AC$2))^2</f>
+        <v>4.8318871288802541</v>
+      </c>
+      <c r="R6" s="14">
+        <f>ABS(('Forecasts on validation'!AD7-'Forecasts on validation'!AD$2))^2</f>
+        <v>5.299335550827684</v>
+      </c>
+      <c r="S6" s="14">
+        <f>ABS(('Forecasts on validation'!AE7-'Forecasts on validation'!AE$2))^2</f>
+        <v>16.790028267030873</v>
+      </c>
+      <c r="T6" s="14">
+        <f>ABS(('Forecasts on validation'!AF7-'Forecasts on validation'!AF$2))^2</f>
+        <v>1.9782212083559202E-2</v>
+      </c>
+      <c r="U6" s="14">
+        <f>ABS(('Forecasts on validation'!AG7-'Forecasts on validation'!AG$2))^2</f>
+        <v>0.17255402692460198</v>
+      </c>
+      <c r="V6" s="14">
+        <f>ABS(('Forecasts on validation'!AH7-'Forecasts on validation'!AH$2))^2</f>
+        <v>1.0849989487550826</v>
+      </c>
+      <c r="W6" s="14">
+        <f>ABS(('Forecasts on validation'!AI7-'Forecasts on validation'!AI$2))^2</f>
+        <v>2.8466258866349694</v>
+      </c>
+      <c r="X6" s="14">
+        <f>ABS(('Forecasts on validation'!AJ7-'Forecasts on validation'!AJ$2))^2</f>
+        <v>1.0050234138965766</v>
+      </c>
+      <c r="Y6" s="14">
+        <f>ABS(('Forecasts on validation'!AK7-'Forecasts on validation'!AK$2))^2</f>
+        <v>0.2005789254977125</v>
+      </c>
+      <c r="Z6" s="14">
+        <f>ABS(('Forecasts on validation'!AL7-'Forecasts on validation'!AL$2))^2</f>
+        <v>6.4395329312054859</v>
+      </c>
+      <c r="AA6" s="14">
+        <f>ABS(('Forecasts on validation'!AM7-'Forecasts on validation'!AM$2))^2</f>
+        <v>8.7812143834196679</v>
+      </c>
+      <c r="AB6" s="14">
+        <f>ABS(('Forecasts on validation'!AN7-'Forecasts on validation'!AN$2))^2</f>
+        <v>8.9901187672588225</v>
+      </c>
+      <c r="AC6" s="14">
+        <f>ABS(('Forecasts on validation'!AO7-'Forecasts on validation'!AO$2))^2</f>
+        <v>0.35738758008927213</v>
+      </c>
+      <c r="AD6" s="14">
+        <f>ABS(('Forecasts on validation'!AP7-'Forecasts on validation'!AP$2))^2</f>
+        <v>3.7278510984513251</v>
+      </c>
+      <c r="AE6" s="14">
+        <f>ABS(('Forecasts on validation'!AQ7-'Forecasts on validation'!AQ$2))^2</f>
+        <v>2.5116106493342647</v>
+      </c>
+      <c r="AF6" s="70">
+        <f t="shared" si="0"/>
+        <v>1.8171812799313749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="14">
+        <f>ABS(('Forecasts on validation'!N8-'Forecasts on validation'!N$2))^2</f>
+        <v>4.7730695376340169</v>
+      </c>
+      <c r="C7" s="14">
+        <f>ABS(('Forecasts on validation'!O8-'Forecasts on validation'!O$2))^2</f>
+        <v>1.3413447610066191</v>
+      </c>
+      <c r="D7" s="14">
+        <f>ABS(('Forecasts on validation'!P8-'Forecasts on validation'!P$2))^2</f>
+        <v>0.66583374897518599</v>
+      </c>
+      <c r="E7" s="14">
+        <f>ABS(('Forecasts on validation'!Q8-'Forecasts on validation'!Q$2))^2</f>
+        <v>0.99675647135756118</v>
+      </c>
+      <c r="F7" s="14">
+        <f>ABS(('Forecasts on validation'!R8-'Forecasts on validation'!R$2))^2</f>
+        <v>3.0282785067580779E-3</v>
+      </c>
+      <c r="G7" s="14">
+        <f>ABS(('Forecasts on validation'!S8-'Forecasts on validation'!S$2))^2</f>
+        <v>1.3243205757658782</v>
+      </c>
+      <c r="H7" s="14">
+        <f>ABS(('Forecasts on validation'!T8-'Forecasts on validation'!T$2))^2</f>
+        <v>13.030458765048529</v>
+      </c>
+      <c r="I7" s="14">
+        <f>ABS(('Forecasts on validation'!U8-'Forecasts on validation'!U$2))^2</f>
+        <v>0.12708146434910605</v>
+      </c>
+      <c r="J7" s="14">
+        <f>ABS(('Forecasts on validation'!V8-'Forecasts on validation'!V$2))^2</f>
+        <v>3.7348442305028708</v>
+      </c>
+      <c r="K7" s="14">
+        <f>ABS(('Forecasts on validation'!W8-'Forecasts on validation'!W$2))^2</f>
+        <v>5.8238649472406934</v>
+      </c>
+      <c r="L7" s="14">
+        <f>ABS(('Forecasts on validation'!X8-'Forecasts on validation'!X$2))^2</f>
+        <v>7.4753192308872336</v>
+      </c>
+      <c r="M7" s="14">
+        <f>ABS(('Forecasts on validation'!Y8-'Forecasts on validation'!Y$2))^2</f>
+        <v>2.7160153124172082E-2</v>
+      </c>
+      <c r="N7" s="14">
+        <f>ABS(('Forecasts on validation'!Z8-'Forecasts on validation'!Z$2))^2</f>
+        <v>4.2467052540378996</v>
+      </c>
+      <c r="O7" s="14">
+        <f>ABS(('Forecasts on validation'!AA8-'Forecasts on validation'!AA$2))^2</f>
+        <v>1.5597132348981975</v>
+      </c>
+      <c r="P7" s="14">
+        <f>ABS(('Forecasts on validation'!AB8-'Forecasts on validation'!AB$2))^2</f>
+        <v>4.0357278581274496</v>
+      </c>
+      <c r="Q7" s="14">
+        <f>ABS(('Forecasts on validation'!AC8-'Forecasts on validation'!AC$2))^2</f>
+        <v>3.0768231966924842</v>
+      </c>
+      <c r="R7" s="14">
+        <f>ABS(('Forecasts on validation'!AD8-'Forecasts on validation'!AD$2))^2</f>
+        <v>7.2917843712764157</v>
+      </c>
+      <c r="S7" s="14">
+        <f>ABS(('Forecasts on validation'!AE8-'Forecasts on validation'!AE$2))^2</f>
+        <v>18.090356993292033</v>
+      </c>
+      <c r="T7" s="14">
+        <f>ABS(('Forecasts on validation'!AF8-'Forecasts on validation'!AF$2))^2</f>
+        <v>0.64748539183225251</v>
+      </c>
+      <c r="U7" s="14">
+        <f>ABS(('Forecasts on validation'!AG8-'Forecasts on validation'!AG$2))^2</f>
+        <v>0.87058990463859653</v>
+      </c>
+      <c r="V7" s="14">
+        <f>ABS(('Forecasts on validation'!AH8-'Forecasts on validation'!AH$2))^2</f>
+        <v>2.4160097869842514</v>
+      </c>
+      <c r="W7" s="14">
+        <f>ABS(('Forecasts on validation'!AI8-'Forecasts on validation'!AI$2))^2</f>
+        <v>0.19980564375853918</v>
+      </c>
+      <c r="X7" s="14">
+        <f>ABS(('Forecasts on validation'!AJ8-'Forecasts on validation'!AJ$2))^2</f>
+        <v>4.1287949387015077</v>
+      </c>
+      <c r="Y7" s="14">
+        <f>ABS(('Forecasts on validation'!AK8-'Forecasts on validation'!AK$2))^2</f>
+        <v>8.503644811204536E-2</v>
+      </c>
+      <c r="Z7" s="14">
+        <f>ABS(('Forecasts on validation'!AL8-'Forecasts on validation'!AL$2))^2</f>
+        <v>9.1481926626846732</v>
+      </c>
+      <c r="AA7" s="14">
+        <f>ABS(('Forecasts on validation'!AM8-'Forecasts on validation'!AM$2))^2</f>
+        <v>6.0793222735551664</v>
+      </c>
+      <c r="AB7" s="14">
+        <f>ABS(('Forecasts on validation'!AN8-'Forecasts on validation'!AN$2))^2</f>
+        <v>6.6101149699503905</v>
+      </c>
+      <c r="AC7" s="14">
+        <f>ABS(('Forecasts on validation'!AO8-'Forecasts on validation'!AO$2))^2</f>
+        <v>2.7629502323609119E-2</v>
+      </c>
+      <c r="AD7" s="14">
+        <f>ABS(('Forecasts on validation'!AP8-'Forecasts on validation'!AP$2))^2</f>
+        <v>0.16164626868769491</v>
+      </c>
+      <c r="AE7" s="14">
+        <f>ABS(('Forecasts on validation'!AQ8-'Forecasts on validation'!AQ$2))^2</f>
+        <v>0.67258085619569841</v>
+      </c>
+      <c r="AF7" s="70">
+        <f t="shared" si="0"/>
+        <v>1.9032551214533089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="14">
+        <f>ABS(('Forecasts on validation'!N9-'Forecasts on validation'!N$2))^2</f>
+        <v>2.8943825136038694</v>
+      </c>
+      <c r="C8" s="14">
+        <f>ABS(('Forecasts on validation'!O9-'Forecasts on validation'!O$2))^2</f>
+        <v>7.1076554917435013</v>
+      </c>
+      <c r="D8" s="14">
+        <f>ABS(('Forecasts on validation'!P9-'Forecasts on validation'!P$2))^2</f>
+        <v>1.3108707194538973</v>
+      </c>
+      <c r="E8" s="14">
+        <f>ABS(('Forecasts on validation'!Q9-'Forecasts on validation'!Q$2))^2</f>
+        <v>0.85692761765962178</v>
+      </c>
+      <c r="F8" s="14">
+        <f>ABS(('Forecasts on validation'!R9-'Forecasts on validation'!R$2))^2</f>
+        <v>0.48642869114896709</v>
+      </c>
+      <c r="G8" s="14">
+        <f>ABS(('Forecasts on validation'!S9-'Forecasts on validation'!S$2))^2</f>
+        <v>1.68141192312585</v>
+      </c>
+      <c r="H8" s="14">
+        <f>ABS(('Forecasts on validation'!T9-'Forecasts on validation'!T$2))^2</f>
+        <v>11.976875814849022</v>
+      </c>
+      <c r="I8" s="14">
+        <f>ABS(('Forecasts on validation'!U9-'Forecasts on validation'!U$2))^2</f>
+        <v>8.6030776233146131E-2</v>
+      </c>
+      <c r="J8" s="14">
+        <f>ABS(('Forecasts on validation'!V9-'Forecasts on validation'!V$2))^2</f>
+        <v>7.8369190730312761</v>
+      </c>
+      <c r="K8" s="14">
+        <f>ABS(('Forecasts on validation'!W9-'Forecasts on validation'!W$2))^2</f>
+        <v>4.0042637961492575</v>
+      </c>
+      <c r="L8" s="14">
+        <f>ABS(('Forecasts on validation'!X9-'Forecasts on validation'!X$2))^2</f>
+        <v>10.278088983897783</v>
+      </c>
+      <c r="M8" s="14">
+        <f>ABS(('Forecasts on validation'!Y9-'Forecasts on validation'!Y$2))^2</f>
+        <v>1.598381567092501</v>
+      </c>
+      <c r="N8" s="14">
+        <f>ABS(('Forecasts on validation'!Z9-'Forecasts on validation'!Z$2))^2</f>
+        <v>1.2024451475780598</v>
+      </c>
+      <c r="O8" s="14">
+        <f>ABS(('Forecasts on validation'!AA9-'Forecasts on validation'!AA$2))^2</f>
+        <v>3.9187841492312296</v>
+      </c>
+      <c r="P8" s="14">
+        <f>ABS(('Forecasts on validation'!AB9-'Forecasts on validation'!AB$2))^2</f>
+        <v>5.8583900613163253</v>
+      </c>
+      <c r="Q8" s="14">
+        <f>ABS(('Forecasts on validation'!AC9-'Forecasts on validation'!AC$2))^2</f>
+        <v>5.5742340259700143</v>
+      </c>
+      <c r="R8" s="14">
+        <f>ABS(('Forecasts on validation'!AD9-'Forecasts on validation'!AD$2))^2</f>
+        <v>5.0567151403706729</v>
+      </c>
+      <c r="S8" s="14">
+        <f>ABS(('Forecasts on validation'!AE9-'Forecasts on validation'!AE$2))^2</f>
+        <v>21.700209910748111</v>
+      </c>
+      <c r="T8" s="14">
+        <f>ABS(('Forecasts on validation'!AF9-'Forecasts on validation'!AF$2))^2</f>
+        <v>0.92741518126863376</v>
+      </c>
+      <c r="U8" s="14">
+        <f>ABS(('Forecasts on validation'!AG9-'Forecasts on validation'!AG$2))^2</f>
+        <v>2.5868117854176145</v>
+      </c>
+      <c r="V8" s="14">
+        <f>ABS(('Forecasts on validation'!AH9-'Forecasts on validation'!AH$2))^2</f>
+        <v>4.3297666682147806</v>
+      </c>
+      <c r="W8" s="14">
+        <f>ABS(('Forecasts on validation'!AI9-'Forecasts on validation'!AI$2))^2</f>
+        <v>5.5410555854484905E-3</v>
+      </c>
+      <c r="X8" s="14">
+        <f>ABS(('Forecasts on validation'!AJ9-'Forecasts on validation'!AJ$2))^2</f>
+        <v>0.59392252310055782</v>
+      </c>
+      <c r="Y8" s="14">
+        <f>ABS(('Forecasts on validation'!AK9-'Forecasts on validation'!AK$2))^2</f>
+        <v>0.5705140887197141</v>
+      </c>
+      <c r="Z8" s="14">
+        <f>ABS(('Forecasts on validation'!AL9-'Forecasts on validation'!AL$2))^2</f>
+        <v>8.2121884810506298</v>
+      </c>
+      <c r="AA8" s="14">
+        <f>ABS(('Forecasts on validation'!AM9-'Forecasts on validation'!AM$2))^2</f>
+        <v>8.7668130869032712</v>
+      </c>
+      <c r="AB8" s="14">
+        <f>ABS(('Forecasts on validation'!AN9-'Forecasts on validation'!AN$2))^2</f>
+        <v>4.2636934840882654</v>
+      </c>
+      <c r="AC8" s="14">
+        <f>ABS(('Forecasts on validation'!AO9-'Forecasts on validation'!AO$2))^2</f>
+        <v>0.36098905219992194</v>
+      </c>
+      <c r="AD8" s="14">
+        <f>ABS(('Forecasts on validation'!AP9-'Forecasts on validation'!AP$2))^2</f>
+        <v>1.3602612136243933E-3</v>
+      </c>
+      <c r="AE8" s="14">
+        <f>ABS(('Forecasts on validation'!AQ9-'Forecasts on validation'!AQ$2))^2</f>
+        <v>0.53961857180613548</v>
+      </c>
+      <c r="AF8" s="70">
+        <f t="shared" si="0"/>
+        <v>2.0378718445375941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="14">
+        <f>ABS(('Forecasts on validation'!N10-'Forecasts on validation'!N$2))^2</f>
+        <v>6.1891506838119037</v>
+      </c>
+      <c r="C9" s="14">
+        <f>ABS(('Forecasts on validation'!O10-'Forecasts on validation'!O$2))^2</f>
+        <v>4.7284117268364305</v>
+      </c>
+      <c r="D9" s="14">
+        <f>ABS(('Forecasts on validation'!P10-'Forecasts on validation'!P$2))^2</f>
+        <v>7.1716275398495339</v>
+      </c>
+      <c r="E9" s="14">
+        <f>ABS(('Forecasts on validation'!Q10-'Forecasts on validation'!Q$2))^2</f>
+        <v>0.34958781765986663</v>
+      </c>
+      <c r="F9" s="14">
+        <f>ABS(('Forecasts on validation'!R10-'Forecasts on validation'!R$2))^2</f>
+        <v>0.59495327061022862</v>
+      </c>
+      <c r="G9" s="14">
+        <f>ABS(('Forecasts on validation'!S10-'Forecasts on validation'!S$2))^2</f>
+        <v>0.41414455792874227</v>
+      </c>
+      <c r="H9" s="14">
+        <f>ABS(('Forecasts on validation'!T10-'Forecasts on validation'!T$2))^2</f>
+        <v>13.025619737284396</v>
+      </c>
+      <c r="I9" s="14">
+        <f>ABS(('Forecasts on validation'!U10-'Forecasts on validation'!U$2))^2</f>
+        <v>2.0109817620148289E-2</v>
+      </c>
+      <c r="J9" s="14">
+        <f>ABS(('Forecasts on validation'!V10-'Forecasts on validation'!V$2))^2</f>
+        <v>7.4814231192271894</v>
+      </c>
+      <c r="K9" s="14">
+        <f>ABS(('Forecasts on validation'!W10-'Forecasts on validation'!W$2))^2</f>
+        <v>8.3084030321020723</v>
+      </c>
+      <c r="L9" s="14">
+        <f>ABS(('Forecasts on validation'!X10-'Forecasts on validation'!X$2))^2</f>
+        <v>7.7665518049652142</v>
+      </c>
+      <c r="M9" s="14">
+        <f>ABS(('Forecasts on validation'!Y10-'Forecasts on validation'!Y$2))^2</f>
+        <v>3.0415377774015111</v>
+      </c>
+      <c r="N9" s="14">
+        <f>ABS(('Forecasts on validation'!Z10-'Forecasts on validation'!Z$2))^2</f>
+        <v>6.5000571394357189</v>
+      </c>
+      <c r="O9" s="14">
+        <f>ABS(('Forecasts on validation'!AA10-'Forecasts on validation'!AA$2))^2</f>
+        <v>0.99856700000784082</v>
+      </c>
+      <c r="P9" s="14">
+        <f>ABS(('Forecasts on validation'!AB10-'Forecasts on validation'!AB$2))^2</f>
+        <v>10.006665749164489</v>
+      </c>
+      <c r="Q9" s="14">
+        <f>ABS(('Forecasts on validation'!AC10-'Forecasts on validation'!AC$2))^2</f>
+        <v>7.7248335679650317</v>
+      </c>
+      <c r="R9" s="14">
+        <f>ABS(('Forecasts on validation'!AD10-'Forecasts on validation'!AD$2))^2</f>
+        <v>8.2125337463448442</v>
+      </c>
+      <c r="S9" s="14">
+        <f>ABS(('Forecasts on validation'!AE10-'Forecasts on validation'!AE$2))^2</f>
+        <v>17.63314372794455</v>
+      </c>
+      <c r="T9" s="14">
+        <f>ABS(('Forecasts on validation'!AF10-'Forecasts on validation'!AF$2))^2</f>
+        <v>1.8902587575633669</v>
+      </c>
+      <c r="U9" s="14">
+        <f>ABS(('Forecasts on validation'!AG10-'Forecasts on validation'!AG$2))^2</f>
+        <v>3.1306451168422638</v>
+      </c>
+      <c r="V9" s="14">
+        <f>ABS(('Forecasts on validation'!AH10-'Forecasts on validation'!AH$2))^2</f>
+        <v>7.6584975751616513</v>
+      </c>
+      <c r="W9" s="14">
+        <f>ABS(('Forecasts on validation'!AI10-'Forecasts on validation'!AI$2))^2</f>
+        <v>0.37172778065633016</v>
+      </c>
+      <c r="X9" s="14">
+        <f>ABS(('Forecasts on validation'!AJ10-'Forecasts on validation'!AJ$2))^2</f>
+        <v>5.7846897985241404E-2</v>
+      </c>
+      <c r="Y9" s="14">
+        <f>ABS(('Forecasts on validation'!AK10-'Forecasts on validation'!AK$2))^2</f>
+        <v>0.27776841081571441</v>
+      </c>
+      <c r="Z9" s="14">
+        <f>ABS(('Forecasts on validation'!AL10-'Forecasts on validation'!AL$2))^2</f>
+        <v>3.2445341385063204</v>
+      </c>
+      <c r="AA9" s="14">
+        <f>ABS(('Forecasts on validation'!AM10-'Forecasts on validation'!AM$2))^2</f>
+        <v>7.8361821438247388</v>
+      </c>
+      <c r="AB9" s="14">
+        <f>ABS(('Forecasts on validation'!AN10-'Forecasts on validation'!AN$2))^2</f>
+        <v>6.5966853882806324</v>
+      </c>
+      <c r="AC9" s="14">
+        <f>ABS(('Forecasts on validation'!AO10-'Forecasts on validation'!AO$2))^2</f>
+        <v>1.2441762841468775</v>
+      </c>
+      <c r="AD9" s="14">
+        <f>ABS(('Forecasts on validation'!AP10-'Forecasts on validation'!AP$2))^2</f>
+        <v>0.16401261403626816</v>
+      </c>
+      <c r="AE9" s="14">
+        <f>ABS(('Forecasts on validation'!AQ10-'Forecasts on validation'!AQ$2))^2</f>
+        <v>1.3944257783792182</v>
+      </c>
+      <c r="AF9" s="70">
+        <f t="shared" si="0"/>
+        <v>2.1911494905821947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="14">
+        <f>ABS(('Forecasts on validation'!N11-'Forecasts on validation'!N$2))^2</f>
+        <v>5.7259833684076931</v>
+      </c>
+      <c r="C10" s="14">
+        <f>ABS(('Forecasts on validation'!O11-'Forecasts on validation'!O$2))^2</f>
+        <v>8.8442755874061962</v>
+      </c>
+      <c r="D10" s="14">
+        <f>ABS(('Forecasts on validation'!P11-'Forecasts on validation'!P$2))^2</f>
+        <v>4.745346415509113</v>
+      </c>
+      <c r="E10" s="14">
+        <f>ABS(('Forecasts on validation'!Q11-'Forecasts on validation'!Q$2))^2</f>
+        <v>0.93508821885972571</v>
+      </c>
+      <c r="F10" s="14">
+        <f>ABS(('Forecasts on validation'!R11-'Forecasts on validation'!R$2))^2</f>
+        <v>1.2349309726212201</v>
+      </c>
+      <c r="G10" s="14">
+        <f>ABS(('Forecasts on validation'!S11-'Forecasts on validation'!S$2))^2</f>
+        <v>0.3231220370511621</v>
+      </c>
+      <c r="H10" s="14">
+        <f>ABS(('Forecasts on validation'!T11-'Forecasts on validation'!T$2))^2</f>
+        <v>8.6742794998613668</v>
+      </c>
+      <c r="I10" s="14">
+        <f>ABS(('Forecasts on validation'!U11-'Forecasts on validation'!U$2))^2</f>
+        <v>8.5607570007902797E-2</v>
+      </c>
+      <c r="J10" s="14">
+        <f>ABS(('Forecasts on validation'!V11-'Forecasts on validation'!V$2))^2</f>
+        <v>6.6627355121854324</v>
+      </c>
+      <c r="K10" s="14">
+        <f>ABS(('Forecasts on validation'!W11-'Forecasts on validation'!W$2))^2</f>
+        <v>7.9362969230611817</v>
+      </c>
+      <c r="L10" s="14">
+        <f>ABS(('Forecasts on validation'!X11-'Forecasts on validation'!X$2))^2</f>
+        <v>13.562328904599481</v>
+      </c>
+      <c r="M10" s="14">
+        <f>ABS(('Forecasts on validation'!Y11-'Forecasts on validation'!Y$2))^2</f>
+        <v>1.7371726541728323</v>
+      </c>
+      <c r="N10" s="14">
+        <f>ABS(('Forecasts on validation'!Z11-'Forecasts on validation'!Z$2))^2</f>
+        <v>9.2241993078220936</v>
+      </c>
+      <c r="O10" s="14">
+        <f>ABS(('Forecasts on validation'!AA11-'Forecasts on validation'!AA$2))^2</f>
+        <v>6.1312156381037886</v>
+      </c>
+      <c r="P10" s="14">
+        <f>ABS(('Forecasts on validation'!AB11-'Forecasts on validation'!AB$2))^2</f>
+        <v>4.6954869664546832</v>
+      </c>
+      <c r="Q10" s="14">
+        <f>ABS(('Forecasts on validation'!AC11-'Forecasts on validation'!AC$2))^2</f>
+        <v>12.492632428265654</v>
+      </c>
+      <c r="R10" s="14">
+        <f>ABS(('Forecasts on validation'!AD11-'Forecasts on validation'!AD$2))^2</f>
+        <v>10.830724183030345</v>
+      </c>
+      <c r="S10" s="14">
+        <f>ABS(('Forecasts on validation'!AE11-'Forecasts on validation'!AE$2))^2</f>
+        <v>23.293799910835418</v>
+      </c>
+      <c r="T10" s="14">
+        <f>ABS(('Forecasts on validation'!AF11-'Forecasts on validation'!AF$2))^2</f>
+        <v>0.82474329771375865</v>
+      </c>
+      <c r="U10" s="14">
+        <f>ABS(('Forecasts on validation'!AG11-'Forecasts on validation'!AG$2))^2</f>
+        <v>4.7872395499836475</v>
+      </c>
+      <c r="V10" s="14">
+        <f>ABS(('Forecasts on validation'!AH11-'Forecasts on validation'!AH$2))^2</f>
+        <v>8.5910654369154127</v>
+      </c>
+      <c r="W10" s="14">
+        <f>ABS(('Forecasts on validation'!AI11-'Forecasts on validation'!AI$2))^2</f>
+        <v>1.709743919713816</v>
+      </c>
+      <c r="X10" s="14">
+        <f>ABS(('Forecasts on validation'!AJ11-'Forecasts on validation'!AJ$2))^2</f>
+        <v>9.2137713419073772E-2</v>
+      </c>
+      <c r="Y10" s="14">
+        <f>ABS(('Forecasts on validation'!AK11-'Forecasts on validation'!AK$2))^2</f>
+        <v>1.1361481780907312</v>
+      </c>
+      <c r="Z10" s="14">
+        <f>ABS(('Forecasts on validation'!AL11-'Forecasts on validation'!AL$2))^2</f>
+        <v>9.6391701705548218</v>
+      </c>
+      <c r="AA10" s="14">
+        <f>ABS(('Forecasts on validation'!AM11-'Forecasts on validation'!AM$2))^2</f>
+        <v>2.9494185137687259</v>
+      </c>
+      <c r="AB10" s="14">
+        <f>ABS(('Forecasts on validation'!AN11-'Forecasts on validation'!AN$2))^2</f>
+        <v>5.7800962219086083</v>
+      </c>
+      <c r="AC10" s="14">
+        <f>ABS(('Forecasts on validation'!AO11-'Forecasts on validation'!AO$2))^2</f>
+        <v>0.36435568575782612</v>
+      </c>
+      <c r="AD10" s="14">
+        <f>ABS(('Forecasts on validation'!AP11-'Forecasts on validation'!AP$2))^2</f>
+        <v>0.86127168776539309</v>
+      </c>
+      <c r="AE10" s="14">
+        <f>ABS(('Forecasts on validation'!AQ11-'Forecasts on validation'!AQ$2))^2</f>
+        <v>0.53542541935114152</v>
+      </c>
+      <c r="AF10" s="70">
+        <f t="shared" si="0"/>
+        <v>2.3409829978963841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="14">
+        <f>ABS(('Forecasts on validation'!N12-'Forecasts on validation'!N$2))^2</f>
+        <v>4.9438986965827674</v>
+      </c>
+      <c r="C11" s="14">
+        <f>ABS(('Forecasts on validation'!O12-'Forecasts on validation'!O$2))^2</f>
+        <v>8.2800075211376747</v>
+      </c>
+      <c r="D11" s="14">
+        <f>ABS(('Forecasts on validation'!P12-'Forecasts on validation'!P$2))^2</f>
+        <v>8.9446014237062972</v>
+      </c>
+      <c r="E11" s="14">
+        <f>ABS(('Forecasts on validation'!Q12-'Forecasts on validation'!Q$2))^2</f>
+        <v>0.2109670508092889</v>
+      </c>
+      <c r="F11" s="14">
+        <f>ABS(('Forecasts on validation'!R12-'Forecasts on validation'!R$2))^2</f>
+        <v>7.2615999232021506</v>
+      </c>
+      <c r="G11" s="14">
+        <f>ABS(('Forecasts on validation'!S12-'Forecasts on validation'!S$2))^2</f>
+        <v>4.9728088182284094E-2</v>
+      </c>
+      <c r="H11" s="14">
+        <f>ABS(('Forecasts on validation'!T12-'Forecasts on validation'!T$2))^2</f>
+        <v>8.2305639024945929</v>
+      </c>
+      <c r="I11" s="14">
+        <f>ABS(('Forecasts on validation'!U12-'Forecasts on validation'!U$2))^2</f>
+        <v>0.14595368359100067</v>
+      </c>
+      <c r="J11" s="14">
+        <f>ABS(('Forecasts on validation'!V12-'Forecasts on validation'!V$2))^2</f>
+        <v>7.4771878960081244</v>
+      </c>
+      <c r="K11" s="14">
+        <f>ABS(('Forecasts on validation'!W12-'Forecasts on validation'!W$2))^2</f>
+        <v>7.0791188755226893</v>
+      </c>
+      <c r="L11" s="14">
+        <f>ABS(('Forecasts on validation'!X12-'Forecasts on validation'!X$2))^2</f>
+        <v>13.078089914591157</v>
+      </c>
+      <c r="M11" s="14">
+        <f>ABS(('Forecasts on validation'!Y12-'Forecasts on validation'!Y$2))^2</f>
+        <v>4.9655909624453036</v>
+      </c>
+      <c r="N11" s="14">
+        <f>ABS(('Forecasts on validation'!Z12-'Forecasts on validation'!Z$2))^2</f>
+        <v>6.7821970275931296</v>
+      </c>
+      <c r="O11" s="14">
+        <f>ABS(('Forecasts on validation'!AA12-'Forecasts on validation'!AA$2))^2</f>
+        <v>8.8305919425465778</v>
+      </c>
+      <c r="P11" s="14">
+        <f>ABS(('Forecasts on validation'!AB12-'Forecasts on validation'!AB$2))^2</f>
+        <v>13.451571766818262</v>
+      </c>
+      <c r="Q11" s="14">
+        <f>ABS(('Forecasts on validation'!AC12-'Forecasts on validation'!AC$2))^2</f>
+        <v>6.3602433009627237</v>
+      </c>
+      <c r="R11" s="14">
+        <f>ABS(('Forecasts on validation'!AD12-'Forecasts on validation'!AD$2))^2</f>
+        <v>16.470227483238379</v>
+      </c>
+      <c r="S11" s="14">
+        <f>ABS(('Forecasts on validation'!AE12-'Forecasts on validation'!AE$2))^2</f>
+        <v>27.651795940781629</v>
+      </c>
+      <c r="T11" s="14">
+        <f>ABS(('Forecasts on validation'!AF12-'Forecasts on validation'!AF$2))^2</f>
+        <v>2.3885043659017966</v>
+      </c>
+      <c r="U11" s="14">
+        <f>ABS(('Forecasts on validation'!AG12-'Forecasts on validation'!AG$2))^2</f>
+        <v>2.9368186551671931</v>
+      </c>
+      <c r="V11" s="14">
+        <f>ABS(('Forecasts on validation'!AH12-'Forecasts on validation'!AH$2))^2</f>
+        <v>11.265658977739937</v>
+      </c>
+      <c r="W11" s="14">
+        <f>ABS(('Forecasts on validation'!AI12-'Forecasts on validation'!AI$2))^2</f>
+        <v>2.1722969674317683</v>
+      </c>
+      <c r="X11" s="14">
+        <f>ABS(('Forecasts on validation'!AJ12-'Forecasts on validation'!AJ$2))^2</f>
+        <v>1.0255729808617657</v>
+      </c>
+      <c r="Y11" s="14">
+        <f>ABS(('Forecasts on validation'!AK12-'Forecasts on validation'!AK$2))^2</f>
+        <v>2.6203755048201791</v>
+      </c>
+      <c r="Z11" s="14">
+        <f>ABS(('Forecasts on validation'!AL12-'Forecasts on validation'!AL$2))^2</f>
+        <v>13.339160810227762</v>
+      </c>
+      <c r="AA11" s="14">
+        <f>ABS(('Forecasts on validation'!AM12-'Forecasts on validation'!AM$2))^2</f>
+        <v>9.2532175313107992</v>
+      </c>
+      <c r="AB11" s="14">
+        <f>ABS(('Forecasts on validation'!AN12-'Forecasts on validation'!AN$2))^2</f>
+        <v>1.7023823940276921</v>
+      </c>
+      <c r="AC11" s="14">
+        <f>ABS(('Forecasts on validation'!AO12-'Forecasts on validation'!AO$2))^2</f>
+        <v>0.59365949010672137</v>
+      </c>
+      <c r="AD11" s="14">
+        <f>ABS(('Forecasts on validation'!AP12-'Forecasts on validation'!AP$2))^2</f>
+        <v>0.16643300186935525</v>
+      </c>
+      <c r="AE11" s="14">
+        <f>ABS(('Forecasts on validation'!AQ12-'Forecasts on validation'!AQ$2))^2</f>
+        <v>4.0082272813565564E-2</v>
+      </c>
+      <c r="AF11" s="70">
+        <f t="shared" si="0"/>
+        <v>2.5672170298625749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="14">
+        <f>ABS(('Forecasts on validation'!N13-'Forecasts on validation'!N$2))^2</f>
+        <v>6.6294694600024844</v>
+      </c>
+      <c r="C12" s="14">
+        <f>ABS(('Forecasts on validation'!O13-'Forecasts on validation'!O$2))^2</f>
+        <v>7.3191303723141603</v>
+      </c>
+      <c r="D12" s="14">
+        <f>ABS(('Forecasts on validation'!P13-'Forecasts on validation'!P$2))^2</f>
+        <v>8.3682074448211541</v>
+      </c>
+      <c r="E12" s="14">
+        <f>ABS(('Forecasts on validation'!Q13-'Forecasts on validation'!Q$2))^2</f>
+        <v>1.6502277514391541</v>
+      </c>
+      <c r="F12" s="14">
+        <f>ABS(('Forecasts on validation'!R13-'Forecasts on validation'!R$2))^2</f>
+        <v>4.7478986677088457</v>
+      </c>
+      <c r="G12" s="14">
+        <f>ABS(('Forecasts on validation'!S13-'Forecasts on validation'!S$2))^2</f>
+        <v>1.9200671408002268</v>
+      </c>
+      <c r="H12" s="14">
+        <f>ABS(('Forecasts on validation'!T13-'Forecasts on validation'!T$2))^2</f>
+        <v>6.3401113018031907</v>
+      </c>
+      <c r="I12" s="14">
+        <f>ABS(('Forecasts on validation'!U13-'Forecasts on validation'!U$2))^2</f>
+        <v>0.21120506656320343</v>
+      </c>
+      <c r="J12" s="14">
+        <f>ABS(('Forecasts on validation'!V13-'Forecasts on validation'!V$2))^2</f>
+        <v>4.1987332366082217</v>
+      </c>
+      <c r="K12" s="14">
+        <f>ABS(('Forecasts on validation'!W13-'Forecasts on validation'!W$2))^2</f>
+        <v>7.9316419871221235</v>
+      </c>
+      <c r="L12" s="14">
+        <f>ABS(('Forecasts on validation'!X13-'Forecasts on validation'!X$2))^2</f>
+        <v>11.953556977225267</v>
+      </c>
+      <c r="M12" s="14">
+        <f>ABS(('Forecasts on validation'!Y13-'Forecasts on validation'!Y$2))^2</f>
+        <v>4.6697574883271136</v>
+      </c>
+      <c r="N12" s="14">
+        <f>ABS(('Forecasts on validation'!Z13-'Forecasts on validation'!Z$2))^2</f>
+        <v>12.454518112041024</v>
+      </c>
+      <c r="O12" s="14">
+        <f>ABS(('Forecasts on validation'!AA13-'Forecasts on validation'!AA$2))^2</f>
+        <v>6.4103669734686255</v>
+      </c>
+      <c r="P12" s="14">
+        <f>ABS(('Forecasts on validation'!AB13-'Forecasts on validation'!AB$2))^2</f>
+        <v>17.39746356426183</v>
+      </c>
+      <c r="Q12" s="14">
+        <f>ABS(('Forecasts on validation'!AC13-'Forecasts on validation'!AC$2))^2</f>
+        <v>16.374716709519877</v>
+      </c>
+      <c r="R12" s="14">
+        <f>ABS(('Forecasts on validation'!AD13-'Forecasts on validation'!AD$2))^2</f>
+        <v>9.17907058138473</v>
+      </c>
+      <c r="S12" s="14">
+        <f>ABS(('Forecasts on validation'!AE13-'Forecasts on validation'!AE$2))^2</f>
+        <v>36.458126405444723</v>
+      </c>
+      <c r="T12" s="14">
+        <f>ABS(('Forecasts on validation'!AF13-'Forecasts on validation'!AF$2))^2</f>
+        <v>3.9381955694043222</v>
+      </c>
+      <c r="U12" s="14">
+        <f>ABS(('Forecasts on validation'!AG13-'Forecasts on validation'!AG$2))^2</f>
+        <v>5.5751859648273783</v>
+      </c>
+      <c r="V12" s="14">
+        <f>ABS(('Forecasts on validation'!AH13-'Forecasts on validation'!AH$2))^2</f>
+        <v>8.2634749204304097</v>
+      </c>
+      <c r="W12" s="14">
+        <f>ABS(('Forecasts on validation'!AI13-'Forecasts on validation'!AI$2))^2</f>
+        <v>3.6329319653590613</v>
+      </c>
+      <c r="X12" s="14">
+        <f>ABS(('Forecasts on validation'!AJ13-'Forecasts on validation'!AJ$2))^2</f>
+        <v>1.3963018886604115</v>
+      </c>
+      <c r="Y12" s="14">
+        <f>ABS(('Forecasts on validation'!AK13-'Forecasts on validation'!AK$2))^2</f>
+        <v>5.4718939755239209</v>
+      </c>
+      <c r="Z12" s="14">
+        <f>ABS(('Forecasts on validation'!AL13-'Forecasts on validation'!AL$2))^2</f>
+        <v>17.75725220983713</v>
+      </c>
+      <c r="AA12" s="14">
+        <f>ABS(('Forecasts on validation'!AM13-'Forecasts on validation'!AM$2))^2</f>
+        <v>12.947083028775053</v>
+      </c>
+      <c r="AB12" s="14">
+        <f>ABS(('Forecasts on validation'!AN13-'Forecasts on validation'!AN$2))^2</f>
+        <v>7.0243943030389486</v>
+      </c>
+      <c r="AC12" s="14">
+        <f>ABS(('Forecasts on validation'!AO13-'Forecasts on validation'!AO$2))^2</f>
+        <v>3.5623556979992044</v>
+      </c>
+      <c r="AD12" s="14">
+        <f>ABS(('Forecasts on validation'!AP13-'Forecasts on validation'!AP$2))^2</f>
+        <v>0.33349713018208532</v>
+      </c>
+      <c r="AE12" s="14">
+        <f>ABS(('Forecasts on validation'!AQ13-'Forecasts on validation'!AQ$2))^2</f>
+        <v>0.53081172848975</v>
+      </c>
+      <c r="AF12" s="70">
+        <f t="shared" si="0"/>
+        <v>2.7967102556598147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="19">
+        <f>ABS(('Forecasts on validation'!N14-'Forecasts on validation'!N$2))^2</f>
+        <v>8.6256691300864574</v>
+      </c>
+      <c r="C13" s="19">
+        <f>ABS(('Forecasts on validation'!O14-'Forecasts on validation'!O$2))^2</f>
+        <v>9.3769469035391779</v>
+      </c>
+      <c r="D13" s="19">
+        <f>ABS(('Forecasts on validation'!P14-'Forecasts on validation'!P$2))^2</f>
+        <v>7.3874045276059954</v>
+      </c>
+      <c r="E13" s="19">
+        <f>ABS(('Forecasts on validation'!Q14-'Forecasts on validation'!Q$2))^2</f>
+        <v>1.4044854892425587</v>
+      </c>
+      <c r="F13" s="19">
+        <f>ABS(('Forecasts on validation'!R14-'Forecasts on validation'!R$2))^2</f>
+        <v>9.1034775452662426</v>
+      </c>
+      <c r="G13" s="19">
+        <f>ABS(('Forecasts on validation'!S14-'Forecasts on validation'!S$2))^2</f>
+        <v>0.74272777365368414</v>
+      </c>
+      <c r="H13" s="19">
+        <f>ABS(('Forecasts on validation'!T14-'Forecasts on validation'!T$2))^2</f>
+        <v>0.78162132196920941</v>
+      </c>
+      <c r="I13" s="19">
+        <f>ABS(('Forecasts on validation'!U14-'Forecasts on validation'!U$2))^2</f>
+        <v>0.66586664322292854</v>
+      </c>
+      <c r="J13" s="19">
+        <f>ABS(('Forecasts on validation'!V14-'Forecasts on validation'!V$2))^2</f>
+        <v>3.8822191496849334</v>
+      </c>
+      <c r="K13" s="19">
+        <f>ABS(('Forecasts on validation'!W14-'Forecasts on validation'!W$2))^2</f>
+        <v>4.4953179858313455</v>
+      </c>
+      <c r="L13" s="19">
+        <f>ABS(('Forecasts on validation'!X14-'Forecasts on validation'!X$2))^2</f>
+        <v>13.071738248301612</v>
+      </c>
+      <c r="M13" s="19">
+        <f>ABS(('Forecasts on validation'!Y14-'Forecasts on validation'!Y$2))^2</f>
+        <v>3.9979968535310357</v>
+      </c>
+      <c r="N13" s="19">
+        <f>ABS(('Forecasts on validation'!Z14-'Forecasts on validation'!Z$2))^2</f>
+        <v>11.976040510167211</v>
+      </c>
+      <c r="O13" s="19">
+        <f>ABS(('Forecasts on validation'!AA14-'Forecasts on validation'!AA$2))^2</f>
+        <v>12.049156500544687</v>
+      </c>
+      <c r="P13" s="19">
+        <f>ABS(('Forecasts on validation'!AB14-'Forecasts on validation'!AB$2))^2</f>
+        <v>13.870979657730279</v>
+      </c>
+      <c r="Q13" s="19">
+        <f>ABS(('Forecasts on validation'!AC14-'Forecasts on validation'!AC$2))^2</f>
+        <v>20.773931560200829</v>
+      </c>
+      <c r="R13" s="19">
+        <f>ABS(('Forecasts on validation'!AD14-'Forecasts on validation'!AD$2))^2</f>
+        <v>20.959906848523172</v>
+      </c>
+      <c r="S13" s="19">
+        <f>ABS(('Forecasts on validation'!AE14-'Forecasts on validation'!AE$2))^2</f>
+        <v>24.932913305000344</v>
+      </c>
+      <c r="T13" s="19">
+        <f>ABS(('Forecasts on validation'!AF14-'Forecasts on validation'!AF$2))^2</f>
+        <v>7.7076217141773551</v>
+      </c>
+      <c r="U13" s="19">
+        <f>ABS(('Forecasts on validation'!AG14-'Forecasts on validation'!AG$2))^2</f>
+        <v>7.8796464342598753</v>
+      </c>
+      <c r="V13" s="19">
+        <f>ABS(('Forecasts on validation'!AH14-'Forecasts on validation'!AH$2))^2</f>
+        <v>12.476702719903011</v>
+      </c>
+      <c r="W13" s="19">
+        <f>ABS(('Forecasts on validation'!AI14-'Forecasts on validation'!AI$2))^2</f>
+        <v>2.0069473829282041</v>
+      </c>
+      <c r="X13" s="19">
+        <f>ABS(('Forecasts on validation'!AJ14-'Forecasts on validation'!AJ$2))^2</f>
+        <v>2.6262668694103843</v>
+      </c>
+      <c r="Y13" s="19">
+        <f>ABS(('Forecasts on validation'!AK14-'Forecasts on validation'!AK$2))^2</f>
+        <v>6.3041222714852516</v>
+      </c>
+      <c r="Z13" s="19">
+        <f>ABS(('Forecasts on validation'!AL14-'Forecasts on validation'!AL$2))^2</f>
+        <v>24.459678411942743</v>
+      </c>
+      <c r="AA13" s="19">
+        <f>ABS(('Forecasts on validation'!AM14-'Forecasts on validation'!AM$2))^2</f>
+        <v>17.37771226272703</v>
+      </c>
+      <c r="AB13" s="19">
+        <f>ABS(('Forecasts on validation'!AN14-'Forecasts on validation'!AN$2))^2</f>
+        <v>10.338589492149929</v>
+      </c>
+      <c r="AC13" s="19">
+        <f>ABS(('Forecasts on validation'!AO14-'Forecasts on validation'!AO$2))^2</f>
+        <v>0.2711664302864642</v>
+      </c>
+      <c r="AD13" s="19">
+        <f>ABS(('Forecasts on validation'!AP14-'Forecasts on validation'!AP$2))^2</f>
+        <v>2.9306609656684786</v>
+      </c>
+      <c r="AE13" s="19">
+        <f>ABS(('Forecasts on validation'!AQ14-'Forecasts on validation'!AQ$2))^2</f>
+        <v>0.30956127290459723</v>
+      </c>
+      <c r="AF13" s="70">
+        <f t="shared" si="0"/>
+        <v>2.9596569406038999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="AB14" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="59">
+        <f>SUM(AF2:AF13)/12</f>
+        <v>2.0690505289402767</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>SQRT(A21)</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>A21^2</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AB14:AE14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85C1D48-C271-40AD-B550-EE399BA18189}">
+  <dimension ref="A1:AG17"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP29" sqref="AP29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>43282.500000004999</v>
+      </c>
+      <c r="C1" s="6">
+        <v>43313.500000004999</v>
+      </c>
+      <c r="D1" s="6">
+        <v>43344.500000004999</v>
+      </c>
+      <c r="E1" s="6">
+        <v>43374.500000004999</v>
+      </c>
+      <c r="F1" s="6">
+        <v>43405.500000004999</v>
+      </c>
+      <c r="G1" s="6">
+        <v>43435.500000004999</v>
+      </c>
+      <c r="H1" s="6">
+        <v>43466.500000004999</v>
+      </c>
+      <c r="I1" s="6">
+        <v>43497.500000004999</v>
+      </c>
+      <c r="J1" s="6">
+        <v>43525.500000004999</v>
+      </c>
+      <c r="K1" s="6">
+        <v>43556.500000004999</v>
+      </c>
+      <c r="L1" s="6">
+        <v>43586.500000004999</v>
+      </c>
+      <c r="M1" s="6">
+        <v>43617.500000004999</v>
+      </c>
+      <c r="N1" s="6">
+        <v>43647.500000004999</v>
+      </c>
+      <c r="O1" s="6">
+        <v>43678.500000004999</v>
+      </c>
+      <c r="P1" s="6">
+        <v>43709.500000004999</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>43739.500000004999</v>
+      </c>
+      <c r="R1" s="6">
+        <v>43770.500000004999</v>
+      </c>
+      <c r="S1" s="6">
+        <v>43800.500000004999</v>
+      </c>
+      <c r="T1" s="6">
+        <v>43831.500000004999</v>
+      </c>
+      <c r="U1" s="6">
+        <v>43862.500000004999</v>
+      </c>
+      <c r="V1" s="6">
+        <v>43891.500000004999</v>
+      </c>
+      <c r="W1" s="6">
+        <v>43922.500000004999</v>
+      </c>
+      <c r="X1" s="6">
+        <v>43952.500000004999</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>43983.500000004999</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>44013.500000004999</v>
+      </c>
+      <c r="AA1" s="6">
+        <v>44044.500000004999</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>44075.500000004999</v>
+      </c>
+      <c r="AC1" s="6">
+        <v>44105.500000004999</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>44136.500000004999</v>
+      </c>
+      <c r="AE1" s="13">
+        <v>44166.500000004999</v>
+      </c>
+      <c r="AF1" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" s="68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="76">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N3</f>
+        <v>0.28435837980184431</v>
+      </c>
+      <c r="C2" s="77">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O3</f>
+        <v>-0.29041765741230563</v>
+      </c>
+      <c r="D2" s="77">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P3</f>
+        <v>-0.1231262629838028</v>
+      </c>
+      <c r="E2" s="77">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q3</f>
+        <v>1.6895193676170308</v>
+      </c>
+      <c r="F2" s="77">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R3</f>
+        <v>-0.80337359750095771</v>
+      </c>
+      <c r="G2" s="77">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S3</f>
+        <v>0.9196105881905865</v>
+      </c>
+      <c r="H2" s="77">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T3</f>
+        <v>2.7852324169122014</v>
+      </c>
+      <c r="I2" s="77">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U3</f>
+        <v>-1.879189246567968</v>
+      </c>
+      <c r="J2" s="77">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V3</f>
+        <v>1.4241308621206841</v>
+      </c>
+      <c r="K2" s="77">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W3</f>
+        <v>0.80200185394115664</v>
+      </c>
+      <c r="L2" s="77">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X3</f>
+        <v>1.1828220529299642</v>
+      </c>
+      <c r="M2" s="77">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y3</f>
+        <v>-0.88018949014198711</v>
+      </c>
+      <c r="N2" s="77">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z3</f>
+        <v>0.7894764708863562</v>
+      </c>
+      <c r="O2" s="77">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA3</f>
+        <v>0.30863834398568457</v>
+      </c>
+      <c r="P2" s="77">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB3</f>
+        <v>1.3161491291582976</v>
+      </c>
+      <c r="Q2" s="77">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC3</f>
+        <v>1.0260527104203447</v>
+      </c>
+      <c r="R2" s="77">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD3</f>
+        <v>1.0162635117923315</v>
+      </c>
+      <c r="S2" s="77">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE3</f>
+        <v>2.4582047326121454</v>
+      </c>
+      <c r="T2" s="77">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF3</f>
+        <v>-2.0404494191781595</v>
+      </c>
+      <c r="U2" s="77">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG3</f>
+        <v>-0.30970463453061825</v>
+      </c>
+      <c r="V2" s="77">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH3</f>
+        <v>0.96523497583715567</v>
+      </c>
+      <c r="W2" s="77">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI3</f>
+        <v>-0.98646088288159461</v>
+      </c>
+      <c r="X2" s="77">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ3</f>
+        <v>-0.84702978072632362</v>
+      </c>
+      <c r="Y2" s="77">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK3</f>
+        <v>0.85547252986208377</v>
+      </c>
+      <c r="Z2" s="77">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL3</f>
+        <v>3.0300688258566879</v>
+      </c>
+      <c r="AA2" s="77">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM3</f>
+        <v>1.5157083482844413</v>
+      </c>
+      <c r="AB2" s="77">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN3</f>
+        <v>0.37165318398831459</v>
+      </c>
+      <c r="AC2" s="77">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO3</f>
+        <v>-3.0171849545627154</v>
+      </c>
+      <c r="AD2" s="77">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP3</f>
+        <v>-1.419006943984968</v>
+      </c>
+      <c r="AE2" s="77">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ3</f>
+        <v>0.38073693636950878</v>
+      </c>
+      <c r="AF2" s="78">
+        <f>B2^2+C2^2+D2^2+E2^2+F2^2+G2^2+H2^2+I2^2+J2^2+K2^2+L2^2+M2^2+N2^2+O2^2+P2^2+Q2^2+R2^2+S2^2+T2^2+U2^2+V2^2+W2^2+X2^2+Y2^2+Z2^2+AA2^2+AB2^2+AC2^2+AD2^2+AE2^2</f>
+        <v>61.731273643650745</v>
+      </c>
+      <c r="AG2" s="79">
+        <f>1-(AF2/$B$17)</f>
+        <v>0.90391749658322573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="80">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N4</f>
+        <v>0.28435837980184431</v>
+      </c>
+      <c r="C3" s="20">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O4</f>
+        <v>-0.29041765741230563</v>
+      </c>
+      <c r="D3" s="20">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P4</f>
+        <v>-0.1231262629838028</v>
+      </c>
+      <c r="E3" s="20">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q4</f>
+        <v>1.6895193676170308</v>
+      </c>
+      <c r="F3" s="20">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R4</f>
+        <v>-0.80337359750095771</v>
+      </c>
+      <c r="G3" s="20">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S4</f>
+        <v>0.9196105881905865</v>
+      </c>
+      <c r="H3" s="20">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T4</f>
+        <v>2.7852324169122014</v>
+      </c>
+      <c r="I3" s="20">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U4</f>
+        <v>-1.879189246567968</v>
+      </c>
+      <c r="J3" s="20">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V4</f>
+        <v>1.4241308621206841</v>
+      </c>
+      <c r="K3" s="20">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W4</f>
+        <v>0.80200185394115664</v>
+      </c>
+      <c r="L3" s="20">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X4</f>
+        <v>1.1828220529299642</v>
+      </c>
+      <c r="M3" s="20">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y4</f>
+        <v>-0.88018949014198711</v>
+      </c>
+      <c r="N3" s="20">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z4</f>
+        <v>0.7894764708863562</v>
+      </c>
+      <c r="O3" s="20">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA4</f>
+        <v>0.30863834398568457</v>
+      </c>
+      <c r="P3" s="20">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB4</f>
+        <v>1.3161491291582976</v>
+      </c>
+      <c r="Q3" s="20">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC4</f>
+        <v>1.0260527104203447</v>
+      </c>
+      <c r="R3" s="20">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD4</f>
+        <v>1.0162635117923315</v>
+      </c>
+      <c r="S3" s="20">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE4</f>
+        <v>2.4582047326121454</v>
+      </c>
+      <c r="T3" s="20">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF4</f>
+        <v>-2.0404494191781595</v>
+      </c>
+      <c r="U3" s="20">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG4</f>
+        <v>-0.30970463453061825</v>
+      </c>
+      <c r="V3" s="20">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH4</f>
+        <v>0.96523497583715567</v>
+      </c>
+      <c r="W3" s="20">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI4</f>
+        <v>-0.98646088288159461</v>
+      </c>
+      <c r="X3" s="20">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ4</f>
+        <v>-0.84702978072632362</v>
+      </c>
+      <c r="Y3" s="20">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK4</f>
+        <v>0.85547252986208377</v>
+      </c>
+      <c r="Z3" s="20">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL4</f>
+        <v>3.0300688258566879</v>
+      </c>
+      <c r="AA3" s="20">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM4</f>
+        <v>1.5157083482844413</v>
+      </c>
+      <c r="AB3" s="20">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN4</f>
+        <v>0.37165318398831459</v>
+      </c>
+      <c r="AC3" s="20">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO4</f>
+        <v>-3.0171849545627154</v>
+      </c>
+      <c r="AD3" s="20">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP4</f>
+        <v>-1.419006943984968</v>
+      </c>
+      <c r="AE3" s="20">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ4</f>
+        <v>0.38073693636950878</v>
+      </c>
+      <c r="AF3" s="70">
+        <f>B3^2+C3^2+D3^2+E3^2+F3^2+G3^2+H3^2+I3^2+J3^2+K3^2+L3^2+M3^2+N3^2+O3^2+P3^2+Q3^2+R3^2+S3^2+T3^2+U3^2+V3^2+W3^2+X3^2+Y3^2+Z3^2+AA3^2+AB3^2+AC3^2+AD3^2+AE3^2</f>
+        <v>61.731273643650745</v>
+      </c>
+      <c r="AG3" s="55">
+        <f t="shared" ref="AG3:AG13" si="0">1-(AF3/$B$17)</f>
+        <v>0.90391749658322573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="80">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N5</f>
+        <v>-0.31510525300362247</v>
+      </c>
+      <c r="C4" s="20">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O5</f>
+        <v>-0.15427102375419821</v>
+      </c>
+      <c r="D4" s="20">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P5</f>
+        <v>-0.26217399014807796</v>
+      </c>
+      <c r="E4" s="20">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q5</f>
+        <v>1.6305683135569069</v>
+      </c>
+      <c r="F4" s="20">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R5</f>
+        <v>5.5435673862973545E-3</v>
+      </c>
+      <c r="G4" s="20">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S5</f>
+        <v>0.53496705862136906</v>
+      </c>
+      <c r="H4" s="20">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T5</f>
+        <v>3.2255285177190416</v>
+      </c>
+      <c r="I4" s="20">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U5</f>
+        <v>-0.5456606979024059</v>
+      </c>
+      <c r="J4" s="20">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V5</f>
+        <v>0.52440253301344342</v>
+      </c>
+      <c r="K4" s="20">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W5</f>
+        <v>1.4838548835633887</v>
+      </c>
+      <c r="L4" s="20">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X5</f>
+        <v>1.5668088117437691</v>
+      </c>
+      <c r="M4" s="20">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y5</f>
+        <v>-0.3138715893464834</v>
+      </c>
+      <c r="N4" s="20">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z5</f>
+        <v>0.36805461531245243</v>
+      </c>
+      <c r="O4" s="20">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA5</f>
+        <v>0.68662813256994326</v>
+      </c>
+      <c r="P4" s="20">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB5</f>
+        <v>1.4639206545859835</v>
+      </c>
+      <c r="Q4" s="20">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC5</f>
+        <v>1.6562056654759587</v>
+      </c>
+      <c r="R4" s="20">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD5</f>
+        <v>1.5075225440630078</v>
+      </c>
+      <c r="S4" s="20">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE5</f>
+        <v>2.9447768397415786</v>
+      </c>
+      <c r="T4" s="20">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF5</f>
+        <v>-0.86349694314842651</v>
+      </c>
+      <c r="U4" s="20">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG5</f>
+        <v>-1.2866419759388208</v>
+      </c>
+      <c r="V4" s="20">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH5</f>
+        <v>0.81695292609047954</v>
+      </c>
+      <c r="W4" s="20">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI5</f>
+        <v>-0.52432049250212032</v>
+      </c>
+      <c r="X4" s="20">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ5</f>
+        <v>-1.3193328249810037</v>
+      </c>
+      <c r="Y4" s="20">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK5</f>
+        <v>0.44992705821317713</v>
+      </c>
+      <c r="Z4" s="20">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL5</f>
+        <v>3.4396565623210478</v>
+      </c>
+      <c r="AA4" s="20">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM5</f>
+        <v>2.9664609889495424</v>
+      </c>
+      <c r="AB4" s="20">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN5</f>
+        <v>1.0973521747134214</v>
+      </c>
+      <c r="AC4" s="20">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO5</f>
+        <v>-2.8392428453004968</v>
+      </c>
+      <c r="AD4" s="20">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP5</f>
+        <v>-2.8635909754943327</v>
+      </c>
+      <c r="AE4" s="20">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ5</f>
+        <v>-0.29866283618394363</v>
+      </c>
+      <c r="AF4" s="70">
+        <f t="shared" ref="AF4:AF13" si="1">B4^2+C4^2+D4^2+E4^2+F4^2+G4^2+H4^2+I4^2+J4^2+K4^2+L4^2+M4^2+N4^2+O4^2+P4^2+Q4^2+R4^2+S4^2+T4^2+U4^2+V4^2+W4^2+X4^2+Y4^2+Z4^2+AA4^2+AB4^2+AC4^2+AD4^2+AE4^2</f>
+        <v>78.77858072232749</v>
+      </c>
+      <c r="AG4" s="55">
+        <f t="shared" si="0"/>
+        <v>0.87738397728328454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="80">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N6</f>
+        <v>-0.3841342248606594</v>
+      </c>
+      <c r="C5" s="20">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O6</f>
+        <v>-0.7644725802788912</v>
+      </c>
+      <c r="D5" s="20">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P6</f>
+        <v>-0.12358862278395577</v>
+      </c>
+      <c r="E5" s="20">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q6</f>
+        <v>1.4890298866972458</v>
+      </c>
+      <c r="F5" s="20">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R6</f>
+        <v>-5.4463450517211243E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S6</f>
+        <v>1.3583739945912825</v>
+      </c>
+      <c r="H5" s="20">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T6</f>
+        <v>2.8339950407809127</v>
+      </c>
+      <c r="I5" s="20">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U6</f>
+        <v>-9.7477770129586361E-2</v>
+      </c>
+      <c r="J5" s="20">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V6</f>
+        <v>1.8818179816498528</v>
+      </c>
+      <c r="K5" s="20">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W6</f>
+        <v>0.56801012363819581</v>
+      </c>
+      <c r="L5" s="20">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X6</f>
+        <v>2.2608755694708123</v>
+      </c>
+      <c r="M5" s="20">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y6</f>
+        <v>7.699335239568228E-2</v>
+      </c>
+      <c r="N5" s="20">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z6</f>
+        <v>0.94451671516656432</v>
+      </c>
+      <c r="O5" s="20">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA6</f>
+        <v>0.25765753593631757</v>
+      </c>
+      <c r="P5" s="20">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB6</f>
+        <v>1.8486812050552857</v>
+      </c>
+      <c r="Q5" s="20">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC6</f>
+        <v>1.806624156092326</v>
+      </c>
+      <c r="R5" s="20">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD6</f>
+        <v>2.1489631469299866</v>
+      </c>
+      <c r="S5" s="20">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE6</f>
+        <v>3.4448355751572421</v>
+      </c>
+      <c r="T5" s="20">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF6</f>
+        <v>-0.36820908766607374</v>
+      </c>
+      <c r="U5" s="20">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG6</f>
+        <v>-8.8607277039919552E-2</v>
+      </c>
+      <c r="V5" s="20">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH6</f>
+        <v>-0.17748385661229094</v>
+      </c>
+      <c r="W5" s="20">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI6</f>
+        <v>-0.67525865223107928</v>
+      </c>
+      <c r="X5" s="20">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ6</f>
+        <v>-0.84891432065449379</v>
+      </c>
+      <c r="Y5" s="20">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK6</f>
+        <v>-3.0836139058344259E-2</v>
+      </c>
+      <c r="Z5" s="20">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL6</f>
+        <v>3.0268467361709881</v>
+      </c>
+      <c r="AA5" s="20">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM6</f>
+        <v>3.3833854871952624</v>
+      </c>
+      <c r="AB5" s="20">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN6</f>
+        <v>2.5740914980368572</v>
+      </c>
+      <c r="AC5" s="20">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO6</f>
+        <v>-2.100544733395914</v>
+      </c>
+      <c r="AD5" s="20">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP6</f>
+        <v>-2.6824614688803265</v>
+      </c>
+      <c r="AE5" s="20">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ6</f>
+        <v>-1.7691230548170651</v>
+      </c>
+      <c r="AF5" s="70">
+        <f t="shared" si="1"/>
+        <v>89.285185305425216</v>
+      </c>
+      <c r="AG5" s="55">
+        <f t="shared" si="0"/>
+        <v>0.86103082577402501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="80">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N7</f>
+        <v>-0.70208415854332173</v>
+      </c>
+      <c r="C6" s="20">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O7</f>
+        <v>-0.83471626470868898</v>
+      </c>
+      <c r="D6" s="20">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P7</f>
+        <v>-0.74452798233084394</v>
+      </c>
+      <c r="E6" s="20">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q7</f>
+        <v>1.630053960355383</v>
+      </c>
+      <c r="F6" s="20">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R7</f>
+        <v>-0.19849254907614267</v>
+      </c>
+      <c r="G6" s="20">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S7</f>
+        <v>1.2973110247137143</v>
+      </c>
+      <c r="H6" s="20">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T7</f>
+        <v>3.6718915849647331</v>
+      </c>
+      <c r="I6" s="20">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U7</f>
+        <v>-0.49590111699184547</v>
+      </c>
+      <c r="J6" s="20">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V7</f>
+        <v>2.3378876477386896</v>
+      </c>
+      <c r="K6" s="20">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W7</f>
+        <v>1.9493122037505373</v>
+      </c>
+      <c r="L6" s="20">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X7</f>
+        <v>1.3289145598805163</v>
+      </c>
+      <c r="M6" s="20">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y7</f>
+        <v>0.78327370094207538</v>
+      </c>
+      <c r="N6" s="20">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z7</f>
+        <v>1.3422597625245416</v>
+      </c>
+      <c r="O6" s="20">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA7</f>
+        <v>0.84426372082562295</v>
+      </c>
+      <c r="P6" s="20">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB7</f>
+        <v>1.4121619522117328</v>
+      </c>
+      <c r="Q6" s="20">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC7</f>
+        <v>2.1981553923415547</v>
+      </c>
+      <c r="R6" s="20">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD7</f>
+        <v>2.302028572982465</v>
+      </c>
+      <c r="S6" s="20">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE7</f>
+        <v>4.0975636989595259</v>
+      </c>
+      <c r="T6" s="20">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF7</f>
+        <v>0.1406492519836462</v>
+      </c>
+      <c r="U6" s="20">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG7</f>
+        <v>0.41539622882809368</v>
+      </c>
+      <c r="V6" s="20">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH7</f>
+        <v>1.0416328281861524</v>
+      </c>
+      <c r="W6" s="20">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI7</f>
+        <v>-1.6871946795301866</v>
+      </c>
+      <c r="X6" s="20">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ7</f>
+        <v>-1.0025085605103712</v>
+      </c>
+      <c r="Y6" s="20">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK7</f>
+        <v>0.44786038616706492</v>
+      </c>
+      <c r="Z6" s="20">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL7</f>
+        <v>2.5376234809769329</v>
+      </c>
+      <c r="AA6" s="20">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM7</f>
+        <v>2.9633113881972761</v>
+      </c>
+      <c r="AB6" s="20">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN7</f>
+        <v>2.9983526755968555</v>
+      </c>
+      <c r="AC6" s="20">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO7</f>
+        <v>-0.59781901951114946</v>
+      </c>
+      <c r="AD6" s="20">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP7</f>
+        <v>-1.9307643819097464</v>
+      </c>
+      <c r="AE6" s="20">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ7</f>
+        <v>-1.584806186678442</v>
+      </c>
+      <c r="AF6" s="70">
+        <f t="shared" si="1"/>
+        <v>99.064434123990893</v>
+      </c>
+      <c r="AG6" s="55">
+        <f t="shared" si="0"/>
+        <v>0.84580977730761342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="80">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N8</f>
+        <v>-2.1847355761359353</v>
+      </c>
+      <c r="C7" s="20">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O8</f>
+        <v>-1.1581643929108765</v>
+      </c>
+      <c r="D7" s="20">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P8</f>
+        <v>-0.81598636567971283</v>
+      </c>
+      <c r="E7" s="20">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q8</f>
+        <v>0.99837691848197352</v>
+      </c>
+      <c r="F7" s="20">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R8</f>
+        <v>-5.5029796535677633E-2</v>
+      </c>
+      <c r="G7" s="20">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S8</f>
+        <v>1.1507912824512871</v>
+      </c>
+      <c r="H7" s="20">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T8</f>
+        <v>3.6097726749822527</v>
+      </c>
+      <c r="I7" s="20">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U8</f>
+        <v>0.35648487253894245</v>
+      </c>
+      <c r="J7" s="20">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V8</f>
+        <v>1.9325745083962147</v>
+      </c>
+      <c r="K7" s="20">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W8</f>
+        <v>2.413268519506417</v>
+      </c>
+      <c r="L7" s="20">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X8</f>
+        <v>2.7341030029768874</v>
+      </c>
+      <c r="M7" s="20">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y8</f>
+        <v>-0.1648033771625208</v>
+      </c>
+      <c r="N7" s="20">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z8</f>
+        <v>2.0607535646063795</v>
+      </c>
+      <c r="O7" s="20">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA8</f>
+        <v>1.2488847964877294</v>
+      </c>
+      <c r="P7" s="20">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB8</f>
+        <v>2.008912108114103</v>
+      </c>
+      <c r="Q7" s="20">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC8</f>
+        <v>1.7540875681369172</v>
+      </c>
+      <c r="R7" s="20">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD8</f>
+        <v>2.7003304189073631</v>
+      </c>
+      <c r="S7" s="20">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE8</f>
+        <v>4.2532760306958721</v>
+      </c>
+      <c r="T7" s="20">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF8</f>
+        <v>0.80466476984658186</v>
+      </c>
+      <c r="U7" s="20">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG8</f>
+        <v>0.93305407380204741</v>
+      </c>
+      <c r="V7" s="20">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH8</f>
+        <v>1.5543518864736683</v>
+      </c>
+      <c r="W7" s="20">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI8</f>
+        <v>-0.44699624579915564</v>
+      </c>
+      <c r="X7" s="20">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ8</f>
+        <v>-2.0319436357097871</v>
+      </c>
+      <c r="Y7" s="20">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK8</f>
+        <v>0.29161009603929244</v>
+      </c>
+      <c r="Z7" s="20">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL8</f>
+        <v>3.0245979340541567</v>
+      </c>
+      <c r="AA7" s="20">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM8</f>
+        <v>2.4656281701739147</v>
+      </c>
+      <c r="AB7" s="20">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN8</f>
+        <v>2.5710143854032381</v>
+      </c>
+      <c r="AC7" s="20">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO8</f>
+        <v>-0.16622124510305269</v>
+      </c>
+      <c r="AD7" s="20">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP8</f>
+        <v>-0.40205256955738378</v>
+      </c>
+      <c r="AE7" s="20">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ8</f>
+        <v>-0.82011027075369469</v>
+      </c>
+      <c r="AF7" s="70">
+        <f>B7^2+C7^2+D7^2+E7^2+F7^2+G7^2+H7^2+I7^2+J7^2+K7^2+L7^2+M7^2+N7^2+O7^2+P7^2+Q7^2+R7^2+S7^2+T7^2+U7^2+V7^2+W7^2+X7^2+Y7^2+Z7^2+AA7^2+AB7^2+AC7^2+AD7^2+AE7^2</f>
+        <v>108.6714017201475</v>
+      </c>
+      <c r="AG7" s="55">
+        <f t="shared" si="0"/>
+        <v>0.83085687835705868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="80">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N9</f>
+        <v>-1.701288486296157</v>
+      </c>
+      <c r="C8" s="20">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O9</f>
+        <v>-2.6660186593014501</v>
+      </c>
+      <c r="D8" s="20">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P9</f>
+        <v>-1.1449326266003155</v>
+      </c>
+      <c r="E8" s="20">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q9</f>
+        <v>0.92570384986755982</v>
+      </c>
+      <c r="F8" s="20">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R9</f>
+        <v>-0.69744440004129871</v>
+      </c>
+      <c r="G8" s="20">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S9</f>
+        <v>1.2966926864626984</v>
+      </c>
+      <c r="H8" s="20">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T9</f>
+        <v>3.4607623170118202</v>
+      </c>
+      <c r="I8" s="20">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U9</f>
+        <v>0.29331003432059077</v>
+      </c>
+      <c r="J8" s="20">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V9</f>
+        <v>2.7994497804088709</v>
+      </c>
+      <c r="K8" s="20">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W9</f>
+        <v>2.0010656651267738</v>
+      </c>
+      <c r="L8" s="20">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X9</f>
+        <v>3.2059458797518374</v>
+      </c>
+      <c r="M8" s="20">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y9</f>
+        <v>1.2642711604290042</v>
+      </c>
+      <c r="N8" s="20">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z9</f>
+        <v>1.0965605991362537</v>
+      </c>
+      <c r="O8" s="20">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA9</f>
+        <v>1.979591914822656</v>
+      </c>
+      <c r="P8" s="20">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB9</f>
+        <v>2.4204111347695303</v>
+      </c>
+      <c r="Q8" s="20">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC9</f>
+        <v>2.3609815810315027</v>
+      </c>
+      <c r="R8" s="20">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD9</f>
+        <v>2.2487141081895388</v>
+      </c>
+      <c r="S8" s="20">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE9</f>
+        <v>4.6583484101930495</v>
+      </c>
+      <c r="T8" s="20">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF9</f>
+        <v>0.96302397751490787</v>
+      </c>
+      <c r="U8" s="20">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG9</f>
+        <v>1.6083568588524173</v>
+      </c>
+      <c r="V8" s="20">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH9</f>
+        <v>2.0808091378631488</v>
+      </c>
+      <c r="W8" s="20">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI9</f>
+        <v>7.4438266942806308E-2</v>
+      </c>
+      <c r="X8" s="20">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ9</f>
+        <v>-0.77066369001047264</v>
+      </c>
+      <c r="Y8" s="20">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK9</f>
+        <v>-0.75532383036662765</v>
+      </c>
+      <c r="Z8" s="20">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL9</f>
+        <v>2.8656916235091714</v>
+      </c>
+      <c r="AA8" s="20">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM9</f>
+        <v>2.9608804580569057</v>
+      </c>
+      <c r="AB8" s="20">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN9</f>
+        <v>2.0648712996427321</v>
+      </c>
+      <c r="AC8" s="20">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO9</f>
+        <v>-0.60082364484091499</v>
+      </c>
+      <c r="AD8" s="20">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP9</f>
+        <v>3.688171923357686E-2</v>
+      </c>
+      <c r="AE8" s="20">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ9</f>
+        <v>0.73458734797581116</v>
+      </c>
+      <c r="AF8" s="70">
+        <f t="shared" si="1"/>
+        <v>124.58764964277171</v>
+      </c>
+      <c r="AG8" s="55">
+        <f t="shared" si="0"/>
+        <v>0.80608381188453404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="80">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N10</f>
+        <v>-2.4878003705707386</v>
+      </c>
+      <c r="C9" s="20">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O10</f>
+        <v>-2.17449114204598</v>
+      </c>
+      <c r="D9" s="20">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P10</f>
+        <v>-2.6779894585023172</v>
+      </c>
+      <c r="E9" s="20">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q10</f>
+        <v>0.59125951802898413</v>
+      </c>
+      <c r="F9" s="20">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R10</f>
+        <v>-0.77133214026788011</v>
+      </c>
+      <c r="G9" s="20">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S10</f>
+        <v>0.64354064201784666</v>
+      </c>
+      <c r="H9" s="20">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T10</f>
+        <v>3.6091023450831088</v>
+      </c>
+      <c r="I9" s="20">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U10</f>
+        <v>0.14180908863732355</v>
+      </c>
+      <c r="J9" s="20">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V10</f>
+        <v>2.7352190258235609</v>
+      </c>
+      <c r="K9" s="20">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W10</f>
+        <v>2.8824300567580252</v>
+      </c>
+      <c r="L9" s="20">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X10</f>
+        <v>2.7868533877771924</v>
+      </c>
+      <c r="M9" s="20">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y10</f>
+        <v>1.7440005095760469</v>
+      </c>
+      <c r="N9" s="20">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z10</f>
+        <v>2.5495209627370627</v>
+      </c>
+      <c r="O9" s="20">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA10</f>
+        <v>0.99928324313371775</v>
+      </c>
+      <c r="P9" s="20">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB10</f>
+        <v>3.1633314320767099</v>
+      </c>
+      <c r="Q9" s="20">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC10</f>
+        <v>2.7793584813703021</v>
+      </c>
+      <c r="R9" s="20">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD10</f>
+        <v>2.8657518640567687</v>
+      </c>
+      <c r="S9" s="20">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE10</f>
+        <v>4.1991836978089623</v>
+      </c>
+      <c r="T9" s="20">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF10</f>
+        <v>1.3748668144818126</v>
+      </c>
+      <c r="U9" s="20">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG10</f>
+        <v>1.7693629127011405</v>
+      </c>
+      <c r="V9" s="20">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH10</f>
+        <v>2.7673990632291634</v>
+      </c>
+      <c r="W9" s="20">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI10</f>
+        <v>0.60969482584021506</v>
+      </c>
+      <c r="X9" s="20">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ10</f>
+        <v>-0.24051382077801975</v>
+      </c>
+      <c r="Y9" s="20">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK10</f>
+        <v>0.52703739033935193</v>
+      </c>
+      <c r="Z9" s="20">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL10</f>
+        <v>1.8012590425883559</v>
+      </c>
+      <c r="AA9" s="20">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM10</f>
+        <v>2.7993181569490702</v>
+      </c>
+      <c r="AB9" s="20">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN10</f>
+        <v>2.5684013292864947</v>
+      </c>
+      <c r="AC9" s="20">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO10</f>
+        <v>-1.1154265032474697</v>
+      </c>
+      <c r="AD9" s="20">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP10</f>
+        <v>-0.40498470839806799</v>
+      </c>
+      <c r="AE9" s="20">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ10</f>
+        <v>1.1808580686853176</v>
+      </c>
+      <c r="AF9" s="70">
+        <f t="shared" si="1"/>
+        <v>144.03408270235832</v>
+      </c>
+      <c r="AG9" s="55">
+        <f t="shared" si="0"/>
+        <v>0.77581613942927796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="80">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N11</f>
+        <v>-2.3929027076769529</v>
+      </c>
+      <c r="C10" s="20">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O11</f>
+        <v>-2.9739326803756327</v>
+      </c>
+      <c r="D10" s="20">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P11</f>
+        <v>-2.1783816046572539</v>
+      </c>
+      <c r="E10" s="20">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q11</f>
+        <v>-0.96699959610111819</v>
+      </c>
+      <c r="F10" s="20">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R11</f>
+        <v>-1.1112744812246973</v>
+      </c>
+      <c r="G10" s="20">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S11</f>
+        <v>0.56843824383231123</v>
+      </c>
+      <c r="H10" s="20">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T11</f>
+        <v>2.9452129803906146</v>
+      </c>
+      <c r="I10" s="20">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U11</f>
+        <v>0.29258771335772593</v>
+      </c>
+      <c r="J10" s="20">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V11</f>
+        <v>2.5812275204222956</v>
+      </c>
+      <c r="K10" s="20">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W11</f>
+        <v>2.8171433976745277</v>
+      </c>
+      <c r="L10" s="20">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X11</f>
+        <v>3.6827067361655992</v>
+      </c>
+      <c r="M10" s="20">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y11</f>
+        <v>1.3180184574477067</v>
+      </c>
+      <c r="N10" s="20">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z11</f>
+        <v>3.0371366956102079</v>
+      </c>
+      <c r="O10" s="20">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA11</f>
+        <v>2.476129164260982</v>
+      </c>
+      <c r="P10" s="20">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB11</f>
+        <v>2.1669072353136585</v>
+      </c>
+      <c r="Q10" s="20">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC11</f>
+        <v>3.5344918203704552</v>
+      </c>
+      <c r="R10" s="20">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD11</f>
+        <v>3.2910065607698726</v>
+      </c>
+      <c r="S10" s="20">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE11</f>
+        <v>4.8263650826305522</v>
+      </c>
+      <c r="T10" s="20">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF11</f>
+        <v>0.90815378527744883</v>
+      </c>
+      <c r="U10" s="20">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG11</f>
+        <v>2.1879761310360877</v>
+      </c>
+      <c r="V10" s="20">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH11</f>
+        <v>2.9310519335070495</v>
+      </c>
+      <c r="W10" s="20">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI11</f>
+        <v>1.3075717646514917</v>
+      </c>
+      <c r="X10" s="20">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ11</f>
+        <v>0.30354194672083423</v>
+      </c>
+      <c r="Y10" s="20">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK11</f>
+        <v>1.0659025180994419</v>
+      </c>
+      <c r="Z10" s="20">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL11</f>
+        <v>3.1047013013420184</v>
+      </c>
+      <c r="AA10" s="20">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM11</f>
+        <v>1.717387118202744</v>
+      </c>
+      <c r="AB10" s="20">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN11</f>
+        <v>2.4041830674698232</v>
+      </c>
+      <c r="AC10" s="20">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO11</f>
+        <v>-0.60361882488688678</v>
+      </c>
+      <c r="AD10" s="20">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP11</f>
+        <v>-0.92804724436064845</v>
+      </c>
+      <c r="AE10" s="20">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ11</f>
+        <v>0.73172769480944311</v>
+      </c>
+      <c r="AF10" s="70">
+        <f t="shared" si="1"/>
+        <v>164.40604189319825</v>
+      </c>
+      <c r="AG10" s="55">
+        <f t="shared" si="0"/>
+        <v>0.74410791889491046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="80">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N12</f>
+        <v>-2.2234879573730026</v>
+      </c>
+      <c r="C11" s="20">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O12</f>
+        <v>-2.8775002208753477</v>
+      </c>
+      <c r="D11" s="20">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P12</f>
+        <v>-2.9907526517093146</v>
+      </c>
+      <c r="E11" s="20">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q12</f>
+        <v>-0.45931149649153014</v>
+      </c>
+      <c r="F11" s="20">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R12</f>
+        <v>-2.6947355943027418</v>
+      </c>
+      <c r="G11" s="20">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S12</f>
+        <v>0.22299795555628776</v>
+      </c>
+      <c r="H11" s="20">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T12</f>
+        <v>2.8688959378992109</v>
+      </c>
+      <c r="I11" s="20">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U12</f>
+        <v>-0.38203885089215817</v>
+      </c>
+      <c r="J11" s="20">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V12</f>
+        <v>2.7344447143813539</v>
+      </c>
+      <c r="K11" s="20">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W12</f>
+        <v>2.6606613605497955</v>
+      </c>
+      <c r="L11" s="20">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X12</f>
+        <v>3.61636418445255</v>
+      </c>
+      <c r="M11" s="20">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y12</f>
+        <v>2.228360599733648</v>
+      </c>
+      <c r="N11" s="20">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z12</f>
+        <v>2.6042651607686054</v>
+      </c>
+      <c r="O11" s="20">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA12</f>
+        <v>2.9716311922152414</v>
+      </c>
+      <c r="P11" s="20">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB12</f>
+        <v>3.6676384454875404</v>
+      </c>
+      <c r="Q11" s="20">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC12</f>
+        <v>2.5219522796759506</v>
+      </c>
+      <c r="R11" s="20">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD12</f>
+        <v>4.0583528041852617</v>
+      </c>
+      <c r="S11" s="20">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE12</f>
+        <v>5.2584974984097528</v>
+      </c>
+      <c r="T11" s="20">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF12</f>
+        <v>1.545478685036386</v>
+      </c>
+      <c r="U11" s="20">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG12</f>
+        <v>1.7137148698564744</v>
+      </c>
+      <c r="V11" s="20">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH12</f>
+        <v>3.3564354571092139</v>
+      </c>
+      <c r="W11" s="20">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI12</f>
+        <v>1.4738714216076545</v>
+      </c>
+      <c r="X11" s="20">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ12</f>
+        <v>1.0127057721084469</v>
+      </c>
+      <c r="Y11" s="20">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK12</f>
+        <v>1.6187573952943595</v>
+      </c>
+      <c r="Z11" s="20">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL12</f>
+        <v>3.652281589667993</v>
+      </c>
+      <c r="AA11" s="20">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM12</f>
+        <v>3.0419101780478002</v>
+      </c>
+      <c r="AB11" s="20">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN12</f>
+        <v>1.3047537675851686</v>
+      </c>
+      <c r="AC11" s="20">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO12</f>
+        <v>-0.77049301755870658</v>
+      </c>
+      <c r="AD11" s="20">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP12</f>
+        <v>-0.40796201032615187</v>
+      </c>
+      <c r="AE11" s="20">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ12</f>
+        <v>0.20020557637979408</v>
+      </c>
+      <c r="AF11" s="70">
+        <f t="shared" si="1"/>
+        <v>197.71809835249263</v>
+      </c>
+      <c r="AG11" s="55">
+        <f t="shared" si="0"/>
+        <v>0.69225890315863581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="80">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N13</f>
+        <v>-2.574775613524892</v>
+      </c>
+      <c r="C12" s="20">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O13</f>
+        <v>-2.7053891350994519</v>
+      </c>
+      <c r="D12" s="20">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P13</f>
+        <v>-2.892785412854046</v>
+      </c>
+      <c r="E12" s="20">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q13</f>
+        <v>-1.2846119069349911</v>
+      </c>
+      <c r="F12" s="20">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R13</f>
+        <v>-2.1789673397526741</v>
+      </c>
+      <c r="G12" s="20">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S13</f>
+        <v>-1.3856648731927308</v>
+      </c>
+      <c r="H12" s="20">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T13</f>
+        <v>2.5179577641023272</v>
+      </c>
+      <c r="I12" s="20">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U13</f>
+        <v>-0.45957052403652199</v>
+      </c>
+      <c r="J12" s="20">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V13</f>
+        <v>2.0490810712629752</v>
+      </c>
+      <c r="K12" s="20">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W13</f>
+        <v>2.8163170963373645</v>
+      </c>
+      <c r="L12" s="20">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X13</f>
+        <v>3.4573916435985765</v>
+      </c>
+      <c r="M12" s="20">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y13</f>
+        <v>2.1609621672595551</v>
+      </c>
+      <c r="N12" s="20">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z13</f>
+        <v>3.5290959340943147</v>
+      </c>
+      <c r="O12" s="20">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA13</f>
+        <v>2.5318702520999423</v>
+      </c>
+      <c r="P12" s="20">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB13</f>
+        <v>4.1710266798789277</v>
+      </c>
+      <c r="Q12" s="20">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC13</f>
+        <v>4.0465685104196467</v>
+      </c>
+      <c r="R12" s="20">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD13</f>
+        <v>3.0296981006999246</v>
+      </c>
+      <c r="S12" s="20">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE13</f>
+        <v>6.038056508964182</v>
+      </c>
+      <c r="T12" s="20">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF13</f>
+        <v>1.9844887425743494</v>
+      </c>
+      <c r="U12" s="20">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG13</f>
+        <v>2.3611831705370463</v>
+      </c>
+      <c r="V12" s="20">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH13</f>
+        <v>2.8746260487984188</v>
+      </c>
+      <c r="W12" s="20">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI13</f>
+        <v>1.9060251743770493</v>
+      </c>
+      <c r="X12" s="20">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ13</f>
+        <v>1.1816521859923128</v>
+      </c>
+      <c r="Y12" s="20">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK13</f>
+        <v>2.3392079803907819</v>
+      </c>
+      <c r="Z12" s="20">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL13</f>
+        <v>4.2139354776547222</v>
+      </c>
+      <c r="AA12" s="20">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM13</f>
+        <v>3.5982055289790011</v>
+      </c>
+      <c r="AB12" s="20">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN13</f>
+        <v>2.6503573915679652</v>
+      </c>
+      <c r="AC12" s="20">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO13</f>
+        <v>-1.8874203818967317</v>
+      </c>
+      <c r="AD12" s="20">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP13</f>
+        <v>-0.57749210399977358</v>
+      </c>
+      <c r="AE12" s="20">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ13</f>
+        <v>0.7285682730463563</v>
+      </c>
+      <c r="AF12" s="70">
+        <f t="shared" si="1"/>
+        <v>234.64764762338362</v>
+      </c>
+      <c r="AG12" s="55">
+        <f t="shared" si="0"/>
+        <v>0.63477939018951912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="81">
+        <f>'Forecasts on validation'!N$2-'Forecasts on validation'!N14</f>
+        <v>-2.9369489491794809</v>
+      </c>
+      <c r="C13" s="82">
+        <f>'Forecasts on validation'!O$2-'Forecasts on validation'!O14</f>
+        <v>-3.0621800899913083</v>
+      </c>
+      <c r="D13" s="82">
+        <f>'Forecasts on validation'!P$2-'Forecasts on validation'!P14</f>
+        <v>-2.7179780219137157</v>
+      </c>
+      <c r="E13" s="82">
+        <f>'Forecasts on validation'!Q$2-'Forecasts on validation'!Q14</f>
+        <v>-1.1851099059760486</v>
+      </c>
+      <c r="F13" s="82">
+        <f>'Forecasts on validation'!R$2-'Forecasts on validation'!R14</f>
+        <v>-3.0171969682581619</v>
+      </c>
+      <c r="G13" s="82">
+        <f>'Forecasts on validation'!S$2-'Forecasts on validation'!S14</f>
+        <v>-0.86181655452519834</v>
+      </c>
+      <c r="H13" s="82">
+        <f>'Forecasts on validation'!T$2-'Forecasts on validation'!T14</f>
+        <v>0.88409350295611233</v>
+      </c>
+      <c r="I13" s="82">
+        <f>'Forecasts on validation'!U$2-'Forecasts on validation'!U14</f>
+        <v>-0.81600652155661635</v>
+      </c>
+      <c r="J13" s="82">
+        <f>'Forecasts on validation'!V$2-'Forecasts on validation'!V14</f>
+        <v>1.9703347811184102</v>
+      </c>
+      <c r="K13" s="82">
+        <f>'Forecasts on validation'!W$2-'Forecasts on validation'!W14</f>
+        <v>2.1202164950380293</v>
+      </c>
+      <c r="L13" s="82">
+        <f>'Forecasts on validation'!X$2-'Forecasts on validation'!X14</f>
+        <v>3.6154858938048164</v>
+      </c>
+      <c r="M13" s="82">
+        <f>'Forecasts on validation'!Y$2-'Forecasts on validation'!Y14</f>
+        <v>1.9994991506702462</v>
+      </c>
+      <c r="N13" s="82">
+        <f>'Forecasts on validation'!Z$2-'Forecasts on validation'!Z14</f>
+        <v>3.4606416327275511</v>
+      </c>
+      <c r="O13" s="82">
+        <f>'Forecasts on validation'!AA$2-'Forecasts on validation'!AA14</f>
+        <v>3.4711894936094581</v>
+      </c>
+      <c r="P13" s="82">
+        <f>'Forecasts on validation'!AB$2-'Forecasts on validation'!AB14</f>
+        <v>3.7243764119286169</v>
+      </c>
+      <c r="Q13" s="82">
+        <f>'Forecasts on validation'!AC$2-'Forecasts on validation'!AC14</f>
+        <v>4.5578428626051632</v>
+      </c>
+      <c r="R13" s="82">
+        <f>'Forecasts on validation'!AD$2-'Forecasts on validation'!AD14</f>
+        <v>4.5781990835396371</v>
+      </c>
+      <c r="S13" s="82">
+        <f>'Forecasts on validation'!AE$2-'Forecasts on validation'!AE14</f>
+        <v>4.9932868238266011</v>
+      </c>
+      <c r="T13" s="82">
+        <f>'Forecasts on validation'!AF$2-'Forecasts on validation'!AF14</f>
+        <v>2.7762603829931649</v>
+      </c>
+      <c r="U13" s="82">
+        <f>'Forecasts on validation'!AG$2-'Forecasts on validation'!AG14</f>
+        <v>2.8070707925273055</v>
+      </c>
+      <c r="V13" s="82">
+        <f>'Forecasts on validation'!AH$2-'Forecasts on validation'!AH14</f>
+        <v>3.5322376363861778</v>
+      </c>
+      <c r="W13" s="82">
+        <f>'Forecasts on validation'!AI$2-'Forecasts on validation'!AI14</f>
+        <v>1.4166677037782023</v>
+      </c>
+      <c r="X13" s="82">
+        <f>'Forecasts on validation'!AJ$2-'Forecasts on validation'!AJ14</f>
+        <v>1.6205760918298111</v>
+      </c>
+      <c r="Y13" s="82">
+        <f>'Forecasts on validation'!AK$2-'Forecasts on validation'!AK14</f>
+        <v>2.5108011214521255</v>
+      </c>
+      <c r="Z13" s="82">
+        <f>'Forecasts on validation'!AL$2-'Forecasts on validation'!AL14</f>
+        <v>4.9456726955938706</v>
+      </c>
+      <c r="AA13" s="82">
+        <f>'Forecasts on validation'!AM$2-'Forecasts on validation'!AM14</f>
+        <v>4.1686583288543844</v>
+      </c>
+      <c r="AB13" s="82">
+        <f>'Forecasts on validation'!AN$2-'Forecasts on validation'!AN14</f>
+        <v>3.2153677071448499</v>
+      </c>
+      <c r="AC13" s="82">
+        <f>'Forecasts on validation'!AO$2-'Forecasts on validation'!AO14</f>
+        <v>-0.5207364307271618</v>
+      </c>
+      <c r="AD13" s="82">
+        <f>'Forecasts on validation'!AP$2-'Forecasts on validation'!AP14</f>
+        <v>-1.7119173361083995</v>
+      </c>
+      <c r="AE13" s="82">
+        <f>'Forecasts on validation'!AQ$2-'Forecasts on validation'!AQ14</f>
+        <v>0.55638230822393808</v>
+      </c>
+      <c r="AF13" s="83">
+        <f t="shared" si="1"/>
+        <v>262.78707618194511</v>
+      </c>
+      <c r="AG13" s="84">
+        <f t="shared" si="0"/>
+        <v>0.59098138342504747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="18" x14ac:dyDescent="0.25">
+      <c r="AF14" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG14" s="75">
+        <f>SUM(AG2:AG13)/12</f>
+        <v>0.78891199990586325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="66">
+        <f>SUM('Forecasts on validation'!N2:AQ2)/30</f>
+        <v>49.595666666666681</v>
+      </c>
+      <c r="W16" s="85">
+        <f>B16</f>
+        <v>49.595666666666681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <f>('Forecasts on validation'!N2-'R-Square'!B16)^2+('Forecasts on validation'!O2-'R-Square'!B16)^2+('Forecasts on validation'!P2-'R-Square'!B16)^2+('Forecasts on validation'!Q2-'R-Square'!B16)^2+('Forecasts on validation'!R2-'R-Square'!B16)^2+('Forecasts on validation'!S2-'R-Square'!B16)^2+('Forecasts on validation'!T2-'R-Square'!B16)^2+('Forecasts on validation'!U2-'R-Square'!B16)^2+('Forecasts on validation'!V2-'R-Square'!B16)^2+('Forecasts on validation'!W2-'R-Square'!B16)^2+('Forecasts on validation'!X2-'R-Square'!B16)^2+('Forecasts on validation'!Y2-'R-Square'!B16)^2+('Forecasts on validation'!Z2-'R-Square'!B16)^2+('Forecasts on validation'!AA2-'R-Square'!B16)^2+('Forecasts on validation'!AB2-'R-Square'!B16)^2+('Forecasts on validation'!AC2-'R-Square'!B16)^2+('Forecasts on validation'!AD2-'R-Square'!B16)^2+('Forecasts on validation'!AE2-'R-Square'!B16)^2+('Forecasts on validation'!AF2-'R-Square'!B16)^2+('Forecasts on validation'!AG2-'R-Square'!B16)^2+('Forecasts on validation'!AH2-'R-Square'!B16)^2+('Forecasts on validation'!AI2-'R-Square'!B16)^2+('Forecasts on validation'!AJ2-'R-Square'!B16)^2+('Forecasts on validation'!AK2-'R-Square'!B16)^2+('Forecasts on validation'!AL2-'R-Square'!B16)^2+('Forecasts on validation'!AM2-'R-Square'!B16)^2+('Forecasts on validation'!AN2-'R-Square'!B16)^2+('Forecasts on validation'!AO2-'R-Square'!B16)^2+('Forecasts on validation'!AP2-'R-Square'!B16)^2+('Forecasts on validation'!AQ2-'R-Square'!B16)^2</f>
+        <v>642.48194466666655</v>
+      </c>
+      <c r="W17" s="85">
+        <f>B17</f>
+        <v>642.48194466666655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>